--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10314</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10331</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2020</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>18</v>
       </c>
+      <c r="IC3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>0</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>0</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>108</v>
       </c>
+      <c r="IC6" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>57</v>
       </c>
+      <c r="IC7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>51</v>
       </c>
+      <c r="IC8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>1</v>
       </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>8</v>
       </c>
+      <c r="IC10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>194</v>
       </c>
+      <c r="IC11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>176</v>
       </c>
+      <c r="IC12" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>370</v>
       </c>
+      <c r="IC13" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.1</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>96</v>
       </c>
+      <c r="IC15" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>37</v>
       </c>
+      <c r="IC16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>30</v>
       </c>
+      <c r="IC17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>9</v>
       </c>
+      <c r="IC18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>14</v>
       </c>
+      <c r="IC19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>17</v>
       </c>
+      <c r="IC20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>10</v>
       </c>
+      <c r="IC21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>5</v>
       </c>
+      <c r="IC22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>1</v>
       </c>
+      <c r="IC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>23</v>
       </c>
+      <c r="IC24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="IC25" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>21.76</v>
       </c>
+      <c r="IC26" t="n">
+        <v>28.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>16.09</v>
       </c>
+      <c r="IC27" t="n">
+        <v>18.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>27</v>
       </c>
+      <c r="IC28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>34</v>
       </c>
+      <c r="IC29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>31</v>
       </c>
+      <c r="IC30" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>44</v>
       </c>
+      <c r="IC31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>1.91</v>
       </c>
+      <c r="IC32" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>2.59</v>
       </c>
+      <c r="IC33" t="n">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>50</v>
       </c>
+      <c r="IC34" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>38.6</v>
       </c>
+      <c r="IC35" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>187.5</v>
       </c>
+      <c r="IC36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>85.7</v>
       </c>
+      <c r="IC37" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>26.8</v>
       </c>
+      <c r="IC38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>127.4</v>
       </c>
+      <c r="IC39" t="n">
+        <v>99.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>7</v>
       </c>
+      <c r="IC40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>3</v>
       </c>
+      <c r="IC41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>3</v>
       </c>
+      <c r="IC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>9</v>
       </c>
+      <c r="IC43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>110</v>
       </c>
+      <c r="IC44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>251</v>
       </c>
+      <c r="IC45" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>305</v>
       </c>
+      <c r="IC46" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="IC47" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>34</v>
       </c>
+      <c r="IC48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>9</v>
       </c>
+      <c r="IC49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>15</v>
       </c>
+      <c r="IC50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>27</v>
       </c>
+      <c r="IC51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>31</v>
       </c>
+      <c r="IC52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>36</v>
       </c>
+      <c r="IC53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>5</v>
       </c>
+      <c r="IC54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>10</v>
       </c>
+      <c r="IC55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>58.8</v>
       </c>
+      <c r="IC56" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>152</v>
       </c>
+      <c r="IC57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>119</v>
       </c>
+      <c r="IC58" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>271</v>
       </c>
+      <c r="IC59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.28</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>54</v>
       </c>
+      <c r="IC61" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>39</v>
       </c>
+      <c r="IC62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>32</v>
       </c>
+      <c r="IC63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>14</v>
       </c>
+      <c r="IC64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>9</v>
       </c>
+      <c r="IC65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>8</v>
       </c>
+      <c r="IC66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>4</v>
       </c>
+      <c r="IC67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>7</v>
       </c>
+      <c r="IC68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>2</v>
       </c>
+      <c r="IC69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>17</v>
       </c>
+      <c r="IC70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>47.1</v>
       </c>
+      <c r="IC71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>33.88</v>
       </c>
+      <c r="IC72" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>15.94</v>
       </c>
+      <c r="IC73" t="n">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>34</v>
       </c>
+      <c r="IC74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>35</v>
       </c>
+      <c r="IC75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>26</v>
       </c>
+      <c r="IC76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>39</v>
       </c>
+      <c r="IC77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>2.29</v>
       </c>
+      <c r="IC78" t="n">
+        <v>2.46</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>4.88</v>
       </c>
+      <c r="IC79" t="n">
+        <v>4.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>38.5</v>
       </c>
+      <c r="IC80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>20.5</v>
       </c>
+      <c r="IC81" t="n">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>188.7</v>
       </c>
+      <c r="IC82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IC83" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>23.8</v>
       </c>
+      <c r="IC84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IC85" t="n">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>11</v>
       </c>
+      <c r="IC86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>3</v>
       </c>
+      <c r="IC87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>5</v>
       </c>
+      <c r="IC88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>3</v>
       </c>
+      <c r="IC89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>114</v>
       </c>
+      <c r="IC90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>161</v>
       </c>
+      <c r="IC91" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>194</v>
       </c>
+      <c r="IC92" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="IC93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>35</v>
       </c>
+      <c r="IC94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>5</v>
       </c>
+      <c r="IC95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>8</v>
       </c>
+      <c r="IC96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>34</v>
       </c>
+      <c r="IC97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>26</v>
       </c>
+      <c r="IC98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>35</v>
       </c>
+      <c r="IC99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>3</v>
       </c>
+      <c r="IC100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>4</v>
       </c>
+      <c r="IC101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73279,9 @@
       <c r="IB102" t="n">
         <v>50</v>
       </c>
+      <c r="IC102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10331</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10342</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>1</v>
       </c>
+      <c r="ID3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>92</v>
       </c>
+      <c r="ID6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>91</v>
       </c>
+      <c r="ID7" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>1</v>
       </c>
+      <c r="ID8" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>1</v>
       </c>
+      <c r="ID9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>5</v>
       </c>
+      <c r="ID10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>207</v>
       </c>
+      <c r="ID11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>195</v>
       </c>
+      <c r="ID12" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>402</v>
       </c>
+      <c r="ID13" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.06</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>96</v>
       </c>
+      <c r="ID15" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>59</v>
       </c>
+      <c r="ID16" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>28</v>
       </c>
+      <c r="ID17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>12</v>
       </c>
+      <c r="ID18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>25</v>
       </c>
+      <c r="ID19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>14</v>
       </c>
+      <c r="ID20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>9</v>
       </c>
+      <c r="ID21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>6</v>
       </c>
+      <c r="ID22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>2</v>
       </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>22</v>
       </c>
+      <c r="ID24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>63.6</v>
       </c>
+      <c r="ID25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>28.71</v>
       </c>
+      <c r="ID26" t="n">
+        <v>56.86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>18.27</v>
       </c>
+      <c r="ID27" t="n">
+        <v>28.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>33</v>
       </c>
+      <c r="ID28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>62</v>
       </c>
+      <c r="ID29" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>51</v>
       </c>
+      <c r="ID30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>53</v>
       </c>
+      <c r="ID31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>2.41</v>
       </c>
+      <c r="ID32" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>3.79</v>
       </c>
+      <c r="ID33" t="n">
+        <v>6.43</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>37.7</v>
       </c>
+      <c r="ID34" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>26.4</v>
       </c>
+      <c r="ID35" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>186.9</v>
       </c>
+      <c r="ID36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="ID37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>25.8</v>
       </c>
+      <c r="ID38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>99.40000000000001</v>
       </c>
+      <c r="ID39" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>8</v>
       </c>
+      <c r="ID40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>5</v>
       </c>
+      <c r="ID41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>5</v>
       </c>
+      <c r="ID42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>4</v>
       </c>
+      <c r="ID43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>138</v>
       </c>
+      <c r="ID44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>251</v>
       </c>
+      <c r="ID45" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>303</v>
       </c>
+      <c r="ID46" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="ID47" t="n">
+        <v>77.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>62</v>
       </c>
+      <c r="ID48" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>16</v>
       </c>
+      <c r="ID49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>15</v>
       </c>
+      <c r="ID50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>33</v>
       </c>
+      <c r="ID51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>51</v>
       </c>
+      <c r="ID52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>47</v>
       </c>
+      <c r="ID53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>4</v>
       </c>
+      <c r="ID54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>9</v>
       </c>
+      <c r="ID55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>64.3</v>
       </c>
+      <c r="ID56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>201</v>
       </c>
+      <c r="ID57" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>176</v>
       </c>
+      <c r="ID58" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>377</v>
       </c>
+      <c r="ID59" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.14</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>76</v>
       </c>
+      <c r="ID61" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>69</v>
       </c>
+      <c r="ID62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>31</v>
       </c>
+      <c r="ID63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>25</v>
       </c>
+      <c r="ID64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>12</v>
       </c>
+      <c r="ID65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>13</v>
       </c>
+      <c r="ID66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>10</v>
       </c>
+      <c r="ID67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>11</v>
       </c>
+      <c r="ID68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>2</v>
       </c>
+      <c r="ID69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>26</v>
       </c>
+      <c r="ID70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>50</v>
       </c>
+      <c r="ID71" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>29</v>
       </c>
+      <c r="ID72" t="n">
+        <v>33.18</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>14.5</v>
       </c>
+      <c r="ID73" t="n">
+        <v>15.87</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>29</v>
       </c>
+      <c r="ID74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>54</v>
       </c>
+      <c r="ID75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>39</v>
       </c>
+      <c r="ID76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>64</v>
       </c>
+      <c r="ID77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.46</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>4.92</v>
       </c>
+      <c r="ID79" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>37.5</v>
       </c>
+      <c r="ID80" t="n">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>20.3</v>
       </c>
+      <c r="ID81" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>186.5</v>
       </c>
+      <c r="ID82" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="ID83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>24.33</v>
       </c>
+      <c r="ID84" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>68.7</v>
       </c>
+      <c r="ID85" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>12</v>
       </c>
+      <c r="ID86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>4</v>
       </c>
+      <c r="ID87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>2</v>
       </c>
+      <c r="ID88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>4</v>
       </c>
+      <c r="ID89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>136</v>
       </c>
+      <c r="ID90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>236</v>
       </c>
+      <c r="ID91" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>279</v>
       </c>
+      <c r="ID92" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>74</v>
       </c>
+      <c r="ID93" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>54</v>
       </c>
+      <c r="ID94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>7</v>
       </c>
+      <c r="ID95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>12</v>
       </c>
+      <c r="ID96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>29</v>
       </c>
+      <c r="ID97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>39</v>
       </c>
+      <c r="ID98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>60</v>
       </c>
+      <c r="ID99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>9</v>
       </c>
+      <c r="ID100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>10</v>
       </c>
+      <c r="ID101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,6 +73585,9 @@
       <c r="IC102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="ID102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10342</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10353</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>2</v>
       </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>1</v>
       </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>49</v>
       </c>
+      <c r="IE6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>78</v>
       </c>
+      <c r="IE7" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>-29</v>
       </c>
+      <c r="IE8" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>0</v>
       </c>
+      <c r="IE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>14</v>
       </c>
+      <c r="IE10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>231</v>
       </c>
+      <c r="IE11" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>167</v>
       </c>
+      <c r="IE12" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>398</v>
       </c>
+      <c r="IE13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.38</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>137</v>
       </c>
+      <c r="IE15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>36</v>
       </c>
+      <c r="IE16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>25</v>
       </c>
+      <c r="IE17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>22</v>
       </c>
+      <c r="IE18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>25</v>
       </c>
+      <c r="IE19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>7</v>
       </c>
+      <c r="IE20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>5</v>
       </c>
+      <c r="IE21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>6</v>
       </c>
+      <c r="IE22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>1</v>
       </c>
+      <c r="IE23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>14</v>
       </c>
+      <c r="IE24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>50</v>
       </c>
+      <c r="IE25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>56.86</v>
       </c>
+      <c r="IE26" t="n">
+        <v>41.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>28.43</v>
       </c>
+      <c r="IE27" t="n">
+        <v>19.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>23</v>
       </c>
+      <c r="IE28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>67</v>
       </c>
+      <c r="IE29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>46</v>
       </c>
+      <c r="IE30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>45</v>
       </c>
+      <c r="IE31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>3.21</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>6.43</v>
       </c>
+      <c r="IE33" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>28.9</v>
       </c>
+      <c r="IE34" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>15.6</v>
       </c>
+      <c r="IE35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IE36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IE37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>25.74</v>
       </c>
+      <c r="IE38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>97.2</v>
       </c>
+      <c r="IE39" t="n">
+        <v>106.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>8</v>
       </c>
+      <c r="IE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>6</v>
       </c>
+      <c r="IE41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>5</v>
       </c>
+      <c r="IE42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>4</v>
       </c>
+      <c r="IE43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>117</v>
       </c>
+      <c r="IE44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>288</v>
       </c>
+      <c r="IE45" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>308</v>
       </c>
+      <c r="IE46" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>77.40000000000001</v>
       </c>
+      <c r="IE47" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>67</v>
       </c>
+      <c r="IE48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>10</v>
       </c>
+      <c r="IE49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>11</v>
       </c>
+      <c r="IE50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>23</v>
       </c>
+      <c r="IE51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>46</v>
       </c>
+      <c r="IE52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>55</v>
       </c>
+      <c r="IE53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>9</v>
       </c>
+      <c r="IE54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>5</v>
       </c>
+      <c r="IE55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IE56" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>222</v>
       </c>
+      <c r="IE57" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>143</v>
       </c>
+      <c r="IE58" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>365</v>
       </c>
+      <c r="IE59" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.55</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>116</v>
       </c>
+      <c r="IE61" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>42</v>
       </c>
+      <c r="IE62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>24</v>
       </c>
+      <c r="IE63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>25</v>
       </c>
+      <c r="IE64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>22</v>
       </c>
+      <c r="IE65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>11</v>
       </c>
+      <c r="IE66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>8</v>
       </c>
+      <c r="IE67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>11</v>
       </c>
+      <c r="IE68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>1</v>
       </c>
+      <c r="IE69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>23</v>
       </c>
+      <c r="IE70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>47.8</v>
       </c>
+      <c r="IE71" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>33.18</v>
       </c>
+      <c r="IE72" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>15.87</v>
       </c>
+      <c r="IE73" t="n">
+        <v>20.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>26</v>
       </c>
+      <c r="IE74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>59</v>
       </c>
+      <c r="IE75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>38</v>
       </c>
+      <c r="IE76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>58</v>
       </c>
+      <c r="IE77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>2.52</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>5.27</v>
       </c>
+      <c r="IE79" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>37.9</v>
       </c>
+      <c r="IE80" t="n">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>19</v>
       </c>
+      <c r="IE81" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>185.3</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>85.8</v>
       </c>
+      <c r="IE83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>27.33</v>
       </c>
+      <c r="IE84" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>125.7</v>
       </c>
+      <c r="IE85" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>5</v>
       </c>
+      <c r="IE86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>6</v>
       </c>
+      <c r="IE87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>3</v>
       </c>
+      <c r="IE88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>8</v>
       </c>
+      <c r="IE89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>128</v>
       </c>
+      <c r="IE90" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>236</v>
       </c>
+      <c r="IE91" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>284</v>
       </c>
+      <c r="IE92" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>77.8</v>
       </c>
+      <c r="IE93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>59</v>
       </c>
+      <c r="IE94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>13</v>
       </c>
+      <c r="IE95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>16</v>
       </c>
+      <c r="IE96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>26</v>
       </c>
+      <c r="IE97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>38</v>
       </c>
+      <c r="IE98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>43</v>
       </c>
+      <c r="IE99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>14</v>
       </c>
+      <c r="IE100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>8</v>
       </c>
+      <c r="IE101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>72.7</v>
       </c>
+      <c r="IE102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10353</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10362</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>3</v>
       </c>
+      <c r="IF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>0</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>64</v>
       </c>
+      <c r="IF6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>69</v>
       </c>
+      <c r="IF7" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>-5</v>
       </c>
+      <c r="IF8" t="n">
+        <v>-15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>0</v>
       </c>
+      <c r="IF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>7</v>
       </c>
+      <c r="IF10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>210</v>
       </c>
+      <c r="IF11" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>166</v>
       </c>
+      <c r="IF12" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>376</v>
       </c>
+      <c r="IF13" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.27</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>95</v>
       </c>
+      <c r="IF15" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>64</v>
       </c>
+      <c r="IF16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>37</v>
       </c>
+      <c r="IF17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>24</v>
       </c>
+      <c r="IF18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>17</v>
       </c>
+      <c r="IF19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>9</v>
       </c>
+      <c r="IF20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>2</v>
       </c>
+      <c r="IF21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>9</v>
       </c>
+      <c r="IF22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>1</v>
       </c>
+      <c r="IF23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>19</v>
       </c>
+      <c r="IF24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>47.4</v>
       </c>
+      <c r="IF25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>41.78</v>
       </c>
+      <c r="IF26" t="n">
+        <v>35.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>19.79</v>
       </c>
+      <c r="IF27" t="n">
+        <v>20.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>37</v>
       </c>
+      <c r="IF28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>52</v>
       </c>
+      <c r="IF29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>39</v>
       </c>
+      <c r="IF30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>44</v>
       </c>
+      <c r="IF31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.32</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>4.89</v>
       </c>
+      <c r="IF33" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>40.9</v>
       </c>
+      <c r="IF34" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>20.5</v>
       </c>
+      <c r="IF35" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>187.5</v>
       </c>
+      <c r="IF36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IF37" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>26</v>
       </c>
+      <c r="IF38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>106.7</v>
       </c>
+      <c r="IF39" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>7</v>
       </c>
+      <c r="IF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>5</v>
       </c>
+      <c r="IF41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>5</v>
       </c>
+      <c r="IF42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>5</v>
       </c>
+      <c r="IF43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>120</v>
       </c>
+      <c r="IF44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>251</v>
       </c>
+      <c r="IF45" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>287</v>
       </c>
+      <c r="IF46" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>76.3</v>
       </c>
+      <c r="IF47" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>52</v>
       </c>
+      <c r="IF48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>9</v>
       </c>
+      <c r="IF49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>5</v>
       </c>
+      <c r="IF50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>37</v>
       </c>
+      <c r="IF51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>39</v>
       </c>
+      <c r="IF52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>34</v>
       </c>
+      <c r="IF53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>10</v>
       </c>
+      <c r="IF54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>2</v>
       </c>
+      <c r="IF55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>22.2</v>
       </c>
+      <c r="IF56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>230</v>
       </c>
+      <c r="IF57" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>163</v>
       </c>
+      <c r="IF58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>393</v>
       </c>
+      <c r="IF59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.41</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>123</v>
       </c>
+      <c r="IF61" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>53</v>
       </c>
+      <c r="IF62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>26</v>
       </c>
+      <c r="IF63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>17</v>
       </c>
+      <c r="IF64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>24</v>
       </c>
+      <c r="IF65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>10</v>
       </c>
+      <c r="IF66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>8</v>
       </c>
+      <c r="IF67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>9</v>
       </c>
+      <c r="IF68" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>0</v>
       </c>
+      <c r="IF69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>19</v>
       </c>
+      <c r="IF70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>52.6</v>
       </c>
+      <c r="IF71" t="n">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>39.3</v>
       </c>
+      <c r="IF72" t="n">
+        <v>26.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>20.68</v>
       </c>
+      <c r="IF73" t="n">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>33</v>
       </c>
+      <c r="IF74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>60</v>
       </c>
+      <c r="IF75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>33</v>
       </c>
+      <c r="IF76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>53</v>
       </c>
+      <c r="IF77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>2.79</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>5.3</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.77</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>35.8</v>
       </c>
+      <c r="IF80" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>18.9</v>
       </c>
+      <c r="IF81" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>188</v>
       </c>
+      <c r="IF82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IF83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>26.91</v>
       </c>
+      <c r="IF84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>130.7</v>
       </c>
+      <c r="IF85" t="n">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>6</v>
       </c>
+      <c r="IF86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>4</v>
       </c>
+      <c r="IF87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>3</v>
       </c>
+      <c r="IF88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>10</v>
       </c>
+      <c r="IF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>121</v>
       </c>
+      <c r="IF90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>268</v>
       </c>
+      <c r="IF91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>293</v>
       </c>
+      <c r="IF92" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="IF93" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>60</v>
       </c>
+      <c r="IF94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>11</v>
       </c>
+      <c r="IF95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>10</v>
       </c>
+      <c r="IF96" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>33</v>
       </c>
+      <c r="IF97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>33</v>
       </c>
+      <c r="IF98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>50</v>
       </c>
+      <c r="IF99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>10</v>
       </c>
+      <c r="IF100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>8</v>
       </c>
+      <c r="IF101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>80</v>
       </c>
+      <c r="IF102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,9 @@
       <c r="IF1" t="n">
         <v>10362</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10370</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1803,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2524,6 +2530,9 @@
       <c r="IF3" t="n">
         <v>4</v>
       </c>
+      <c r="IG3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3248,6 +3257,9 @@
       <c r="IF4" t="n">
         <v>1</v>
       </c>
+      <c r="IG4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3972,6 +3984,9 @@
       <c r="IF5" t="n">
         <v>0</v>
       </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4696,6 +4711,9 @@
       <c r="IF6" t="n">
         <v>81</v>
       </c>
+      <c r="IG6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5420,6 +5438,9 @@
       <c r="IF7" t="n">
         <v>96</v>
       </c>
+      <c r="IG7" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6165,9 @@
       <c r="IF8" t="n">
         <v>-15</v>
       </c>
+      <c r="IG8" t="n">
+        <v>-50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6868,6 +6892,9 @@
       <c r="IF9" t="n">
         <v>0</v>
       </c>
+      <c r="IG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7619,9 @@
       <c r="IF10" t="n">
         <v>6</v>
       </c>
+      <c r="IG10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8316,6 +8346,9 @@
       <c r="IF11" t="n">
         <v>238</v>
       </c>
+      <c r="IG11" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9040,6 +9073,9 @@
       <c r="IF12" t="n">
         <v>185</v>
       </c>
+      <c r="IG12" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9764,6 +9800,9 @@
       <c r="IF13" t="n">
         <v>423</v>
       </c>
+      <c r="IG13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10488,6 +10527,9 @@
       <c r="IF14" t="n">
         <v>1.29</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11212,6 +11254,9 @@
       <c r="IF15" t="n">
         <v>118</v>
       </c>
+      <c r="IG15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11936,6 +11981,9 @@
       <c r="IF16" t="n">
         <v>41</v>
       </c>
+      <c r="IG16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12660,6 +12708,9 @@
       <c r="IF17" t="n">
         <v>33</v>
       </c>
+      <c r="IG17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13384,6 +13435,9 @@
       <c r="IF18" t="n">
         <v>16</v>
       </c>
+      <c r="IG18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14108,6 +14162,9 @@
       <c r="IF19" t="n">
         <v>19</v>
       </c>
+      <c r="IG19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14832,6 +14889,9 @@
       <c r="IF20" t="n">
         <v>12</v>
       </c>
+      <c r="IG20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15556,6 +15616,9 @@
       <c r="IF21" t="n">
         <v>6</v>
       </c>
+      <c r="IG21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16280,6 +16343,9 @@
       <c r="IF22" t="n">
         <v>7</v>
       </c>
+      <c r="IG22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17004,6 +17070,9 @@
       <c r="IF23" t="n">
         <v>2</v>
       </c>
+      <c r="IG23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17728,6 +17797,9 @@
       <c r="IF24" t="n">
         <v>21</v>
       </c>
+      <c r="IG24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18452,6 +18524,9 @@
       <c r="IF25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IG25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19176,6 +19251,9 @@
       <c r="IF26" t="n">
         <v>35.25</v>
       </c>
+      <c r="IG26" t="n">
+        <v>42.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19900,6 +19978,9 @@
       <c r="IF27" t="n">
         <v>20.14</v>
       </c>
+      <c r="IG27" t="n">
+        <v>24.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20624,6 +20705,9 @@
       <c r="IF28" t="n">
         <v>30</v>
       </c>
+      <c r="IG28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21348,6 +21432,9 @@
       <c r="IF29" t="n">
         <v>60</v>
       </c>
+      <c r="IG29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22072,6 +22159,9 @@
       <c r="IF30" t="n">
         <v>47</v>
       </c>
+      <c r="IG30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22796,6 +22886,9 @@
       <c r="IF31" t="n">
         <v>45</v>
       </c>
+      <c r="IG31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23520,6 +23613,9 @@
       <c r="IF32" t="n">
         <v>2.14</v>
       </c>
+      <c r="IG32" t="n">
+        <v>2.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24244,6 +24340,9 @@
       <c r="IF33" t="n">
         <v>3.75</v>
       </c>
+      <c r="IG33" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24968,6 +25067,9 @@
       <c r="IF34" t="n">
         <v>42.2</v>
       </c>
+      <c r="IG34" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25692,6 +25794,9 @@
       <c r="IF35" t="n">
         <v>26.7</v>
       </c>
+      <c r="IG35" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26416,6 +26521,9 @@
       <c r="IF36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IG36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27140,6 +27248,9 @@
       <c r="IF37" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="IG37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27864,6 +27975,9 @@
       <c r="IF38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IG38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28588,6 +28702,9 @@
       <c r="IF39" t="n">
         <v>95.5</v>
       </c>
+      <c r="IG39" t="n">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29312,6 +29429,9 @@
       <c r="IF40" t="n">
         <v>7</v>
       </c>
+      <c r="IG40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30036,6 +30156,9 @@
       <c r="IF41" t="n">
         <v>6</v>
       </c>
+      <c r="IG41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30760,6 +30883,9 @@
       <c r="IF42" t="n">
         <v>5</v>
       </c>
+      <c r="IG42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31484,6 +31610,9 @@
       <c r="IF43" t="n">
         <v>4</v>
       </c>
+      <c r="IG43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32208,6 +32337,9 @@
       <c r="IF44" t="n">
         <v>130</v>
       </c>
+      <c r="IG44" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32932,6 +33064,9 @@
       <c r="IF45" t="n">
         <v>279</v>
       </c>
+      <c r="IG45" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33656,6 +33791,9 @@
       <c r="IF46" t="n">
         <v>311</v>
       </c>
+      <c r="IG46" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34380,6 +34518,9 @@
       <c r="IF47" t="n">
         <v>73.5</v>
       </c>
+      <c r="IG47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35104,6 +35245,9 @@
       <c r="IF48" t="n">
         <v>60</v>
       </c>
+      <c r="IG48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35828,6 +35972,9 @@
       <c r="IF49" t="n">
         <v>15</v>
       </c>
+      <c r="IG49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36552,6 +36699,9 @@
       <c r="IF50" t="n">
         <v>11</v>
       </c>
+      <c r="IG50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37276,6 +37426,9 @@
       <c r="IF51" t="n">
         <v>30</v>
       </c>
+      <c r="IG51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38000,6 +38153,9 @@
       <c r="IF52" t="n">
         <v>47</v>
       </c>
+      <c r="IG52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38724,6 +38880,9 @@
       <c r="IF53" t="n">
         <v>43</v>
       </c>
+      <c r="IG53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39448,6 +39607,9 @@
       <c r="IF54" t="n">
         <v>2</v>
       </c>
+      <c r="IG54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40172,6 +40334,9 @@
       <c r="IF55" t="n">
         <v>6</v>
       </c>
+      <c r="IG55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40896,6 +41061,9 @@
       <c r="IF56" t="n">
         <v>50</v>
       </c>
+      <c r="IG56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41620,6 +41788,9 @@
       <c r="IF57" t="n">
         <v>197</v>
       </c>
+      <c r="IG57" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42344,6 +42515,9 @@
       <c r="IF58" t="n">
         <v>142</v>
       </c>
+      <c r="IG58" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43068,6 +43242,9 @@
       <c r="IF59" t="n">
         <v>339</v>
       </c>
+      <c r="IG59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43792,6 +43969,9 @@
       <c r="IF60" t="n">
         <v>1.39</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44516,6 +44696,9 @@
       <c r="IF61" t="n">
         <v>90</v>
       </c>
+      <c r="IG61" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45240,6 +45423,9 @@
       <c r="IF62" t="n">
         <v>41</v>
       </c>
+      <c r="IG62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45964,6 +46150,9 @@
       <c r="IF63" t="n">
         <v>30</v>
       </c>
+      <c r="IG63" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46688,6 +46877,9 @@
       <c r="IF64" t="n">
         <v>19</v>
       </c>
+      <c r="IG64" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47412,6 +47604,9 @@
       <c r="IF65" t="n">
         <v>16</v>
       </c>
+      <c r="IG65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48136,6 +48331,9 @@
       <c r="IF66" t="n">
         <v>13</v>
       </c>
+      <c r="IG66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48860,6 +49058,9 @@
       <c r="IF67" t="n">
         <v>9</v>
       </c>
+      <c r="IG67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49584,6 +49785,9 @@
       <c r="IF68" t="n">
         <v>16</v>
       </c>
+      <c r="IG68" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50308,6 +50512,9 @@
       <c r="IF69" t="n">
         <v>2</v>
       </c>
+      <c r="IG69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51032,6 +51239,9 @@
       <c r="IF70" t="n">
         <v>31</v>
       </c>
+      <c r="IG70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51756,6 +51966,9 @@
       <c r="IF71" t="n">
         <v>41.9</v>
       </c>
+      <c r="IG71" t="n">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52480,6 +52693,9 @@
       <c r="IF72" t="n">
         <v>26.08</v>
       </c>
+      <c r="IG72" t="n">
+        <v>25.87</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53204,6 +53420,9 @@
       <c r="IF73" t="n">
         <v>10.94</v>
       </c>
+      <c r="IG73" t="n">
+        <v>13.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53928,6 +54147,9 @@
       <c r="IF74" t="n">
         <v>37</v>
       </c>
+      <c r="IG74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54652,6 +54874,9 @@
       <c r="IF75" t="n">
         <v>58</v>
       </c>
+      <c r="IG75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55376,6 +55601,9 @@
       <c r="IF76" t="n">
         <v>30</v>
       </c>
+      <c r="IG76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56100,6 +56328,9 @@
       <c r="IF77" t="n">
         <v>62</v>
       </c>
+      <c r="IG77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56824,6 +57055,9 @@
       <c r="IF78" t="n">
         <v>2</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57548,6 +57782,9 @@
       <c r="IF79" t="n">
         <v>4.77</v>
       </c>
+      <c r="IG79" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58272,6 +58509,9 @@
       <c r="IF80" t="n">
         <v>46.8</v>
       </c>
+      <c r="IG80" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58996,6 +59236,9 @@
       <c r="IF81" t="n">
         <v>21</v>
       </c>
+      <c r="IG81" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59720,6 +59963,9 @@
       <c r="IF82" t="n">
         <v>188.6</v>
       </c>
+      <c r="IG82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60444,6 +60690,9 @@
       <c r="IF83" t="n">
         <v>88</v>
       </c>
+      <c r="IG83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61168,6 +61417,9 @@
       <c r="IF84" t="n">
         <v>24.8</v>
       </c>
+      <c r="IG84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61892,6 +62144,9 @@
       <c r="IF85" t="n">
         <v>80.3</v>
       </c>
+      <c r="IG85" t="n">
+        <v>100.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62616,6 +62871,9 @@
       <c r="IF86" t="n">
         <v>8</v>
       </c>
+      <c r="IG86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63340,6 +63598,9 @@
       <c r="IF87" t="n">
         <v>7</v>
       </c>
+      <c r="IG87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64064,6 +64325,9 @@
       <c r="IF88" t="n">
         <v>4</v>
       </c>
+      <c r="IG88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64788,6 +65052,9 @@
       <c r="IF89" t="n">
         <v>3</v>
       </c>
+      <c r="IG89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65512,6 +65779,9 @@
       <c r="IF90" t="n">
         <v>130</v>
       </c>
+      <c r="IG90" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66236,6 +66506,9 @@
       <c r="IF91" t="n">
         <v>211</v>
       </c>
+      <c r="IG91" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66960,6 +67233,9 @@
       <c r="IF92" t="n">
         <v>247</v>
       </c>
+      <c r="IG92" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67684,6 +67960,9 @@
       <c r="IF93" t="n">
         <v>72.90000000000001</v>
       </c>
+      <c r="IG93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68408,6 +68687,9 @@
       <c r="IF94" t="n">
         <v>58</v>
       </c>
+      <c r="IG94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69132,6 +69414,9 @@
       <c r="IF95" t="n">
         <v>17</v>
       </c>
+      <c r="IG95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69856,6 +70141,9 @@
       <c r="IF96" t="n">
         <v>21</v>
       </c>
+      <c r="IG96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70580,6 +70868,9 @@
       <c r="IF97" t="n">
         <v>37</v>
       </c>
+      <c r="IG97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71304,6 +71595,9 @@
       <c r="IF98" t="n">
         <v>30</v>
       </c>
+      <c r="IG98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72028,6 +72322,9 @@
       <c r="IF99" t="n">
         <v>48</v>
       </c>
+      <c r="IG99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72752,6 +73049,9 @@
       <c r="IF100" t="n">
         <v>5</v>
       </c>
+      <c r="IG100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73476,6 +73776,9 @@
       <c r="IF101" t="n">
         <v>9</v>
       </c>
+      <c r="IG101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74200,6 +74503,9 @@
       <c r="IF102" t="n">
         <v>69.2</v>
       </c>
+      <c r="IG102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1147,9 @@
       <c r="IG1" t="n">
         <v>10370</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10378</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1877,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2607,9 @@
       <c r="IG3" t="n">
         <v>5</v>
       </c>
+      <c r="IH3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3337,9 @@
       <c r="IG4" t="n">
         <v>0</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +4067,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4797,9 @@
       <c r="IG6" t="n">
         <v>54</v>
       </c>
+      <c r="IH6" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5527,9 @@
       <c r="IG7" t="n">
         <v>104</v>
       </c>
+      <c r="IH7" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6257,9 @@
       <c r="IG8" t="n">
         <v>-50</v>
       </c>
+      <c r="IH8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6987,9 @@
       <c r="IG9" t="n">
         <v>0</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7717,9 @@
       <c r="IG10" t="n">
         <v>11</v>
       </c>
+      <c r="IH10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8447,9 @@
       <c r="IG11" t="n">
         <v>189</v>
       </c>
+      <c r="IH11" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9177,9 @@
       <c r="IG12" t="n">
         <v>153</v>
       </c>
+      <c r="IH12" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9907,9 @@
       <c r="IG13" t="n">
         <v>342</v>
       </c>
+      <c r="IH13" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10637,9 @@
       <c r="IG14" t="n">
         <v>1.24</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11367,9 @@
       <c r="IG15" t="n">
         <v>78</v>
       </c>
+      <c r="IH15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12097,9 @@
       <c r="IG16" t="n">
         <v>57</v>
       </c>
+      <c r="IH16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12827,9 @@
       <c r="IG17" t="n">
         <v>21</v>
       </c>
+      <c r="IH17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13557,9 @@
       <c r="IG18" t="n">
         <v>15</v>
       </c>
+      <c r="IH18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14287,9 @@
       <c r="IG19" t="n">
         <v>27</v>
       </c>
+      <c r="IH19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +15017,9 @@
       <c r="IG20" t="n">
         <v>8</v>
       </c>
+      <c r="IH20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15747,9 @@
       <c r="IG21" t="n">
         <v>4</v>
       </c>
+      <c r="IH21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16477,9 @@
       <c r="IG22" t="n">
         <v>2</v>
       </c>
+      <c r="IH22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17207,9 @@
       <c r="IG23" t="n">
         <v>4</v>
       </c>
+      <c r="IH23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17937,9 @@
       <c r="IG24" t="n">
         <v>14</v>
       </c>
+      <c r="IH24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18667,9 @@
       <c r="IG25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IH25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19397,9 @@
       <c r="IG26" t="n">
         <v>42.75</v>
       </c>
+      <c r="IH26" t="n">
+        <v>24.53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20127,9 @@
       <c r="IG27" t="n">
         <v>24.43</v>
       </c>
+      <c r="IH27" t="n">
+        <v>13.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20857,9 @@
       <c r="IG28" t="n">
         <v>35</v>
       </c>
+      <c r="IH28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21587,9 @@
       <c r="IG29" t="n">
         <v>64</v>
       </c>
+      <c r="IH29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22317,9 @@
       <c r="IG30" t="n">
         <v>45</v>
       </c>
+      <c r="IH30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +23047,9 @@
       <c r="IG31" t="n">
         <v>41</v>
       </c>
+      <c r="IH31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23777,9 @@
       <c r="IG32" t="n">
         <v>2.93</v>
       </c>
+      <c r="IH32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24507,9 @@
       <c r="IG33" t="n">
         <v>5.12</v>
       </c>
+      <c r="IH33" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25237,9 @@
       <c r="IG34" t="n">
         <v>24.4</v>
       </c>
+      <c r="IH34" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25967,9 @@
       <c r="IG35" t="n">
         <v>19.5</v>
       </c>
+      <c r="IH35" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26697,9 @@
       <c r="IG36" t="n">
         <v>186.9</v>
       </c>
+      <c r="IH36" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27427,9 @@
       <c r="IG37" t="n">
         <v>85.3</v>
       </c>
+      <c r="IH37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28157,9 @@
       <c r="IG38" t="n">
         <v>26.16</v>
       </c>
+      <c r="IH38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28887,9 @@
       <c r="IG39" t="n">
         <v>108.5</v>
       </c>
+      <c r="IH39" t="n">
+        <v>102.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29617,9 @@
       <c r="IG40" t="n">
         <v>7</v>
       </c>
+      <c r="IH40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30347,9 @@
       <c r="IG41" t="n">
         <v>5</v>
       </c>
+      <c r="IH41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31077,9 @@
       <c r="IG42" t="n">
         <v>5</v>
       </c>
+      <c r="IH42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31807,9 @@
       <c r="IG43" t="n">
         <v>5</v>
       </c>
+      <c r="IH43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32537,9 @@
       <c r="IG44" t="n">
         <v>126</v>
       </c>
+      <c r="IH44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33267,9 @@
       <c r="IG45" t="n">
         <v>207</v>
       </c>
+      <c r="IH45" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33997,9 @@
       <c r="IG46" t="n">
         <v>233</v>
       </c>
+      <c r="IH46" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34727,9 @@
       <c r="IG47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="IH47" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35457,9 @@
       <c r="IG48" t="n">
         <v>64</v>
       </c>
+      <c r="IH48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36187,9 @@
       <c r="IG49" t="n">
         <v>15</v>
       </c>
+      <c r="IH49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36917,9 @@
       <c r="IG50" t="n">
         <v>5</v>
       </c>
+      <c r="IH50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37647,9 @@
       <c r="IG51" t="n">
         <v>35</v>
       </c>
+      <c r="IH51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38377,9 @@
       <c r="IG52" t="n">
         <v>45</v>
       </c>
+      <c r="IH52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39107,9 @@
       <c r="IG53" t="n">
         <v>52</v>
       </c>
+      <c r="IH53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39837,9 @@
       <c r="IG54" t="n">
         <v>8</v>
       </c>
+      <c r="IH54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40567,9 @@
       <c r="IG55" t="n">
         <v>4</v>
       </c>
+      <c r="IH55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41297,9 @@
       <c r="IG56" t="n">
         <v>50</v>
       </c>
+      <c r="IH56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +42027,9 @@
       <c r="IG57" t="n">
         <v>244</v>
       </c>
+      <c r="IH57" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42757,9 @@
       <c r="IG58" t="n">
         <v>144</v>
       </c>
+      <c r="IH58" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43487,9 @@
       <c r="IG59" t="n">
         <v>388</v>
       </c>
+      <c r="IH59" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44217,9 @@
       <c r="IG60" t="n">
         <v>1.69</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44947,9 @@
       <c r="IG61" t="n">
         <v>116</v>
       </c>
+      <c r="IH61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45677,9 @@
       <c r="IG62" t="n">
         <v>53</v>
       </c>
+      <c r="IH62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46407,9 @@
       <c r="IG63" t="n">
         <v>48</v>
       </c>
+      <c r="IH63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47137,9 @@
       <c r="IG64" t="n">
         <v>27</v>
       </c>
+      <c r="IH64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47867,9 @@
       <c r="IG65" t="n">
         <v>15</v>
       </c>
+      <c r="IH65" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48597,9 @@
       <c r="IG66" t="n">
         <v>15</v>
       </c>
+      <c r="IH66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49327,9 @@
       <c r="IG67" t="n">
         <v>10</v>
       </c>
+      <c r="IH67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +50057,9 @@
       <c r="IG68" t="n">
         <v>14</v>
       </c>
+      <c r="IH68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50787,9 @@
       <c r="IG69" t="n">
         <v>0</v>
       </c>
+      <c r="IH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51517,9 @@
       <c r="IG70" t="n">
         <v>29</v>
       </c>
+      <c r="IH70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52247,9 @@
       <c r="IG71" t="n">
         <v>51.7</v>
       </c>
+      <c r="IH71" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52977,9 @@
       <c r="IG72" t="n">
         <v>25.87</v>
       </c>
+      <c r="IH72" t="n">
+        <v>21.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53707,9 @@
       <c r="IG73" t="n">
         <v>13.38</v>
       </c>
+      <c r="IH73" t="n">
+        <v>17.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54437,9 @@
       <c r="IG74" t="n">
         <v>33</v>
       </c>
+      <c r="IH74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55167,9 @@
       <c r="IG75" t="n">
         <v>53</v>
       </c>
+      <c r="IH75" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55897,9 @@
       <c r="IG76" t="n">
         <v>32</v>
       </c>
+      <c r="IH76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56627,9 @@
       <c r="IG77" t="n">
         <v>61</v>
       </c>
+      <c r="IH77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57357,9 @@
       <c r="IG78" t="n">
         <v>2.1</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58087,9 @@
       <c r="IG79" t="n">
         <v>4.07</v>
       </c>
+      <c r="IH79" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58817,9 @@
       <c r="IG80" t="n">
         <v>47.5</v>
       </c>
+      <c r="IH80" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59547,9 @@
       <c r="IG81" t="n">
         <v>24.6</v>
       </c>
+      <c r="IH81" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60277,9 @@
       <c r="IG82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IH82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +61007,9 @@
       <c r="IG83" t="n">
         <v>86.3</v>
       </c>
+      <c r="IH83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61737,9 @@
       <c r="IG84" t="n">
         <v>25.49</v>
       </c>
+      <c r="IH84" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62467,9 @@
       <c r="IG85" t="n">
         <v>100.1</v>
       </c>
+      <c r="IH85" t="n">
+        <v>63.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63197,9 @@
       <c r="IG86" t="n">
         <v>6</v>
       </c>
+      <c r="IH86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63927,9 @@
       <c r="IG87" t="n">
         <v>6</v>
       </c>
+      <c r="IH87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64657,9 @@
       <c r="IG88" t="n">
         <v>5</v>
       </c>
+      <c r="IH88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65387,9 @@
       <c r="IG89" t="n">
         <v>5</v>
       </c>
+      <c r="IH89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66117,9 @@
       <c r="IG90" t="n">
         <v>162</v>
       </c>
+      <c r="IH90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66847,9 @@
       <c r="IG91" t="n">
         <v>230</v>
       </c>
+      <c r="IH91" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67577,9 @@
       <c r="IG92" t="n">
         <v>274</v>
       </c>
+      <c r="IH92" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68307,9 @@
       <c r="IG93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IH93" t="n">
+        <v>74.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +69037,9 @@
       <c r="IG94" t="n">
         <v>53</v>
       </c>
+      <c r="IH94" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69767,9 @@
       <c r="IG95" t="n">
         <v>19</v>
       </c>
+      <c r="IH95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70497,9 @@
       <c r="IG96" t="n">
         <v>17</v>
       </c>
+      <c r="IH96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71227,9 @@
       <c r="IG97" t="n">
         <v>33</v>
       </c>
+      <c r="IH97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71957,9 @@
       <c r="IG98" t="n">
         <v>32</v>
       </c>
+      <c r="IH98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72687,9 @@
       <c r="IG99" t="n">
         <v>43</v>
       </c>
+      <c r="IH99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73417,9 @@
       <c r="IG100" t="n">
         <v>6</v>
       </c>
+      <c r="IH100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74147,9 @@
       <c r="IG101" t="n">
         <v>10</v>
       </c>
+      <c r="IH101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74877,9 @@
       <c r="IG102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IH102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10378</v>
       </c>
+      <c r="II1" t="n">
+        <v>10386</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1880,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2610,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>6</v>
       </c>
+      <c r="II3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3340,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4070,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4800,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>102</v>
       </c>
+      <c r="II6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5530,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>99</v>
       </c>
+      <c r="II7" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6260,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>3</v>
       </c>
+      <c r="II8" t="n">
+        <v>-69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6990,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7720,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>1</v>
       </c>
+      <c r="II10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8450,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>206</v>
       </c>
+      <c r="II11" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9180,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>162</v>
       </c>
+      <c r="II12" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9910,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>368</v>
       </c>
+      <c r="II13" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10640,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.27</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11370,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>86</v>
       </c>
+      <c r="II15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12100,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>51</v>
       </c>
+      <c r="II16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12830,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>27</v>
       </c>
+      <c r="II17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13560,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>30</v>
       </c>
+      <c r="II18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14290,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>25</v>
       </c>
+      <c r="II19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15020,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>15</v>
       </c>
+      <c r="II20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15750,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>11</v>
       </c>
+      <c r="II21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16480,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>9</v>
       </c>
+      <c r="II22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17210,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>3</v>
       </c>
+      <c r="II23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17940,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>27</v>
       </c>
+      <c r="II24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18670,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>55.6</v>
       </c>
+      <c r="II25" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19400,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>24.53</v>
       </c>
+      <c r="II26" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20130,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>13.63</v>
       </c>
+      <c r="II27" t="n">
+        <v>27.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20860,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>30</v>
       </c>
+      <c r="II28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21590,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>70</v>
       </c>
+      <c r="II29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22320,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>35</v>
       </c>
+      <c r="II30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23050,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>61</v>
       </c>
+      <c r="II31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23780,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>2.26</v>
       </c>
+      <c r="II32" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24510,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>4.07</v>
       </c>
+      <c r="II33" t="n">
+        <v>5.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25240,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>39.3</v>
       </c>
+      <c r="II34" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25970,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>24.6</v>
       </c>
+      <c r="II35" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26700,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>186.7</v>
       </c>
+      <c r="II36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27430,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>85</v>
       </c>
+      <c r="II37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28160,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>25.74</v>
       </c>
+      <c r="II38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28890,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>102.9</v>
       </c>
+      <c r="II39" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29620,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>9</v>
       </c>
+      <c r="II40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30350,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>4</v>
       </c>
+      <c r="II41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31080,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>5</v>
       </c>
+      <c r="II42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31810,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>5</v>
       </c>
+      <c r="II43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32540,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>146</v>
       </c>
+      <c r="II44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33270,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>214</v>
       </c>
+      <c r="II45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34000,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>260</v>
       </c>
+      <c r="II46" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34730,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>70.7</v>
       </c>
+      <c r="II47" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35460,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>70</v>
       </c>
+      <c r="II48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36190,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>16</v>
       </c>
+      <c r="II49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36920,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>18</v>
       </c>
+      <c r="II50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37650,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>30</v>
       </c>
+      <c r="II51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38380,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>35</v>
       </c>
+      <c r="II52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39110,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>39</v>
       </c>
+      <c r="II53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39840,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>10</v>
       </c>
+      <c r="II54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40570,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>11</v>
       </c>
+      <c r="II55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41300,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>73.3</v>
       </c>
+      <c r="II56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42030,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>197</v>
       </c>
+      <c r="II57" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42760,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>141</v>
       </c>
+      <c r="II58" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43490,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>338</v>
       </c>
+      <c r="II59" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44220,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.4</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44950,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>80</v>
       </c>
+      <c r="II61" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45680,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>58</v>
       </c>
+      <c r="II62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46410,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>44</v>
       </c>
+      <c r="II63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47140,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>25</v>
       </c>
+      <c r="II64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47870,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>30</v>
       </c>
+      <c r="II65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48600,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>16</v>
       </c>
+      <c r="II66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49330,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>10</v>
       </c>
+      <c r="II67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50060,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>3</v>
       </c>
+      <c r="II68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50790,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>0</v>
       </c>
+      <c r="II69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51520,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>19</v>
       </c>
+      <c r="II70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52250,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>84.2</v>
       </c>
+      <c r="II71" t="n">
+        <v>57.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52980,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>21.12</v>
       </c>
+      <c r="II72" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53710,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>17.79</v>
       </c>
+      <c r="II73" t="n">
+        <v>13.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54440,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>40</v>
       </c>
+      <c r="II74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55170,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>69</v>
       </c>
+      <c r="II75" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55900,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>44</v>
       </c>
+      <c r="II76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56630,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>51</v>
       </c>
+      <c r="II77" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57360,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>2.68</v>
       </c>
+      <c r="II78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58090,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>3.19</v>
       </c>
+      <c r="II79" t="n">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58820,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>37.3</v>
       </c>
+      <c r="II80" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59550,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>31.4</v>
       </c>
+      <c r="II81" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60280,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>187.6</v>
       </c>
+      <c r="II82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61010,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="II83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61740,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>24.16</v>
       </c>
+      <c r="II84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62470,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>63.1</v>
       </c>
+      <c r="II85" t="n">
+        <v>83.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63200,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>14</v>
       </c>
+      <c r="II86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63930,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>3</v>
       </c>
+      <c r="II87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64660,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>1</v>
       </c>
+      <c r="II88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65390,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>5</v>
       </c>
+      <c r="II89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66120,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>144</v>
       </c>
+      <c r="II90" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66850,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>195</v>
       </c>
+      <c r="II91" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67580,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>252</v>
       </c>
+      <c r="II92" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68310,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="II93" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69040,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>69</v>
       </c>
+      <c r="II94" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69770,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>19</v>
       </c>
+      <c r="II95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70500,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>14</v>
       </c>
+      <c r="II96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71230,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>40</v>
       </c>
+      <c r="II97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71960,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>44</v>
       </c>
+      <c r="II98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72690,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>32</v>
       </c>
+      <c r="II99" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73420,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>3</v>
       </c>
+      <c r="II100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74150,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>10</v>
       </c>
+      <c r="II101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74880,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>62.5</v>
       </c>
+      <c r="II102" t="n">
+        <v>78.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1085,9 @@
       <c r="II1" t="n">
         <v>10386</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10392</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1818,6 +1821,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2551,6 +2557,9 @@
       <c r="II3" t="n">
         <v>7</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3284,6 +3293,9 @@
       <c r="II4" t="n">
         <v>1</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4017,6 +4029,9 @@
       <c r="II5" t="n">
         <v>0</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4750,6 +4765,9 @@
       <c r="II6" t="n">
         <v>59</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5483,6 +5501,9 @@
       <c r="II7" t="n">
         <v>128</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6216,6 +6237,9 @@
       <c r="II8" t="n">
         <v>-69</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6949,6 +6973,9 @@
       <c r="II9" t="n">
         <v>0</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7682,6 +7709,9 @@
       <c r="II10" t="n">
         <v>15</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8415,6 +8445,9 @@
       <c r="II11" t="n">
         <v>205</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9148,6 +9181,9 @@
       <c r="II12" t="n">
         <v>182</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9881,6 +9917,9 @@
       <c r="II13" t="n">
         <v>387</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10614,6 +10653,9 @@
       <c r="II14" t="n">
         <v>1.13</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11347,6 +11389,9 @@
       <c r="II15" t="n">
         <v>89</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12080,6 +12125,9 @@
       <c r="II16" t="n">
         <v>66</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12813,6 +12861,9 @@
       <c r="II17" t="n">
         <v>29</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13546,6 +13597,9 @@
       <c r="II18" t="n">
         <v>10</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14279,6 +14333,9 @@
       <c r="II19" t="n">
         <v>14</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15012,6 +15069,9 @@
       <c r="II20" t="n">
         <v>9</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15745,6 +15805,9 @@
       <c r="II21" t="n">
         <v>9</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16478,6 +16541,9 @@
       <c r="II22" t="n">
         <v>4</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17211,6 +17277,9 @@
       <c r="II23" t="n">
         <v>1</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17944,6 +18013,9 @@
       <c r="II24" t="n">
         <v>14</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18677,6 +18749,9 @@
       <c r="II25" t="n">
         <v>64.3</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19410,6 +19485,9 @@
       <c r="II26" t="n">
         <v>43</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>50.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20143,6 +20221,9 @@
       <c r="II27" t="n">
         <v>27.64</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>20.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20876,6 +20957,9 @@
       <c r="II28" t="n">
         <v>32</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21609,6 +21693,9 @@
       <c r="II29" t="n">
         <v>48</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22342,6 +22429,9 @@
       <c r="II30" t="n">
         <v>44</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23075,6 +23165,9 @@
       <c r="II31" t="n">
         <v>49</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23808,6 +23901,9 @@
       <c r="II32" t="n">
         <v>3.5</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24541,6 +24637,9 @@
       <c r="II33" t="n">
         <v>5.44</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25274,6 +25373,9 @@
       <c r="II34" t="n">
         <v>26.5</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26007,6 +26109,9 @@
       <c r="II35" t="n">
         <v>18.4</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26740,6 +26845,9 @@
       <c r="II36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27473,6 +27581,9 @@
       <c r="II37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28206,6 +28317,9 @@
       <c r="II38" t="n">
         <v>24.91</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28939,6 +29053,9 @@
       <c r="II39" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29672,6 +29789,9 @@
       <c r="II40" t="n">
         <v>10</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30405,6 +30525,9 @@
       <c r="II41" t="n">
         <v>4</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31138,6 +31261,9 @@
       <c r="II42" t="n">
         <v>4</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31871,6 +31997,9 @@
       <c r="II43" t="n">
         <v>4</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32604,6 +32733,9 @@
       <c r="II44" t="n">
         <v>130</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33337,6 +33469,9 @@
       <c r="II45" t="n">
         <v>250</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34070,6 +34205,9 @@
       <c r="II46" t="n">
         <v>283</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34803,6 +34941,9 @@
       <c r="II47" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35536,6 +35677,9 @@
       <c r="II48" t="n">
         <v>48</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36269,6 +36413,9 @@
       <c r="II49" t="n">
         <v>6</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37002,6 +37149,9 @@
       <c r="II50" t="n">
         <v>13</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37735,6 +37885,9 @@
       <c r="II51" t="n">
         <v>32</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38468,6 +38621,9 @@
       <c r="II52" t="n">
         <v>44</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39201,6 +39357,9 @@
       <c r="II53" t="n">
         <v>40</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39934,6 +40093,9 @@
       <c r="II54" t="n">
         <v>6</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40667,6 +40829,9 @@
       <c r="II55" t="n">
         <v>9</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41400,6 +41565,9 @@
       <c r="II56" t="n">
         <v>100</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42133,6 +42301,9 @@
       <c r="II57" t="n">
         <v>250</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42866,6 +43037,9 @@
       <c r="II58" t="n">
         <v>200</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43599,6 +43773,9 @@
       <c r="II59" t="n">
         <v>450</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44332,6 +44509,9 @@
       <c r="II60" t="n">
         <v>1.25</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45065,6 +45245,9 @@
       <c r="II61" t="n">
         <v>110</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45798,6 +45981,9 @@
       <c r="II62" t="n">
         <v>54</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46531,6 +46717,9 @@
       <c r="II63" t="n">
         <v>49</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47264,6 +47453,9 @@
       <c r="II64" t="n">
         <v>14</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47997,6 +48189,9 @@
       <c r="II65" t="n">
         <v>10</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48730,6 +48925,9 @@
       <c r="II66" t="n">
         <v>19</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49463,6 +49661,9 @@
       <c r="II67" t="n">
         <v>15</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50196,6 +50397,9 @@
       <c r="II68" t="n">
         <v>11</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50929,6 +51133,9 @@
       <c r="II69" t="n">
         <v>3</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51662,6 +51869,9 @@
       <c r="II70" t="n">
         <v>33</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52395,6 +52605,9 @@
       <c r="II71" t="n">
         <v>57.6</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53128,6 +53341,9 @@
       <c r="II72" t="n">
         <v>23.68</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>27.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53861,6 +54077,9 @@
       <c r="II73" t="n">
         <v>13.64</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>13.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54594,6 +54813,9 @@
       <c r="II74" t="n">
         <v>42</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55327,6 +55549,9 @@
       <c r="II75" t="n">
         <v>36</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56060,6 +56285,9 @@
       <c r="II76" t="n">
         <v>40</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56793,6 +57021,9 @@
       <c r="II77" t="n">
         <v>66</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57526,6 +57757,9 @@
       <c r="II78" t="n">
         <v>2</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58259,6 +58493,9 @@
       <c r="II79" t="n">
         <v>3.47</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58992,6 +59229,9 @@
       <c r="II80" t="n">
         <v>45.5</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59725,6 +59965,9 @@
       <c r="II81" t="n">
         <v>28.8</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60458,6 +60701,9 @@
       <c r="II82" t="n">
         <v>188.6</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61191,6 +61437,9 @@
       <c r="II83" t="n">
         <v>85.8</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61924,6 +62173,9 @@
       <c r="II84" t="n">
         <v>25</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62657,6 +62909,9 @@
       <c r="II85" t="n">
         <v>83.09999999999999</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63390,6 +63645,9 @@
       <c r="II86" t="n">
         <v>7</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64123,6 +64381,9 @@
       <c r="II87" t="n">
         <v>6</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64856,6 +65117,9 @@
       <c r="II88" t="n">
         <v>7</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65589,6 +65853,9 @@
       <c r="II89" t="n">
         <v>2</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66322,6 +66589,9 @@
       <c r="II90" t="n">
         <v>157</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67055,6 +67325,9 @@
       <c r="II91" t="n">
         <v>291</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67788,6 +68061,9 @@
       <c r="II92" t="n">
         <v>338</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68521,6 +68797,9 @@
       <c r="II93" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69254,6 +69533,9 @@
       <c r="II94" t="n">
         <v>36</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69987,6 +70269,9 @@
       <c r="II95" t="n">
         <v>12</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70720,6 +71005,9 @@
       <c r="II96" t="n">
         <v>18</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71453,6 +71741,9 @@
       <c r="II97" t="n">
         <v>42</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72186,6 +72477,9 @@
       <c r="II98" t="n">
         <v>40</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72919,6 +73213,9 @@
       <c r="II99" t="n">
         <v>59</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73652,6 +73949,9 @@
       <c r="II100" t="n">
         <v>6</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74385,6 +74685,9 @@
       <c r="II101" t="n">
         <v>15</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75118,6 +75421,9 @@
       <c r="II102" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>64.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,9 @@
       <c r="IJ1" t="n">
         <v>10392</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10401</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1827,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2566,9 @@
       <c r="IJ3" t="n">
         <v>8</v>
       </c>
+      <c r="IK3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3305,9 @@
       <c r="IJ4" t="n">
         <v>0</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4044,9 @@
       <c r="IJ5" t="n">
         <v>1</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4783,9 @@
       <c r="IJ6" t="n">
         <v>60</v>
       </c>
+      <c r="IK6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5522,9 @@
       <c r="IJ7" t="n">
         <v>98</v>
       </c>
+      <c r="IK7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6261,9 @@
       <c r="IJ8" t="n">
         <v>-38</v>
       </c>
+      <c r="IK8" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7000,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7739,9 @@
       <c r="IJ10" t="n">
         <v>17</v>
       </c>
+      <c r="IK10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8478,9 @@
       <c r="IJ11" t="n">
         <v>207</v>
       </c>
+      <c r="IK11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9217,9 @@
       <c r="IJ12" t="n">
         <v>194</v>
       </c>
+      <c r="IK12" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +9956,9 @@
       <c r="IJ13" t="n">
         <v>401</v>
       </c>
+      <c r="IK13" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10695,9 @@
       <c r="IJ14" t="n">
         <v>1.07</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11434,9 @@
       <c r="IJ15" t="n">
         <v>99</v>
       </c>
+      <c r="IK15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12173,9 @@
       <c r="IJ16" t="n">
         <v>63</v>
       </c>
+      <c r="IK16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12912,9 @@
       <c r="IJ17" t="n">
         <v>26</v>
       </c>
+      <c r="IK17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13651,9 @@
       <c r="IJ18" t="n">
         <v>16</v>
       </c>
+      <c r="IK18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14390,9 @@
       <c r="IJ19" t="n">
         <v>10</v>
       </c>
+      <c r="IK19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15129,9 @@
       <c r="IJ20" t="n">
         <v>8</v>
       </c>
+      <c r="IK20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15868,9 @@
       <c r="IJ21" t="n">
         <v>6</v>
       </c>
+      <c r="IK21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16607,9 @@
       <c r="IJ22" t="n">
         <v>7</v>
       </c>
+      <c r="IK22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17346,9 @@
       <c r="IJ23" t="n">
         <v>5</v>
       </c>
+      <c r="IK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18085,9 @@
       <c r="IJ24" t="n">
         <v>20</v>
       </c>
+      <c r="IK24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18824,9 @@
       <c r="IJ25" t="n">
         <v>40</v>
       </c>
+      <c r="IK25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19563,9 @@
       <c r="IJ26" t="n">
         <v>50.12</v>
       </c>
+      <c r="IK26" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20302,9 @@
       <c r="IJ27" t="n">
         <v>20.05</v>
       </c>
+      <c r="IK27" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21041,9 @@
       <c r="IJ28" t="n">
         <v>26</v>
       </c>
+      <c r="IK28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21780,9 @@
       <c r="IJ29" t="n">
         <v>55</v>
       </c>
+      <c r="IK29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22519,9 @@
       <c r="IJ30" t="n">
         <v>49</v>
       </c>
+      <c r="IK30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23258,9 @@
       <c r="IJ31" t="n">
         <v>35</v>
       </c>
+      <c r="IK31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +23997,9 @@
       <c r="IJ32" t="n">
         <v>1.75</v>
       </c>
+      <c r="IK32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24736,9 @@
       <c r="IJ33" t="n">
         <v>4.38</v>
       </c>
+      <c r="IK33" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25475,9 @@
       <c r="IJ34" t="n">
         <v>42.9</v>
       </c>
+      <c r="IK34" t="n">
+        <v>47.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26214,9 @@
       <c r="IJ35" t="n">
         <v>22.9</v>
       </c>
+      <c r="IK35" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +26953,9 @@
       <c r="IJ36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IK36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27692,9 @@
       <c r="IJ37" t="n">
         <v>86</v>
       </c>
+      <c r="IK37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28431,9 @@
       <c r="IJ38" t="n">
         <v>25.16</v>
       </c>
+      <c r="IK38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29170,9 @@
       <c r="IJ39" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="IK39" t="n">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29909,9 @@
       <c r="IJ40" t="n">
         <v>9</v>
       </c>
+      <c r="IK40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30648,9 @@
       <c r="IJ41" t="n">
         <v>5</v>
       </c>
+      <c r="IK41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31387,9 @@
       <c r="IJ42" t="n">
         <v>4</v>
       </c>
+      <c r="IK42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32126,9 @@
       <c r="IJ43" t="n">
         <v>4</v>
       </c>
+      <c r="IK43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32865,9 @@
       <c r="IJ44" t="n">
         <v>122</v>
       </c>
+      <c r="IK44" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33604,9 @@
       <c r="IJ45" t="n">
         <v>283</v>
       </c>
+      <c r="IK45" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34343,9 @@
       <c r="IJ46" t="n">
         <v>307</v>
       </c>
+      <c r="IK46" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35082,9 @@
       <c r="IJ47" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="IK47" t="n">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35821,9 @@
       <c r="IJ48" t="n">
         <v>55</v>
       </c>
+      <c r="IK48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36560,9 @@
       <c r="IJ49" t="n">
         <v>7</v>
       </c>
+      <c r="IK49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37299,9 @@
       <c r="IJ50" t="n">
         <v>10</v>
       </c>
+      <c r="IK50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38038,9 @@
       <c r="IJ51" t="n">
         <v>26</v>
       </c>
+      <c r="IK51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38777,9 @@
       <c r="IJ52" t="n">
         <v>49</v>
       </c>
+      <c r="IK52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39516,9 @@
       <c r="IJ53" t="n">
         <v>57</v>
       </c>
+      <c r="IK53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40255,9 @@
       <c r="IJ54" t="n">
         <v>4</v>
       </c>
+      <c r="IK54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +40994,9 @@
       <c r="IJ55" t="n">
         <v>6</v>
       </c>
+      <c r="IK55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41733,9 @@
       <c r="IJ56" t="n">
         <v>75</v>
       </c>
+      <c r="IK56" t="n">
+        <v>91.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42472,9 @@
       <c r="IJ57" t="n">
         <v>246</v>
       </c>
+      <c r="IK57" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43211,9 @@
       <c r="IJ58" t="n">
         <v>136</v>
       </c>
+      <c r="IK58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +43950,9 @@
       <c r="IJ59" t="n">
         <v>382</v>
       </c>
+      <c r="IK59" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44689,9 @@
       <c r="IJ60" t="n">
         <v>1.81</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45428,9 @@
       <c r="IJ61" t="n">
         <v>126</v>
       </c>
+      <c r="IK61" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46167,9 @@
       <c r="IJ62" t="n">
         <v>49</v>
       </c>
+      <c r="IK62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46906,9 @@
       <c r="IJ63" t="n">
         <v>38</v>
       </c>
+      <c r="IK63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47645,9 @@
       <c r="IJ64" t="n">
         <v>10</v>
       </c>
+      <c r="IK64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48384,9 @@
       <c r="IJ65" t="n">
         <v>16</v>
       </c>
+      <c r="IK65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49123,9 @@
       <c r="IJ66" t="n">
         <v>14</v>
       </c>
+      <c r="IK66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49862,9 @@
       <c r="IJ67" t="n">
         <v>9</v>
       </c>
+      <c r="IK67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50601,9 @@
       <c r="IJ68" t="n">
         <v>7</v>
       </c>
+      <c r="IK68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51340,9 @@
       <c r="IJ69" t="n">
         <v>7</v>
       </c>
+      <c r="IK69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52079,9 @@
       <c r="IJ70" t="n">
         <v>28</v>
       </c>
+      <c r="IK70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52818,9 @@
       <c r="IJ71" t="n">
         <v>50</v>
       </c>
+      <c r="IK71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53557,9 @@
       <c r="IJ72" t="n">
         <v>27.29</v>
       </c>
+      <c r="IK72" t="n">
+        <v>26.85</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54296,9 @@
       <c r="IJ73" t="n">
         <v>13.64</v>
       </c>
+      <c r="IK73" t="n">
+        <v>15.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55035,9 @@
       <c r="IJ74" t="n">
         <v>37</v>
       </c>
+      <c r="IK74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55774,9 @@
       <c r="IJ75" t="n">
         <v>49</v>
       </c>
+      <c r="IK75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56513,9 @@
       <c r="IJ76" t="n">
         <v>26</v>
       </c>
+      <c r="IK76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57252,9 @@
       <c r="IJ77" t="n">
         <v>63</v>
       </c>
+      <c r="IK77" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +57991,9 @@
       <c r="IJ78" t="n">
         <v>2.25</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58730,9 @@
       <c r="IJ79" t="n">
         <v>4.5</v>
       </c>
+      <c r="IK79" t="n">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59469,9 @@
       <c r="IJ80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IK80" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60208,9 @@
       <c r="IJ81" t="n">
         <v>22.2</v>
       </c>
+      <c r="IK81" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +60947,9 @@
       <c r="IJ82" t="n">
         <v>189</v>
       </c>
+      <c r="IK82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61686,9 @@
       <c r="IJ83" t="n">
         <v>87.3</v>
       </c>
+      <c r="IK83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62425,9 @@
       <c r="IJ84" t="n">
         <v>25.58</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63164,9 @@
       <c r="IJ85" t="n">
         <v>96</v>
       </c>
+      <c r="IK85" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63903,9 @@
       <c r="IJ86" t="n">
         <v>10</v>
       </c>
+      <c r="IK86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64642,9 @@
       <c r="IJ87" t="n">
         <v>5</v>
       </c>
+      <c r="IK87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65381,9 @@
       <c r="IJ88" t="n">
         <v>1</v>
       </c>
+      <c r="IK88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66120,9 @@
       <c r="IJ89" t="n">
         <v>7</v>
       </c>
+      <c r="IK89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66859,9 @@
       <c r="IJ90" t="n">
         <v>139</v>
       </c>
+      <c r="IK90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67598,9 @@
       <c r="IJ91" t="n">
         <v>252</v>
       </c>
+      <c r="IK91" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68337,9 @@
       <c r="IJ92" t="n">
         <v>291</v>
       </c>
+      <c r="IK92" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69076,9 @@
       <c r="IJ93" t="n">
         <v>76.2</v>
       </c>
+      <c r="IK93" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69815,9 @@
       <c r="IJ94" t="n">
         <v>49</v>
       </c>
+      <c r="IK94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70554,9 @@
       <c r="IJ95" t="n">
         <v>20</v>
       </c>
+      <c r="IK95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71293,9 @@
       <c r="IJ96" t="n">
         <v>12</v>
       </c>
+      <c r="IK96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72032,9 @@
       <c r="IJ97" t="n">
         <v>37</v>
       </c>
+      <c r="IK97" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72771,9 @@
       <c r="IJ98" t="n">
         <v>26</v>
       </c>
+      <c r="IK98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73510,9 @@
       <c r="IJ99" t="n">
         <v>56</v>
       </c>
+      <c r="IK99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74249,9 @@
       <c r="IJ100" t="n">
         <v>8</v>
       </c>
+      <c r="IK100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +74988,9 @@
       <c r="IJ101" t="n">
         <v>9</v>
       </c>
+      <c r="IK101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,6 +75727,9 @@
       <c r="IJ102" t="n">
         <v>64.3</v>
       </c>
+      <c r="IK102" t="n">
+        <v>61.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,9 @@
       <c r="IK1" t="n">
         <v>10401</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10409</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1830,6 +1833,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2569,6 +2575,9 @@
       <c r="IK3" t="n">
         <v>9</v>
       </c>
+      <c r="IL3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3308,6 +3317,9 @@
       <c r="IK4" t="n">
         <v>0</v>
       </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4047,6 +4059,9 @@
       <c r="IK5" t="n">
         <v>1</v>
       </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4786,6 +4801,9 @@
       <c r="IK6" t="n">
         <v>80</v>
       </c>
+      <c r="IL6" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5525,6 +5543,9 @@
       <c r="IK7" t="n">
         <v>87</v>
       </c>
+      <c r="IL7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6264,6 +6285,9 @@
       <c r="IK8" t="n">
         <v>-7</v>
       </c>
+      <c r="IL8" t="n">
+        <v>-23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7003,6 +7027,9 @@
       <c r="IK9" t="n">
         <v>0</v>
       </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7742,6 +7769,9 @@
       <c r="IK10" t="n">
         <v>12</v>
       </c>
+      <c r="IL10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8481,6 +8511,9 @@
       <c r="IK11" t="n">
         <v>192</v>
       </c>
+      <c r="IL11" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9220,6 +9253,9 @@
       <c r="IK12" t="n">
         <v>186</v>
       </c>
+      <c r="IL12" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9959,6 +9995,9 @@
       <c r="IK13" t="n">
         <v>378</v>
       </c>
+      <c r="IL13" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10698,6 +10737,9 @@
       <c r="IK14" t="n">
         <v>1.03</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11437,6 +11479,9 @@
       <c r="IK15" t="n">
         <v>82</v>
       </c>
+      <c r="IL15" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12176,6 +12221,9 @@
       <c r="IK16" t="n">
         <v>60</v>
       </c>
+      <c r="IL16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12915,6 +12963,9 @@
       <c r="IK17" t="n">
         <v>33</v>
       </c>
+      <c r="IL17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13654,6 +13705,9 @@
       <c r="IK18" t="n">
         <v>13</v>
       </c>
+      <c r="IL18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14393,6 +14447,9 @@
       <c r="IK19" t="n">
         <v>25</v>
       </c>
+      <c r="IL19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15132,6 +15189,9 @@
       <c r="IK20" t="n">
         <v>12</v>
       </c>
+      <c r="IL20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15871,6 +15931,9 @@
       <c r="IK21" t="n">
         <v>11</v>
       </c>
+      <c r="IL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16610,6 +16673,9 @@
       <c r="IK22" t="n">
         <v>7</v>
       </c>
+      <c r="IL22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17349,6 +17415,9 @@
       <c r="IK23" t="n">
         <v>1</v>
       </c>
+      <c r="IL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18088,6 +18157,9 @@
       <c r="IK24" t="n">
         <v>20</v>
       </c>
+      <c r="IL24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18827,6 +18899,9 @@
       <c r="IK25" t="n">
         <v>60</v>
       </c>
+      <c r="IL25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19566,6 +19641,9 @@
       <c r="IK26" t="n">
         <v>31.5</v>
       </c>
+      <c r="IL26" t="n">
+        <v>42.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20305,6 +20383,9 @@
       <c r="IK27" t="n">
         <v>18.9</v>
       </c>
+      <c r="IL27" t="n">
+        <v>21.44</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21044,6 +21125,9 @@
       <c r="IK28" t="n">
         <v>29</v>
       </c>
+      <c r="IL28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21783,6 +21867,9 @@
       <c r="IK29" t="n">
         <v>60</v>
       </c>
+      <c r="IL29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22522,6 +22609,9 @@
       <c r="IK30" t="n">
         <v>44</v>
       </c>
+      <c r="IL30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23261,6 +23351,9 @@
       <c r="IK31" t="n">
         <v>40</v>
       </c>
+      <c r="IL31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24000,6 +24093,9 @@
       <c r="IK32" t="n">
         <v>2</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24739,6 +24835,9 @@
       <c r="IK33" t="n">
         <v>3.33</v>
       </c>
+      <c r="IL33" t="n">
+        <v>5.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25478,6 +25577,9 @@
       <c r="IK34" t="n">
         <v>47.5</v>
       </c>
+      <c r="IL34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26217,6 +26319,9 @@
       <c r="IK35" t="n">
         <v>30</v>
       </c>
+      <c r="IL35" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26956,6 +27061,9 @@
       <c r="IK36" t="n">
         <v>187.2</v>
       </c>
+      <c r="IL36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27695,6 +27803,9 @@
       <c r="IK37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IL37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28434,6 +28545,9 @@
       <c r="IK38" t="n">
         <v>25.58</v>
       </c>
+      <c r="IL38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29173,6 +29287,9 @@
       <c r="IK39" t="n">
         <v>94.5</v>
       </c>
+      <c r="IL39" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29912,6 +30029,9 @@
       <c r="IK40" t="n">
         <v>8</v>
       </c>
+      <c r="IL40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30651,6 +30771,9 @@
       <c r="IK41" t="n">
         <v>5</v>
       </c>
+      <c r="IL41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31390,6 +31513,9 @@
       <c r="IK42" t="n">
         <v>5</v>
       </c>
+      <c r="IL42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32129,6 +32255,9 @@
       <c r="IK43" t="n">
         <v>4</v>
       </c>
+      <c r="IL43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32868,6 +32997,9 @@
       <c r="IK44" t="n">
         <v>123</v>
       </c>
+      <c r="IL44" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33607,6 +33739,9 @@
       <c r="IK45" t="n">
         <v>257</v>
       </c>
+      <c r="IL45" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34346,6 +34481,9 @@
       <c r="IK46" t="n">
         <v>303</v>
       </c>
+      <c r="IL46" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35085,6 +35223,9 @@
       <c r="IK47" t="n">
         <v>80.2</v>
       </c>
+      <c r="IL47" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35824,6 +35965,9 @@
       <c r="IK48" t="n">
         <v>60</v>
       </c>
+      <c r="IL48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36563,6 +36707,9 @@
       <c r="IK49" t="n">
         <v>12</v>
       </c>
+      <c r="IL49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37302,6 +37449,9 @@
       <c r="IK50" t="n">
         <v>5</v>
       </c>
+      <c r="IL50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38041,6 +38191,9 @@
       <c r="IK51" t="n">
         <v>29</v>
       </c>
+      <c r="IL51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38780,6 +38933,9 @@
       <c r="IK52" t="n">
         <v>44</v>
       </c>
+      <c r="IL52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39519,6 +39675,9 @@
       <c r="IK53" t="n">
         <v>57</v>
       </c>
+      <c r="IL53" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40258,6 +40417,9 @@
       <c r="IK54" t="n">
         <v>9</v>
       </c>
+      <c r="IL54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40997,6 +41159,9 @@
       <c r="IK55" t="n">
         <v>11</v>
       </c>
+      <c r="IL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41736,6 +41901,9 @@
       <c r="IK56" t="n">
         <v>91.7</v>
       </c>
+      <c r="IL56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42475,6 +42643,9 @@
       <c r="IK57" t="n">
         <v>194</v>
       </c>
+      <c r="IL57" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43214,6 +43385,9 @@
       <c r="IK58" t="n">
         <v>155</v>
       </c>
+      <c r="IL58" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43953,6 +44127,9 @@
       <c r="IK59" t="n">
         <v>349</v>
       </c>
+      <c r="IL59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44692,6 +44869,9 @@
       <c r="IK60" t="n">
         <v>1.25</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45431,6 +45611,9 @@
       <c r="IK61" t="n">
         <v>76</v>
       </c>
+      <c r="IL61" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46170,6 +46353,9 @@
       <c r="IK62" t="n">
         <v>54</v>
       </c>
+      <c r="IL62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46909,6 +47095,9 @@
       <c r="IK63" t="n">
         <v>45</v>
       </c>
+      <c r="IL63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47648,6 +47837,9 @@
       <c r="IK64" t="n">
         <v>25</v>
       </c>
+      <c r="IL64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48387,6 +48579,9 @@
       <c r="IK65" t="n">
         <v>13</v>
       </c>
+      <c r="IL65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49126,6 +49321,9 @@
       <c r="IK66" t="n">
         <v>13</v>
       </c>
+      <c r="IL66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49865,6 +50063,9 @@
       <c r="IK67" t="n">
         <v>8</v>
       </c>
+      <c r="IL67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50604,6 +50805,9 @@
       <c r="IK68" t="n">
         <v>9</v>
       </c>
+      <c r="IL68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51343,6 +51547,9 @@
       <c r="IK69" t="n">
         <v>0</v>
       </c>
+      <c r="IL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52082,6 +52289,9 @@
       <c r="IK70" t="n">
         <v>22</v>
       </c>
+      <c r="IL70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52821,6 +53031,9 @@
       <c r="IK71" t="n">
         <v>59.1</v>
       </c>
+      <c r="IL71" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53560,6 +53773,9 @@
       <c r="IK72" t="n">
         <v>26.85</v>
       </c>
+      <c r="IL72" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54299,6 +54515,9 @@
       <c r="IK73" t="n">
         <v>15.86</v>
       </c>
+      <c r="IL73" t="n">
+        <v>17.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55038,6 +55257,9 @@
       <c r="IK74" t="n">
         <v>49</v>
       </c>
+      <c r="IL74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55777,6 +55999,9 @@
       <c r="IK75" t="n">
         <v>49</v>
       </c>
+      <c r="IL75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56516,6 +56741,9 @@
       <c r="IK76" t="n">
         <v>27</v>
       </c>
+      <c r="IL76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57255,6 +57483,9 @@
       <c r="IK77" t="n">
         <v>59</v>
       </c>
+      <c r="IL77" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57994,6 +58225,9 @@
       <c r="IK78" t="n">
         <v>2.68</v>
       </c>
+      <c r="IL78" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58733,6 +58967,9 @@
       <c r="IK79" t="n">
         <v>4.54</v>
       </c>
+      <c r="IL79" t="n">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59472,6 +59709,9 @@
       <c r="IK80" t="n">
         <v>37.3</v>
       </c>
+      <c r="IL80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60211,6 +60451,9 @@
       <c r="IK81" t="n">
         <v>22</v>
       </c>
+      <c r="IL81" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60950,6 +61193,9 @@
       <c r="IK82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IL82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61689,6 +61935,9 @@
       <c r="IK83" t="n">
         <v>85.2</v>
       </c>
+      <c r="IL83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62428,6 +62677,9 @@
       <c r="IK84" t="n">
         <v>25</v>
       </c>
+      <c r="IL84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63167,6 +63419,9 @@
       <c r="IK85" t="n">
         <v>83.5</v>
       </c>
+      <c r="IL85" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63906,6 +64161,9 @@
       <c r="IK86" t="n">
         <v>11</v>
       </c>
+      <c r="IL86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64645,6 +64903,9 @@
       <c r="IK87" t="n">
         <v>4</v>
       </c>
+      <c r="IL87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65384,6 +65645,9 @@
       <c r="IK88" t="n">
         <v>3</v>
       </c>
+      <c r="IL88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66123,6 +66387,9 @@
       <c r="IK89" t="n">
         <v>4</v>
       </c>
+      <c r="IL89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66862,6 +67129,9 @@
       <c r="IK90" t="n">
         <v>144</v>
       </c>
+      <c r="IL90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67601,6 +67871,9 @@
       <c r="IK91" t="n">
         <v>203</v>
       </c>
+      <c r="IL91" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68340,6 +68613,9 @@
       <c r="IK92" t="n">
         <v>261</v>
       </c>
+      <c r="IL92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69079,6 +69355,9 @@
       <c r="IK93" t="n">
         <v>74.8</v>
       </c>
+      <c r="IL93" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69818,6 +70097,9 @@
       <c r="IK94" t="n">
         <v>49</v>
       </c>
+      <c r="IL94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70557,6 +70839,9 @@
       <c r="IK95" t="n">
         <v>6</v>
       </c>
+      <c r="IL95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71296,6 +71581,9 @@
       <c r="IK96" t="n">
         <v>12</v>
       </c>
+      <c r="IL96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72035,6 +72323,9 @@
       <c r="IK97" t="n">
         <v>49</v>
       </c>
+      <c r="IL97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72774,6 +73065,9 @@
       <c r="IK98" t="n">
         <v>27</v>
       </c>
+      <c r="IL98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73513,6 +73807,9 @@
       <c r="IK99" t="n">
         <v>56</v>
       </c>
+      <c r="IL99" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74252,6 +74549,9 @@
       <c r="IK100" t="n">
         <v>12</v>
       </c>
+      <c r="IL100" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74991,6 +75291,9 @@
       <c r="IK101" t="n">
         <v>8</v>
       </c>
+      <c r="IL101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75730,6 +76033,9 @@
       <c r="IK102" t="n">
         <v>61.5</v>
       </c>
+      <c r="IL102" t="n">
+        <v>69.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10409</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10423</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1836,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2578,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>10</v>
       </c>
+      <c r="IM3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3320,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>1</v>
       </c>
+      <c r="IM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>0</v>
       </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4804,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>63</v>
       </c>
+      <c r="IM6" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5546,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>86</v>
       </c>
+      <c r="IM7" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6288,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>-23</v>
       </c>
+      <c r="IM8" t="n">
+        <v>-37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7030,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>0</v>
       </c>
+      <c r="IM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7772,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>3</v>
       </c>
+      <c r="IM10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8514,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>208</v>
       </c>
+      <c r="IM11" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9256,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>178</v>
       </c>
+      <c r="IM12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9998,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>386</v>
       </c>
+      <c r="IM13" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10740,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.17</v>
       </c>
+      <c r="IM14" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11482,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>66</v>
       </c>
+      <c r="IM15" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>75</v>
       </c>
+      <c r="IM16" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12966,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>35</v>
       </c>
+      <c r="IM17" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13708,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>18</v>
       </c>
+      <c r="IM18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14450,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>21</v>
       </c>
+      <c r="IM19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15192,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>9</v>
       </c>
+      <c r="IM20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15934,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>7</v>
       </c>
+      <c r="IM21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16676,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>7</v>
       </c>
+      <c r="IM22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17418,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>2</v>
       </c>
+      <c r="IM23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18160,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>18</v>
       </c>
+      <c r="IM24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18902,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>50</v>
       </c>
+      <c r="IM25" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19644,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>42.89</v>
       </c>
+      <c r="IM26" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20386,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>21.44</v>
       </c>
+      <c r="IM27" t="n">
+        <v>16.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21128,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>45</v>
       </c>
+      <c r="IM28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21870,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>57</v>
       </c>
+      <c r="IM29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22612,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>46</v>
       </c>
+      <c r="IM30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23354,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>49</v>
       </c>
+      <c r="IM31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24096,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.72</v>
       </c>
+      <c r="IM32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24838,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>5.44</v>
       </c>
+      <c r="IM33" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25580,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>32.7</v>
       </c>
+      <c r="IM34" t="n">
+        <v>38.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26322,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>18.4</v>
       </c>
+      <c r="IM35" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27064,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>187.7</v>
       </c>
+      <c r="IM36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27806,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IM37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28548,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>24.91</v>
       </c>
+      <c r="IM38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29290,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="IM39" t="n">
+        <v>101.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30032,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>9</v>
       </c>
+      <c r="IM40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30774,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>5</v>
       </c>
+      <c r="IM41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31516,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>5</v>
       </c>
+      <c r="IM42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32258,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>3</v>
       </c>
+      <c r="IM43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33000,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>150</v>
       </c>
+      <c r="IM44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33742,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>239</v>
       </c>
+      <c r="IM45" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34484,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>280</v>
       </c>
+      <c r="IM46" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35226,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>72.5</v>
       </c>
+      <c r="IM47" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35968,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>57</v>
       </c>
+      <c r="IM48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36710,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>7</v>
       </c>
+      <c r="IM49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37452,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>8</v>
       </c>
+      <c r="IM50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38194,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>45</v>
       </c>
+      <c r="IM51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38936,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>46</v>
       </c>
+      <c r="IM52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39678,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>61</v>
       </c>
+      <c r="IM53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40420,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>4</v>
       </c>
+      <c r="IM54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41162,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>7</v>
       </c>
+      <c r="IM55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41904,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>77.8</v>
       </c>
+      <c r="IM56" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42646,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>231</v>
       </c>
+      <c r="IM57" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43388,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>146</v>
       </c>
+      <c r="IM58" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44130,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>377</v>
       </c>
+      <c r="IM59" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44872,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>1.58</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45614,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>103</v>
       </c>
+      <c r="IM61" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46356,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>64</v>
       </c>
+      <c r="IM62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47098,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>43</v>
       </c>
+      <c r="IM63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47840,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>21</v>
       </c>
+      <c r="IM64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48582,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>18</v>
       </c>
+      <c r="IM65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49324,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>13</v>
       </c>
+      <c r="IM66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50066,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>9</v>
       </c>
+      <c r="IM67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50808,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>7</v>
       </c>
+      <c r="IM68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51550,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>1</v>
       </c>
+      <c r="IM69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52292,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>21</v>
       </c>
+      <c r="IM70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53034,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>61.9</v>
       </c>
+      <c r="IM71" t="n">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53776,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>29</v>
       </c>
+      <c r="IM72" t="n">
+        <v>22.35</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54518,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>17.95</v>
       </c>
+      <c r="IM73" t="n">
+        <v>13.57</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55260,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>37</v>
       </c>
+      <c r="IM74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56002,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>49</v>
       </c>
+      <c r="IM75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56744,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>40</v>
       </c>
+      <c r="IM76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57486,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>60</v>
       </c>
+      <c r="IM77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58228,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>2.86</v>
       </c>
+      <c r="IM78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58970,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>4.62</v>
       </c>
+      <c r="IM79" t="n">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59712,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IM80" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60454,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>21.7</v>
       </c>
+      <c r="IM81" t="n">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61196,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IM82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61938,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IM83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62680,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IM84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63422,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>95.5</v>
       </c>
+      <c r="IM85" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64164,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>9</v>
       </c>
+      <c r="IM86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64906,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>3</v>
       </c>
+      <c r="IM87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65648,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>6</v>
       </c>
+      <c r="IM88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66390,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>4</v>
       </c>
+      <c r="IM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67132,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>145</v>
       </c>
+      <c r="IM90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67874,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>227</v>
       </c>
+      <c r="IM91" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68616,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>276</v>
       </c>
+      <c r="IM92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69358,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>73.2</v>
       </c>
+      <c r="IM93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70100,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>49</v>
       </c>
+      <c r="IM94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70842,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>17</v>
       </c>
+      <c r="IM95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71584,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>9</v>
       </c>
+      <c r="IM96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72326,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>37</v>
       </c>
+      <c r="IM97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73068,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>40</v>
       </c>
+      <c r="IM98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73810,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>59</v>
       </c>
+      <c r="IM99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74552,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>17</v>
       </c>
+      <c r="IM100" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75294,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>9</v>
       </c>
+      <c r="IM101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76036,6 +76339,9 @@
       <c r="IL102" t="n">
         <v>69.2</v>
       </c>
+      <c r="IM102" t="n">
+        <v>76.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,9 @@
       <c r="IM1" t="n">
         <v>10423</v>
       </c>
+      <c r="IN1" t="n">
+        <v>10435</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1842,6 +1845,9 @@
       <c r="IM2" t="n">
         <v>2021</v>
       </c>
+      <c r="IN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2587,6 +2593,9 @@
       <c r="IM3" t="n">
         <v>11</v>
       </c>
+      <c r="IN3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,6 +3341,9 @@
       <c r="IM4" t="n">
         <v>1</v>
       </c>
+      <c r="IN4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4077,6 +4089,9 @@
       <c r="IM5" t="n">
         <v>0</v>
       </c>
+      <c r="IN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4822,6 +4837,9 @@
       <c r="IM6" t="n">
         <v>76</v>
       </c>
+      <c r="IN6" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5567,6 +5585,9 @@
       <c r="IM7" t="n">
         <v>113</v>
       </c>
+      <c r="IN7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6312,6 +6333,9 @@
       <c r="IM8" t="n">
         <v>-37</v>
       </c>
+      <c r="IN8" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7057,6 +7081,9 @@
       <c r="IM9" t="n">
         <v>0</v>
       </c>
+      <c r="IN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7802,6 +7829,9 @@
       <c r="IM10" t="n">
         <v>8</v>
       </c>
+      <c r="IN10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8547,6 +8577,9 @@
       <c r="IM11" t="n">
         <v>215</v>
       </c>
+      <c r="IN11" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9292,6 +9325,9 @@
       <c r="IM12" t="n">
         <v>126</v>
       </c>
+      <c r="IN12" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10037,6 +10073,9 @@
       <c r="IM13" t="n">
         <v>341</v>
       </c>
+      <c r="IN13" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10782,6 +10821,9 @@
       <c r="IM14" t="n">
         <v>1.71</v>
       </c>
+      <c r="IN14" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11527,6 +11569,9 @@
       <c r="IM15" t="n">
         <v>91</v>
       </c>
+      <c r="IN15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12272,6 +12317,9 @@
       <c r="IM16" t="n">
         <v>65</v>
       </c>
+      <c r="IN16" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13017,6 +13065,9 @@
       <c r="IM17" t="n">
         <v>57</v>
       </c>
+      <c r="IN17" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13762,6 +13813,9 @@
       <c r="IM18" t="n">
         <v>17</v>
       </c>
+      <c r="IN18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14507,6 +14561,9 @@
       <c r="IM19" t="n">
         <v>14</v>
       </c>
+      <c r="IN19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15252,6 +15309,9 @@
       <c r="IM20" t="n">
         <v>11</v>
       </c>
+      <c r="IN20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15997,6 +16057,9 @@
       <c r="IM21" t="n">
         <v>10</v>
       </c>
+      <c r="IN21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16742,6 +16805,9 @@
       <c r="IM22" t="n">
         <v>7</v>
       </c>
+      <c r="IN22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17487,6 +17553,9 @@
       <c r="IM23" t="n">
         <v>3</v>
       </c>
+      <c r="IN23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18232,6 +18301,9 @@
       <c r="IM24" t="n">
         <v>21</v>
       </c>
+      <c r="IN24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18977,6 +19049,9 @@
       <c r="IM25" t="n">
         <v>52.4</v>
       </c>
+      <c r="IN25" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19722,6 +19797,9 @@
       <c r="IM26" t="n">
         <v>31</v>
       </c>
+      <c r="IN26" t="n">
+        <v>26.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20467,6 +20545,9 @@
       <c r="IM27" t="n">
         <v>16.24</v>
       </c>
+      <c r="IN27" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21212,6 +21293,9 @@
       <c r="IM28" t="n">
         <v>36</v>
       </c>
+      <c r="IN28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21957,6 +22041,9 @@
       <c r="IM29" t="n">
         <v>51</v>
       </c>
+      <c r="IN29" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22702,6 +22789,9 @@
       <c r="IM30" t="n">
         <v>43</v>
       </c>
+      <c r="IN30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23447,6 +23537,9 @@
       <c r="IM31" t="n">
         <v>47</v>
       </c>
+      <c r="IN31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24192,6 +24285,9 @@
       <c r="IM32" t="n">
         <v>2.24</v>
       </c>
+      <c r="IN32" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24937,6 +25033,9 @@
       <c r="IM33" t="n">
         <v>4.27</v>
       </c>
+      <c r="IN33" t="n">
+        <v>4.21</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25682,6 +25781,9 @@
       <c r="IM34" t="n">
         <v>38.3</v>
       </c>
+      <c r="IN34" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26427,6 +26529,9 @@
       <c r="IM35" t="n">
         <v>23.4</v>
       </c>
+      <c r="IN35" t="n">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27172,6 +27277,9 @@
       <c r="IM36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IN36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27917,6 +28025,9 @@
       <c r="IM37" t="n">
         <v>85.3</v>
       </c>
+      <c r="IN37" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28662,6 +28773,9 @@
       <c r="IM38" t="n">
         <v>25.49</v>
       </c>
+      <c r="IN38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29407,6 +29521,9 @@
       <c r="IM39" t="n">
         <v>101.7</v>
       </c>
+      <c r="IN39" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30152,6 +30269,9 @@
       <c r="IM40" t="n">
         <v>9</v>
       </c>
+      <c r="IN40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30897,6 +31017,9 @@
       <c r="IM41" t="n">
         <v>4</v>
       </c>
+      <c r="IN41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31642,6 +31765,9 @@
       <c r="IM42" t="n">
         <v>4</v>
       </c>
+      <c r="IN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32387,6 +32513,9 @@
       <c r="IM43" t="n">
         <v>5</v>
       </c>
+      <c r="IN43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33132,6 +33261,9 @@
       <c r="IM44" t="n">
         <v>120</v>
       </c>
+      <c r="IN44" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33877,6 +34009,9 @@
       <c r="IM45" t="n">
         <v>213</v>
       </c>
+      <c r="IN45" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34622,6 +34757,9 @@
       <c r="IM46" t="n">
         <v>254</v>
       </c>
+      <c r="IN46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35367,6 +35505,9 @@
       <c r="IM47" t="n">
         <v>74.5</v>
       </c>
+      <c r="IN47" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36112,6 +36253,9 @@
       <c r="IM48" t="n">
         <v>51</v>
       </c>
+      <c r="IN48" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36857,6 +37001,9 @@
       <c r="IM49" t="n">
         <v>11</v>
       </c>
+      <c r="IN49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37602,6 +37749,9 @@
       <c r="IM50" t="n">
         <v>12</v>
       </c>
+      <c r="IN50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38347,6 +38497,9 @@
       <c r="IM51" t="n">
         <v>36</v>
       </c>
+      <c r="IN51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39092,6 +39245,9 @@
       <c r="IM52" t="n">
         <v>43</v>
       </c>
+      <c r="IN52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39837,6 +39993,9 @@
       <c r="IM53" t="n">
         <v>60</v>
       </c>
+      <c r="IN53" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40582,6 +40741,9 @@
       <c r="IM54" t="n">
         <v>5</v>
       </c>
+      <c r="IN54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41327,6 +41489,9 @@
       <c r="IM55" t="n">
         <v>10</v>
       </c>
+      <c r="IN55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42072,6 +42237,9 @@
       <c r="IM56" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="IN56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42817,6 +42985,9 @@
       <c r="IM57" t="n">
         <v>246</v>
       </c>
+      <c r="IN57" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43562,6 +43733,9 @@
       <c r="IM58" t="n">
         <v>134</v>
       </c>
+      <c r="IN58" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44307,6 +44481,9 @@
       <c r="IM59" t="n">
         <v>380</v>
       </c>
+      <c r="IN59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45052,6 +45229,9 @@
       <c r="IM60" t="n">
         <v>1.84</v>
       </c>
+      <c r="IN60" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45797,6 +45977,9 @@
       <c r="IM61" t="n">
         <v>111</v>
       </c>
+      <c r="IN61" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46542,6 +46725,9 @@
       <c r="IM62" t="n">
         <v>62</v>
       </c>
+      <c r="IN62" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47287,6 +47473,9 @@
       <c r="IM63" t="n">
         <v>28</v>
       </c>
+      <c r="IN63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48032,6 +48221,9 @@
       <c r="IM64" t="n">
         <v>14</v>
       </c>
+      <c r="IN64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48777,6 +48969,9 @@
       <c r="IM65" t="n">
         <v>17</v>
       </c>
+      <c r="IN65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49522,6 +49717,9 @@
       <c r="IM66" t="n">
         <v>17</v>
       </c>
+      <c r="IN66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50267,6 +50465,9 @@
       <c r="IM67" t="n">
         <v>13</v>
       </c>
+      <c r="IN67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51012,6 +51213,9 @@
       <c r="IM68" t="n">
         <v>7</v>
       </c>
+      <c r="IN68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51757,6 +51961,9 @@
       <c r="IM69" t="n">
         <v>4</v>
       </c>
+      <c r="IN69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52502,6 +52709,9 @@
       <c r="IM70" t="n">
         <v>28</v>
       </c>
+      <c r="IN70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53247,6 +53457,9 @@
       <c r="IM71" t="n">
         <v>60.7</v>
       </c>
+      <c r="IN71" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53992,6 +54205,9 @@
       <c r="IM72" t="n">
         <v>22.35</v>
       </c>
+      <c r="IN72" t="n">
+        <v>52.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54737,6 +54953,9 @@
       <c r="IM73" t="n">
         <v>13.57</v>
       </c>
+      <c r="IN73" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55482,6 +55701,9 @@
       <c r="IM74" t="n">
         <v>41</v>
       </c>
+      <c r="IN74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56227,6 +56449,9 @@
       <c r="IM75" t="n">
         <v>57</v>
       </c>
+      <c r="IN75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56972,6 +57197,9 @@
       <c r="IM76" t="n">
         <v>35</v>
       </c>
+      <c r="IN76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57717,6 +57945,9 @@
       <c r="IM77" t="n">
         <v>61</v>
       </c>
+      <c r="IN77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58462,6 +58693,9 @@
       <c r="IM78" t="n">
         <v>2.18</v>
       </c>
+      <c r="IN78" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59207,6 +59441,9 @@
       <c r="IM79" t="n">
         <v>3.59</v>
       </c>
+      <c r="IN79" t="n">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59952,6 +60189,9 @@
       <c r="IM80" t="n">
         <v>39.3</v>
       </c>
+      <c r="IN80" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60697,6 +60937,9 @@
       <c r="IM81" t="n">
         <v>27.9</v>
       </c>
+      <c r="IN81" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61442,6 +61685,9 @@
       <c r="IM82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IN82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62187,6 +62433,9 @@
       <c r="IM83" t="n">
         <v>84.8</v>
       </c>
+      <c r="IN83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62932,6 +63181,9 @@
       <c r="IM84" t="n">
         <v>24.49</v>
       </c>
+      <c r="IN84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63677,6 +63929,9 @@
       <c r="IM85" t="n">
         <v>70.2</v>
       </c>
+      <c r="IN85" t="n">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64422,6 +64677,9 @@
       <c r="IM86" t="n">
         <v>11</v>
       </c>
+      <c r="IN86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65167,6 +65425,9 @@
       <c r="IM87" t="n">
         <v>4</v>
       </c>
+      <c r="IN87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65912,6 +66173,9 @@
       <c r="IM88" t="n">
         <v>6</v>
       </c>
+      <c r="IN88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66657,6 +66921,9 @@
       <c r="IM89" t="n">
         <v>2</v>
       </c>
+      <c r="IN89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67402,6 +67669,9 @@
       <c r="IM90" t="n">
         <v>140</v>
       </c>
+      <c r="IN90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68147,6 +68417,9 @@
       <c r="IM91" t="n">
         <v>232</v>
       </c>
+      <c r="IN91" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68892,6 +69165,9 @@
       <c r="IM92" t="n">
         <v>275</v>
       </c>
+      <c r="IN92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69637,6 +69913,9 @@
       <c r="IM93" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="IN93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70382,6 +70661,9 @@
       <c r="IM94" t="n">
         <v>57</v>
       </c>
+      <c r="IN94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71127,6 +71409,9 @@
       <c r="IM95" t="n">
         <v>11</v>
       </c>
+      <c r="IN95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71872,6 +72157,9 @@
       <c r="IM96" t="n">
         <v>17</v>
       </c>
+      <c r="IN96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72617,6 +72905,9 @@
       <c r="IM97" t="n">
         <v>41</v>
       </c>
+      <c r="IN97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73362,6 +73653,9 @@
       <c r="IM98" t="n">
         <v>35</v>
       </c>
+      <c r="IN98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74107,6 +74401,9 @@
       <c r="IM99" t="n">
         <v>43</v>
       </c>
+      <c r="IN99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74852,6 +75149,9 @@
       <c r="IM100" t="n">
         <v>19</v>
       </c>
+      <c r="IN100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75597,6 +75897,9 @@
       <c r="IM101" t="n">
         <v>13</v>
       </c>
+      <c r="IN101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76342,6 +76645,9 @@
       <c r="IM102" t="n">
         <v>76.5</v>
       </c>
+      <c r="IN102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,9 @@
       <c r="IN1" t="n">
         <v>10435</v>
       </c>
+      <c r="IO1" t="n">
+        <v>10441</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1848,6 +1851,9 @@
       <c r="IN2" t="n">
         <v>2021</v>
       </c>
+      <c r="IO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2596,6 +2602,9 @@
       <c r="IN3" t="n">
         <v>13</v>
       </c>
+      <c r="IO3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3344,6 +3353,9 @@
       <c r="IN4" t="n">
         <v>1</v>
       </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4092,6 +4104,9 @@
       <c r="IN5" t="n">
         <v>1</v>
       </c>
+      <c r="IO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4840,6 +4855,9 @@
       <c r="IN6" t="n">
         <v>89</v>
       </c>
+      <c r="IO6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5588,6 +5606,9 @@
       <c r="IN7" t="n">
         <v>51</v>
       </c>
+      <c r="IO7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6336,6 +6357,9 @@
       <c r="IN8" t="n">
         <v>38</v>
       </c>
+      <c r="IO8" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7084,6 +7108,9 @@
       <c r="IN9" t="n">
         <v>1</v>
       </c>
+      <c r="IO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7832,6 +7859,9 @@
       <c r="IN10" t="n">
         <v>16</v>
       </c>
+      <c r="IO10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8580,6 +8610,9 @@
       <c r="IN11" t="n">
         <v>207</v>
       </c>
+      <c r="IO11" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9328,6 +9361,9 @@
       <c r="IN12" t="n">
         <v>167</v>
       </c>
+      <c r="IO12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10076,6 +10112,9 @@
       <c r="IN13" t="n">
         <v>374</v>
       </c>
+      <c r="IO13" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10824,6 +10863,9 @@
       <c r="IN14" t="n">
         <v>1.24</v>
       </c>
+      <c r="IO14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11572,6 +11614,9 @@
       <c r="IN15" t="n">
         <v>70</v>
       </c>
+      <c r="IO15" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12320,6 +12365,9 @@
       <c r="IN16" t="n">
         <v>78</v>
       </c>
+      <c r="IO16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13068,6 +13116,9 @@
       <c r="IN17" t="n">
         <v>50</v>
       </c>
+      <c r="IO17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13816,6 +13867,9 @@
       <c r="IN18" t="n">
         <v>26</v>
       </c>
+      <c r="IO18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14564,6 +14618,9 @@
       <c r="IN19" t="n">
         <v>10</v>
       </c>
+      <c r="IO19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15312,6 +15369,9 @@
       <c r="IN20" t="n">
         <v>14</v>
       </c>
+      <c r="IO20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16060,6 +16120,9 @@
       <c r="IN21" t="n">
         <v>7</v>
       </c>
+      <c r="IO21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16808,6 +16871,9 @@
       <c r="IN22" t="n">
         <v>3</v>
       </c>
+      <c r="IO22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17556,6 +17622,9 @@
       <c r="IN23" t="n">
         <v>2</v>
       </c>
+      <c r="IO23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18304,6 +18373,9 @@
       <c r="IN24" t="n">
         <v>19</v>
       </c>
+      <c r="IO24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19052,6 +19124,9 @@
       <c r="IN25" t="n">
         <v>73.7</v>
       </c>
+      <c r="IO25" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19800,6 +19875,9 @@
       <c r="IN26" t="n">
         <v>26.71</v>
       </c>
+      <c r="IO26" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20548,6 +20626,9 @@
       <c r="IN27" t="n">
         <v>19.68</v>
       </c>
+      <c r="IO27" t="n">
+        <v>15.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21296,6 +21377,9 @@
       <c r="IN28" t="n">
         <v>42</v>
       </c>
+      <c r="IO28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22044,6 +22128,9 @@
       <c r="IN29" t="n">
         <v>32</v>
       </c>
+      <c r="IO29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22792,6 +22879,9 @@
       <c r="IN30" t="n">
         <v>42</v>
       </c>
+      <c r="IO30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23540,6 +23630,9 @@
       <c r="IN31" t="n">
         <v>59</v>
       </c>
+      <c r="IO31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24288,6 +24381,9 @@
       <c r="IN32" t="n">
         <v>3.11</v>
       </c>
+      <c r="IO32" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25036,6 +25132,9 @@
       <c r="IN33" t="n">
         <v>4.21</v>
       </c>
+      <c r="IO33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25784,6 +25883,9 @@
       <c r="IN34" t="n">
         <v>28.8</v>
       </c>
+      <c r="IO34" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26532,6 +26634,9 @@
       <c r="IN35" t="n">
         <v>23.7</v>
       </c>
+      <c r="IO35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27280,6 +27385,9 @@
       <c r="IN36" t="n">
         <v>187.1</v>
       </c>
+      <c r="IO36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28028,6 +28136,9 @@
       <c r="IN37" t="n">
         <v>84.5</v>
       </c>
+      <c r="IO37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28776,6 +28887,9 @@
       <c r="IN38" t="n">
         <v>24.91</v>
       </c>
+      <c r="IO38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29524,6 +29638,9 @@
       <c r="IN39" t="n">
         <v>107</v>
       </c>
+      <c r="IO39" t="n">
+        <v>108.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30272,6 +30389,9 @@
       <c r="IN40" t="n">
         <v>7</v>
       </c>
+      <c r="IO40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31020,6 +31140,9 @@
       <c r="IN41" t="n">
         <v>6</v>
       </c>
+      <c r="IO41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31768,6 +31891,9 @@
       <c r="IN42" t="n">
         <v>5</v>
       </c>
+      <c r="IO42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32516,6 +32642,9 @@
       <c r="IN43" t="n">
         <v>5</v>
       </c>
+      <c r="IO43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33264,6 +33393,9 @@
       <c r="IN44" t="n">
         <v>165</v>
       </c>
+      <c r="IO44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34012,6 +34144,9 @@
       <c r="IN45" t="n">
         <v>213</v>
       </c>
+      <c r="IO45" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34760,6 +34895,9 @@
       <c r="IN46" t="n">
         <v>275</v>
       </c>
+      <c r="IO46" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35508,6 +35646,9 @@
       <c r="IN47" t="n">
         <v>73.5</v>
       </c>
+      <c r="IO47" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36256,6 +36397,9 @@
       <c r="IN48" t="n">
         <v>32</v>
       </c>
+      <c r="IO48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37004,6 +37148,9 @@
       <c r="IN49" t="n">
         <v>15</v>
       </c>
+      <c r="IO49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37752,6 +37899,9 @@
       <c r="IN50" t="n">
         <v>10</v>
       </c>
+      <c r="IO50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38500,6 +38650,9 @@
       <c r="IN51" t="n">
         <v>42</v>
       </c>
+      <c r="IO51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39248,6 +39401,9 @@
       <c r="IN52" t="n">
         <v>42</v>
       </c>
+      <c r="IO52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39996,6 +40152,9 @@
       <c r="IN53" t="n">
         <v>69</v>
       </c>
+      <c r="IO53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40744,6 +40903,9 @@
       <c r="IN54" t="n">
         <v>2</v>
       </c>
+      <c r="IO54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41492,6 +41654,9 @@
       <c r="IN55" t="n">
         <v>7</v>
       </c>
+      <c r="IO55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42240,6 +42405,9 @@
       <c r="IN56" t="n">
         <v>50</v>
       </c>
+      <c r="IO56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42988,6 +43156,9 @@
       <c r="IN57" t="n">
         <v>191</v>
       </c>
+      <c r="IO57" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43736,6 +43907,9 @@
       <c r="IN58" t="n">
         <v>176</v>
       </c>
+      <c r="IO58" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44484,6 +44658,9 @@
       <c r="IN59" t="n">
         <v>367</v>
       </c>
+      <c r="IO59" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45232,6 +45409,9 @@
       <c r="IN60" t="n">
         <v>1.09</v>
       </c>
+      <c r="IO60" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45980,6 +46160,9 @@
       <c r="IN61" t="n">
         <v>75</v>
       </c>
+      <c r="IO61" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46728,6 +46911,9 @@
       <c r="IN62" t="n">
         <v>81</v>
       </c>
+      <c r="IO62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47476,6 +47662,9 @@
       <c r="IN63" t="n">
         <v>34</v>
       </c>
+      <c r="IO63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48224,6 +48413,9 @@
       <c r="IN64" t="n">
         <v>10</v>
       </c>
+      <c r="IO64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48972,6 +49164,9 @@
       <c r="IN65" t="n">
         <v>26</v>
       </c>
+      <c r="IO65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49720,6 +49915,9 @@
       <c r="IN66" t="n">
         <v>7</v>
       </c>
+      <c r="IO66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50468,6 +50666,9 @@
       <c r="IN67" t="n">
         <v>6</v>
       </c>
+      <c r="IO67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51216,6 +51417,9 @@
       <c r="IN68" t="n">
         <v>6</v>
       </c>
+      <c r="IO68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51964,6 +52168,9 @@
       <c r="IN69" t="n">
         <v>3</v>
       </c>
+      <c r="IO69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52712,6 +52919,9 @@
       <c r="IN70" t="n">
         <v>16</v>
       </c>
+      <c r="IO70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53460,6 +53670,9 @@
       <c r="IN71" t="n">
         <v>43.8</v>
       </c>
+      <c r="IO71" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54208,6 +54421,9 @@
       <c r="IN72" t="n">
         <v>52.43</v>
       </c>
+      <c r="IO72" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54956,6 +55172,9 @@
       <c r="IN73" t="n">
         <v>22.94</v>
       </c>
+      <c r="IO73" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55704,6 +55923,9 @@
       <c r="IN74" t="n">
         <v>39</v>
       </c>
+      <c r="IO74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56452,6 +56674,9 @@
       <c r="IN75" t="n">
         <v>60</v>
       </c>
+      <c r="IO75" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57200,6 +57425,9 @@
       <c r="IN76" t="n">
         <v>43</v>
       </c>
+      <c r="IO76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57948,6 +58176,9 @@
       <c r="IN77" t="n">
         <v>50</v>
       </c>
+      <c r="IO77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58696,6 +58927,9 @@
       <c r="IN78" t="n">
         <v>3.12</v>
       </c>
+      <c r="IO78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59444,6 +59678,9 @@
       <c r="IN79" t="n">
         <v>7.14</v>
       </c>
+      <c r="IO79" t="n">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60192,6 +60429,9 @@
       <c r="IN80" t="n">
         <v>26</v>
       </c>
+      <c r="IO80" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60940,6 +61180,9 @@
       <c r="IN81" t="n">
         <v>14</v>
       </c>
+      <c r="IO81" t="n">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61688,6 +61931,9 @@
       <c r="IN82" t="n">
         <v>187.3</v>
       </c>
+      <c r="IO82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62436,6 +62682,9 @@
       <c r="IN83" t="n">
         <v>84.8</v>
       </c>
+      <c r="IO83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63184,6 +63433,9 @@
       <c r="IN84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IO84" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63932,6 +64184,9 @@
       <c r="IN85" t="n">
         <v>104.1</v>
       </c>
+      <c r="IO85" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64680,6 +64935,9 @@
       <c r="IN86" t="n">
         <v>7</v>
       </c>
+      <c r="IO86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65428,6 +65686,9 @@
       <c r="IN87" t="n">
         <v>4</v>
       </c>
+      <c r="IO87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66176,6 +66437,9 @@
       <c r="IN88" t="n">
         <v>7</v>
       </c>
+      <c r="IO88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66924,6 +67188,9 @@
       <c r="IN89" t="n">
         <v>5</v>
       </c>
+      <c r="IO89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67672,6 +67939,9 @@
       <c r="IN90" t="n">
         <v>139</v>
       </c>
+      <c r="IO90" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68420,6 +68690,9 @@
       <c r="IN91" t="n">
         <v>235</v>
       </c>
+      <c r="IO91" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69168,6 +69441,9 @@
       <c r="IN92" t="n">
         <v>275</v>
       </c>
+      <c r="IO92" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69916,6 +70192,9 @@
       <c r="IN93" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IO93" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70664,6 +70943,9 @@
       <c r="IN94" t="n">
         <v>60</v>
       </c>
+      <c r="IO94" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71412,6 +71694,9 @@
       <c r="IN95" t="n">
         <v>8</v>
       </c>
+      <c r="IO95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72160,6 +72445,9 @@
       <c r="IN96" t="n">
         <v>11</v>
       </c>
+      <c r="IO96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72908,6 +73196,9 @@
       <c r="IN97" t="n">
         <v>39</v>
       </c>
+      <c r="IO97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73656,6 +73947,9 @@
       <c r="IN98" t="n">
         <v>43</v>
       </c>
+      <c r="IO98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74404,6 +74698,9 @@
       <c r="IN99" t="n">
         <v>60</v>
       </c>
+      <c r="IO99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75152,6 +75449,9 @@
       <c r="IN100" t="n">
         <v>3</v>
       </c>
+      <c r="IO100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75900,6 +76200,9 @@
       <c r="IN101" t="n">
         <v>6</v>
       </c>
+      <c r="IO101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76648,6 +76951,9 @@
       <c r="IN102" t="n">
         <v>85.7</v>
       </c>
+      <c r="IO102" t="n">
+        <v>30.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,9 @@
       <c r="IO1" t="n">
         <v>10441</v>
       </c>
+      <c r="IP1" t="n">
+        <v>10448</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1854,6 +1857,9 @@
       <c r="IO2" t="n">
         <v>2021</v>
       </c>
+      <c r="IP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2605,6 +2611,9 @@
       <c r="IO3" t="n">
         <v>14</v>
       </c>
+      <c r="IP3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3356,6 +3365,9 @@
       <c r="IO4" t="n">
         <v>0</v>
       </c>
+      <c r="IP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4107,6 +4119,9 @@
       <c r="IO5" t="n">
         <v>1</v>
       </c>
+      <c r="IP5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4858,6 +4873,9 @@
       <c r="IO6" t="n">
         <v>73</v>
       </c>
+      <c r="IP6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5609,6 +5627,9 @@
       <c r="IO7" t="n">
         <v>86</v>
       </c>
+      <c r="IP7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6360,6 +6381,9 @@
       <c r="IO8" t="n">
         <v>-13</v>
       </c>
+      <c r="IP8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7111,6 +7135,9 @@
       <c r="IO9" t="n">
         <v>0</v>
       </c>
+      <c r="IP9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7862,6 +7889,9 @@
       <c r="IO10" t="n">
         <v>5</v>
       </c>
+      <c r="IP10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8613,6 +8643,9 @@
       <c r="IO11" t="n">
         <v>216</v>
       </c>
+      <c r="IP11" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9364,6 +9397,9 @@
       <c r="IO12" t="n">
         <v>146</v>
       </c>
+      <c r="IP12" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10115,6 +10151,9 @@
       <c r="IO13" t="n">
         <v>362</v>
       </c>
+      <c r="IP13" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10866,6 +10905,9 @@
       <c r="IO14" t="n">
         <v>1.48</v>
       </c>
+      <c r="IP14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11617,6 +11659,9 @@
       <c r="IO15" t="n">
         <v>96</v>
       </c>
+      <c r="IP15" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12368,6 +12413,9 @@
       <c r="IO16" t="n">
         <v>63</v>
       </c>
+      <c r="IP16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13119,6 +13167,9 @@
       <c r="IO17" t="n">
         <v>38</v>
       </c>
+      <c r="IP17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13870,6 +13921,9 @@
       <c r="IO18" t="n">
         <v>26</v>
       </c>
+      <c r="IP18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14621,6 +14675,9 @@
       <c r="IO19" t="n">
         <v>16</v>
       </c>
+      <c r="IP19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15372,6 +15429,9 @@
       <c r="IO20" t="n">
         <v>10</v>
       </c>
+      <c r="IP20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16123,6 +16183,9 @@
       <c r="IO21" t="n">
         <v>6</v>
       </c>
+      <c r="IP21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16874,6 +16937,9 @@
       <c r="IO22" t="n">
         <v>11</v>
       </c>
+      <c r="IP22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17625,6 +17691,9 @@
       <c r="IO23" t="n">
         <v>2</v>
       </c>
+      <c r="IP23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18376,6 +18445,9 @@
       <c r="IO24" t="n">
         <v>23</v>
       </c>
+      <c r="IP24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19127,6 +19199,9 @@
       <c r="IO25" t="n">
         <v>43.5</v>
       </c>
+      <c r="IP25" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19878,6 +19953,9 @@
       <c r="IO26" t="n">
         <v>36.2</v>
       </c>
+      <c r="IP26" t="n">
+        <v>30.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20629,6 +20707,9 @@
       <c r="IO27" t="n">
         <v>15.74</v>
       </c>
+      <c r="IP27" t="n">
+        <v>15.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21380,6 +21461,9 @@
       <c r="IO28" t="n">
         <v>29</v>
       </c>
+      <c r="IP28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22131,6 +22215,9 @@
       <c r="IO29" t="n">
         <v>48</v>
       </c>
+      <c r="IP29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22882,6 +22969,9 @@
       <c r="IO30" t="n">
         <v>33</v>
       </c>
+      <c r="IP30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23633,6 +23723,9 @@
       <c r="IO31" t="n">
         <v>50</v>
       </c>
+      <c r="IP31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24384,6 +24477,9 @@
       <c r="IO32" t="n">
         <v>2.17</v>
       </c>
+      <c r="IP32" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25135,6 +25231,9 @@
       <c r="IO33" t="n">
         <v>5</v>
       </c>
+      <c r="IP33" t="n">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25886,6 +25985,9 @@
       <c r="IO34" t="n">
         <v>42</v>
       </c>
+      <c r="IP34" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26637,6 +26739,9 @@
       <c r="IO35" t="n">
         <v>20</v>
       </c>
+      <c r="IP35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27388,6 +27493,9 @@
       <c r="IO36" t="n">
         <v>187.2</v>
       </c>
+      <c r="IP36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28139,6 +28247,9 @@
       <c r="IO37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IP37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28890,6 +29001,9 @@
       <c r="IO38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IP38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29641,6 +29755,9 @@
       <c r="IO39" t="n">
         <v>108.9</v>
       </c>
+      <c r="IP39" t="n">
+        <v>105.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30392,6 +30509,9 @@
       <c r="IO40" t="n">
         <v>8</v>
       </c>
+      <c r="IP40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31143,6 +31263,9 @@
       <c r="IO41" t="n">
         <v>4</v>
       </c>
+      <c r="IP41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31894,6 +32017,9 @@
       <c r="IO42" t="n">
         <v>5</v>
       </c>
+      <c r="IP42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32645,6 +32771,9 @@
       <c r="IO43" t="n">
         <v>5</v>
       </c>
+      <c r="IP43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33396,6 +33525,9 @@
       <c r="IO44" t="n">
         <v>137</v>
       </c>
+      <c r="IP44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34147,6 +34279,9 @@
       <c r="IO45" t="n">
         <v>226</v>
       </c>
+      <c r="IP45" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34898,6 +35033,9 @@
       <c r="IO46" t="n">
         <v>266</v>
       </c>
+      <c r="IP46" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35649,6 +35787,9 @@
       <c r="IO47" t="n">
         <v>73.5</v>
       </c>
+      <c r="IP47" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36400,6 +36541,9 @@
       <c r="IO48" t="n">
         <v>48</v>
       </c>
+      <c r="IP48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37151,6 +37295,9 @@
       <c r="IO49" t="n">
         <v>11</v>
       </c>
+      <c r="IP49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37902,6 +38049,9 @@
       <c r="IO50" t="n">
         <v>11</v>
       </c>
+      <c r="IP50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38653,6 +38803,9 @@
       <c r="IO51" t="n">
         <v>29</v>
       </c>
+      <c r="IP51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39404,6 +39557,9 @@
       <c r="IO52" t="n">
         <v>33</v>
       </c>
+      <c r="IP52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40155,6 +40311,9 @@
       <c r="IO53" t="n">
         <v>49</v>
       </c>
+      <c r="IP53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40906,6 +41065,9 @@
       <c r="IO54" t="n">
         <v>1</v>
       </c>
+      <c r="IP54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41657,6 +41819,9 @@
       <c r="IO55" t="n">
         <v>6</v>
       </c>
+      <c r="IP55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42408,6 +42573,9 @@
       <c r="IO56" t="n">
         <v>60</v>
       </c>
+      <c r="IP56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43159,6 +43327,9 @@
       <c r="IO57" t="n">
         <v>200</v>
       </c>
+      <c r="IP57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43910,6 +44081,9 @@
       <c r="IO58" t="n">
         <v>138</v>
       </c>
+      <c r="IP58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44661,6 +44835,9 @@
       <c r="IO59" t="n">
         <v>338</v>
       </c>
+      <c r="IP59" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45412,6 +45589,9 @@
       <c r="IO60" t="n">
         <v>1.45</v>
       </c>
+      <c r="IP60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46163,6 +46343,9 @@
       <c r="IO61" t="n">
         <v>74</v>
       </c>
+      <c r="IP61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46914,6 +47097,9 @@
       <c r="IO62" t="n">
         <v>47</v>
       </c>
+      <c r="IP62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47665,6 +47851,9 @@
       <c r="IO63" t="n">
         <v>23</v>
       </c>
+      <c r="IP63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48416,6 +48605,9 @@
       <c r="IO64" t="n">
         <v>16</v>
       </c>
+      <c r="IP64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49167,6 +49359,9 @@
       <c r="IO65" t="n">
         <v>26</v>
       </c>
+      <c r="IP65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49918,6 +50113,9 @@
       <c r="IO66" t="n">
         <v>13</v>
       </c>
+      <c r="IP66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50669,6 +50867,9 @@
       <c r="IO67" t="n">
         <v>4</v>
       </c>
+      <c r="IP67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51420,6 +51621,9 @@
       <c r="IO68" t="n">
         <v>4</v>
       </c>
+      <c r="IP68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52171,6 +52375,9 @@
       <c r="IO69" t="n">
         <v>4</v>
       </c>
+      <c r="IP69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52922,6 +53129,9 @@
       <c r="IO70" t="n">
         <v>21</v>
       </c>
+      <c r="IP70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53673,6 +53883,9 @@
       <c r="IO71" t="n">
         <v>61.9</v>
       </c>
+      <c r="IP71" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54424,6 +54637,9 @@
       <c r="IO72" t="n">
         <v>26</v>
       </c>
+      <c r="IP72" t="n">
+        <v>32.73</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55175,6 +55391,9 @@
       <c r="IO73" t="n">
         <v>16.1</v>
       </c>
+      <c r="IP73" t="n">
+        <v>21.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55926,6 +56145,9 @@
       <c r="IO74" t="n">
         <v>42</v>
       </c>
+      <c r="IP74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56677,6 +56899,9 @@
       <c r="IO75" t="n">
         <v>72</v>
       </c>
+      <c r="IP75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57428,6 +57653,9 @@
       <c r="IO76" t="n">
         <v>39</v>
       </c>
+      <c r="IP76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58179,6 +58407,9 @@
       <c r="IO77" t="n">
         <v>47</v>
       </c>
+      <c r="IP77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58930,6 +59161,9 @@
       <c r="IO78" t="n">
         <v>2.24</v>
       </c>
+      <c r="IP78" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59681,6 +59915,9 @@
       <c r="IO79" t="n">
         <v>3.62</v>
       </c>
+      <c r="IP79" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60432,6 +60669,9 @@
       <c r="IO80" t="n">
         <v>36.2</v>
       </c>
+      <c r="IP80" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61183,6 +61423,9 @@
       <c r="IO81" t="n">
         <v>27.7</v>
       </c>
+      <c r="IP81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61934,6 +62177,9 @@
       <c r="IO82" t="n">
         <v>188.6</v>
       </c>
+      <c r="IP82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62685,6 +62931,9 @@
       <c r="IO83" t="n">
         <v>86</v>
       </c>
+      <c r="IP83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63436,6 +63685,9 @@
       <c r="IO84" t="n">
         <v>24.58</v>
       </c>
+      <c r="IP84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64187,6 +64439,9 @@
       <c r="IO85" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IP85" t="n">
+        <v>95.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64938,6 +65193,9 @@
       <c r="IO86" t="n">
         <v>9</v>
       </c>
+      <c r="IP86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65689,6 +65947,9 @@
       <c r="IO87" t="n">
         <v>6</v>
       </c>
+      <c r="IP87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66440,6 +66701,9 @@
       <c r="IO88" t="n">
         <v>3</v>
       </c>
+      <c r="IP88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67191,6 +67455,9 @@
       <c r="IO89" t="n">
         <v>4</v>
       </c>
+      <c r="IP89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67942,6 +68209,9 @@
       <c r="IO90" t="n">
         <v>156</v>
       </c>
+      <c r="IP90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68693,6 +68963,9 @@
       <c r="IO91" t="n">
         <v>180</v>
       </c>
+      <c r="IP91" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69444,6 +69717,9 @@
       <c r="IO92" t="n">
         <v>232</v>
       </c>
+      <c r="IP92" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70195,6 +70471,9 @@
       <c r="IO93" t="n">
         <v>68.59999999999999</v>
       </c>
+      <c r="IP93" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70946,6 +71225,9 @@
       <c r="IO94" t="n">
         <v>72</v>
       </c>
+      <c r="IP94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71697,6 +71979,9 @@
       <c r="IO95" t="n">
         <v>19</v>
       </c>
+      <c r="IP95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72448,6 +72733,9 @@
       <c r="IO96" t="n">
         <v>7</v>
       </c>
+      <c r="IP96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73199,6 +73487,9 @@
       <c r="IO97" t="n">
         <v>42</v>
       </c>
+      <c r="IP97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73950,6 +74241,9 @@
       <c r="IO98" t="n">
         <v>39</v>
       </c>
+      <c r="IP98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74701,6 +74995,9 @@
       <c r="IO99" t="n">
         <v>47</v>
       </c>
+      <c r="IP99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75452,6 +75749,9 @@
       <c r="IO100" t="n">
         <v>10</v>
       </c>
+      <c r="IP100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76203,6 +76503,9 @@
       <c r="IO101" t="n">
         <v>4</v>
       </c>
+      <c r="IP101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76954,8 +77257,11 @@
       <c r="IO102" t="n">
         <v>30.8</v>
       </c>
+      <c r="IP102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,9 @@
       <c r="IP1" t="n">
         <v>10448</v>
       </c>
+      <c r="IQ1" t="n">
+        <v>10456</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1860,6 +1863,9 @@
       <c r="IP2" t="n">
         <v>2021</v>
       </c>
+      <c r="IQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2614,6 +2620,9 @@
       <c r="IP3" t="n">
         <v>15</v>
       </c>
+      <c r="IQ3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3368,6 +3377,9 @@
       <c r="IP4" t="n">
         <v>1</v>
       </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4122,6 +4134,9 @@
       <c r="IP5" t="n">
         <v>1</v>
       </c>
+      <c r="IQ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4876,6 +4891,9 @@
       <c r="IP6" t="n">
         <v>90</v>
       </c>
+      <c r="IQ6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5630,6 +5648,9 @@
       <c r="IP7" t="n">
         <v>72</v>
       </c>
+      <c r="IQ7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6384,6 +6405,9 @@
       <c r="IP8" t="n">
         <v>18</v>
       </c>
+      <c r="IQ8" t="n">
+        <v>-34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7138,6 +7162,9 @@
       <c r="IP9" t="n">
         <v>1</v>
       </c>
+      <c r="IQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7892,6 +7919,9 @@
       <c r="IP10" t="n">
         <v>9</v>
       </c>
+      <c r="IQ10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8646,6 +8676,9 @@
       <c r="IP11" t="n">
         <v>222</v>
       </c>
+      <c r="IQ11" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9400,6 +9433,9 @@
       <c r="IP12" t="n">
         <v>177</v>
       </c>
+      <c r="IQ12" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10154,6 +10190,9 @@
       <c r="IP13" t="n">
         <v>399</v>
       </c>
+      <c r="IQ13" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10908,6 +10947,9 @@
       <c r="IP14" t="n">
         <v>1.25</v>
       </c>
+      <c r="IQ14" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11662,6 +11704,9 @@
       <c r="IP15" t="n">
         <v>109</v>
       </c>
+      <c r="IQ15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12416,6 +12461,9 @@
       <c r="IP16" t="n">
         <v>45</v>
       </c>
+      <c r="IQ16" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13170,6 +13218,9 @@
       <c r="IP17" t="n">
         <v>38</v>
       </c>
+      <c r="IQ17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13924,6 +13975,9 @@
       <c r="IP18" t="n">
         <v>19</v>
       </c>
+      <c r="IQ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14678,6 +14732,9 @@
       <c r="IP19" t="n">
         <v>22</v>
       </c>
+      <c r="IQ19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15432,6 +15489,9 @@
       <c r="IP20" t="n">
         <v>13</v>
       </c>
+      <c r="IQ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16186,6 +16246,9 @@
       <c r="IP21" t="n">
         <v>9</v>
       </c>
+      <c r="IQ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16940,6 +17003,9 @@
       <c r="IP22" t="n">
         <v>10</v>
       </c>
+      <c r="IQ22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17694,6 +17760,9 @@
       <c r="IP23" t="n">
         <v>2</v>
       </c>
+      <c r="IQ23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18448,6 +18517,9 @@
       <c r="IP24" t="n">
         <v>25</v>
       </c>
+      <c r="IQ24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19202,6 +19274,9 @@
       <c r="IP25" t="n">
         <v>52</v>
       </c>
+      <c r="IQ25" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19956,6 +20031,9 @@
       <c r="IP26" t="n">
         <v>30.69</v>
       </c>
+      <c r="IQ26" t="n">
+        <v>46.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20710,6 +20788,9 @@
       <c r="IP27" t="n">
         <v>15.96</v>
       </c>
+      <c r="IQ27" t="n">
+        <v>18.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21464,6 +21545,9 @@
       <c r="IP28" t="n">
         <v>34</v>
       </c>
+      <c r="IQ28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22218,6 +22302,9 @@
       <c r="IP29" t="n">
         <v>54</v>
       </c>
+      <c r="IQ29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22972,6 +23059,9 @@
       <c r="IP30" t="n">
         <v>38</v>
       </c>
+      <c r="IQ30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23726,6 +23816,9 @@
       <c r="IP31" t="n">
         <v>59</v>
       </c>
+      <c r="IQ31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24480,6 +24573,9 @@
       <c r="IP32" t="n">
         <v>2.36</v>
       </c>
+      <c r="IQ32" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25234,6 +25330,9 @@
       <c r="IP33" t="n">
         <v>4.54</v>
       </c>
+      <c r="IQ33" t="n">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25988,6 +26087,9 @@
       <c r="IP34" t="n">
         <v>39</v>
       </c>
+      <c r="IQ34" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26742,6 +26844,9 @@
       <c r="IP35" t="n">
         <v>22</v>
       </c>
+      <c r="IQ35" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27496,6 +27601,9 @@
       <c r="IP36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IQ36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28250,6 +28358,9 @@
       <c r="IP37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IQ37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29004,6 +29115,9 @@
       <c r="IP38" t="n">
         <v>25.16</v>
       </c>
+      <c r="IQ38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29758,6 +29872,9 @@
       <c r="IP39" t="n">
         <v>105.9</v>
       </c>
+      <c r="IQ39" t="n">
+        <v>103.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30512,6 +30629,9 @@
       <c r="IP40" t="n">
         <v>8</v>
       </c>
+      <c r="IQ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31266,6 +31386,9 @@
       <c r="IP41" t="n">
         <v>5</v>
       </c>
+      <c r="IQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32020,6 +32143,9 @@
       <c r="IP42" t="n">
         <v>5</v>
       </c>
+      <c r="IQ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32774,6 +32900,9 @@
       <c r="IP43" t="n">
         <v>5</v>
       </c>
+      <c r="IQ43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33528,6 +33657,9 @@
       <c r="IP44" t="n">
         <v>136</v>
       </c>
+      <c r="IQ44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34282,6 +34414,9 @@
       <c r="IP45" t="n">
         <v>259</v>
       </c>
+      <c r="IQ45" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35036,6 +35171,9 @@
       <c r="IP46" t="n">
         <v>302</v>
       </c>
+      <c r="IQ46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35790,6 +35928,9 @@
       <c r="IP47" t="n">
         <v>75.7</v>
       </c>
+      <c r="IQ47" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36544,6 +36685,9 @@
       <c r="IP48" t="n">
         <v>54</v>
       </c>
+      <c r="IQ48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37298,6 +37442,9 @@
       <c r="IP49" t="n">
         <v>17</v>
       </c>
+      <c r="IQ49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38052,6 +38199,9 @@
       <c r="IP50" t="n">
         <v>15</v>
       </c>
+      <c r="IQ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38806,6 +38956,9 @@
       <c r="IP51" t="n">
         <v>34</v>
       </c>
+      <c r="IQ51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39560,6 +39713,9 @@
       <c r="IP52" t="n">
         <v>38</v>
       </c>
+      <c r="IQ52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40314,6 +40470,9 @@
       <c r="IP53" t="n">
         <v>53</v>
       </c>
+      <c r="IQ53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41068,6 +41227,9 @@
       <c r="IP54" t="n">
         <v>10</v>
       </c>
+      <c r="IQ54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41822,6 +41984,9 @@
       <c r="IP55" t="n">
         <v>9</v>
       </c>
+      <c r="IQ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42576,6 +42741,9 @@
       <c r="IP56" t="n">
         <v>69.2</v>
       </c>
+      <c r="IQ56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43330,6 +43498,9 @@
       <c r="IP57" t="n">
         <v>207</v>
       </c>
+      <c r="IQ57" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44084,6 +44255,9 @@
       <c r="IP58" t="n">
         <v>153</v>
       </c>
+      <c r="IQ58" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44838,6 +45012,9 @@
       <c r="IP59" t="n">
         <v>360</v>
       </c>
+      <c r="IQ59" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45592,6 +45769,9 @@
       <c r="IP60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IQ60" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46346,6 +46526,9 @@
       <c r="IP61" t="n">
         <v>94</v>
       </c>
+      <c r="IQ61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47100,6 +47283,9 @@
       <c r="IP62" t="n">
         <v>61</v>
       </c>
+      <c r="IQ62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47854,6 +48040,9 @@
       <c r="IP63" t="n">
         <v>26</v>
       </c>
+      <c r="IQ63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48608,6 +48797,9 @@
       <c r="IP64" t="n">
         <v>22</v>
       </c>
+      <c r="IQ64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49362,6 +49554,9 @@
       <c r="IP65" t="n">
         <v>19</v>
       </c>
+      <c r="IQ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50116,6 +50311,9 @@
       <c r="IP66" t="n">
         <v>11</v>
       </c>
+      <c r="IQ66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50870,6 +51068,9 @@
       <c r="IP67" t="n">
         <v>9</v>
       </c>
+      <c r="IQ67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51624,6 +51825,9 @@
       <c r="IP68" t="n">
         <v>5</v>
       </c>
+      <c r="IQ68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52378,6 +52582,9 @@
       <c r="IP69" t="n">
         <v>1</v>
       </c>
+      <c r="IQ69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53132,6 +53339,9 @@
       <c r="IP70" t="n">
         <v>17</v>
       </c>
+      <c r="IQ70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53886,6 +54096,9 @@
       <c r="IP71" t="n">
         <v>64.7</v>
       </c>
+      <c r="IQ71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54640,6 +54853,9 @@
       <c r="IP72" t="n">
         <v>32.73</v>
       </c>
+      <c r="IQ72" t="n">
+        <v>29.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55394,6 +55610,9 @@
       <c r="IP73" t="n">
         <v>21.18</v>
       </c>
+      <c r="IQ73" t="n">
+        <v>17.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56148,6 +56367,9 @@
       <c r="IP74" t="n">
         <v>34</v>
       </c>
+      <c r="IQ74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56902,6 +57124,9 @@
       <c r="IP75" t="n">
         <v>57</v>
       </c>
+      <c r="IQ75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57656,6 +57881,9 @@
       <c r="IP76" t="n">
         <v>43</v>
       </c>
+      <c r="IQ76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58410,6 +58638,9 @@
       <c r="IP77" t="n">
         <v>49</v>
       </c>
+      <c r="IQ77" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59164,6 +59395,9 @@
       <c r="IP78" t="n">
         <v>2.88</v>
       </c>
+      <c r="IQ78" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59918,6 +60152,9 @@
       <c r="IP79" t="n">
         <v>4.45</v>
       </c>
+      <c r="IQ79" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60672,6 +60909,9 @@
       <c r="IP80" t="n">
         <v>32.7</v>
       </c>
+      <c r="IQ80" t="n">
+        <v>40.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61426,6 +61666,9 @@
       <c r="IP81" t="n">
         <v>22.4</v>
       </c>
+      <c r="IQ81" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62180,6 +62423,9 @@
       <c r="IP82" t="n">
         <v>188</v>
       </c>
+      <c r="IQ82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62934,6 +63180,9 @@
       <c r="IP83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="IQ83" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63688,6 +63937,9 @@
       <c r="IP84" t="n">
         <v>25.91</v>
       </c>
+      <c r="IQ84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64442,6 +64694,9 @@
       <c r="IP85" t="n">
         <v>95.2</v>
       </c>
+      <c r="IQ85" t="n">
+        <v>95.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65196,6 +65451,9 @@
       <c r="IP86" t="n">
         <v>6</v>
       </c>
+      <c r="IQ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65950,6 +66208,9 @@
       <c r="IP87" t="n">
         <v>7</v>
       </c>
+      <c r="IQ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66704,6 +66965,9 @@
       <c r="IP88" t="n">
         <v>3</v>
       </c>
+      <c r="IQ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67458,6 +67722,9 @@
       <c r="IP89" t="n">
         <v>6</v>
       </c>
+      <c r="IQ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68212,6 +68479,9 @@
       <c r="IP90" t="n">
         <v>124</v>
       </c>
+      <c r="IQ90" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68966,6 +69236,9 @@
       <c r="IP91" t="n">
         <v>231</v>
       </c>
+      <c r="IQ91" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69720,6 +69993,9 @@
       <c r="IP92" t="n">
         <v>275</v>
       </c>
+      <c r="IQ92" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70474,6 +70750,9 @@
       <c r="IP93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="IQ93" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71228,6 +71507,9 @@
       <c r="IP94" t="n">
         <v>57</v>
       </c>
+      <c r="IQ94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71982,6 +72264,9 @@
       <c r="IP95" t="n">
         <v>14</v>
       </c>
+      <c r="IQ95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72736,6 +73021,9 @@
       <c r="IP96" t="n">
         <v>7</v>
       </c>
+      <c r="IQ96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73490,6 +73778,9 @@
       <c r="IP97" t="n">
         <v>34</v>
       </c>
+      <c r="IQ97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74244,6 +74535,9 @@
       <c r="IP98" t="n">
         <v>43</v>
       </c>
+      <c r="IQ98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74998,6 +75292,9 @@
       <c r="IP99" t="n">
         <v>39</v>
       </c>
+      <c r="IQ99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75752,6 +76049,9 @@
       <c r="IP100" t="n">
         <v>8</v>
       </c>
+      <c r="IQ100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76506,6 +76806,9 @@
       <c r="IP101" t="n">
         <v>9</v>
       </c>
+      <c r="IQ101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77260,8 +77563,11 @@
       <c r="IP102" t="n">
         <v>81.8</v>
       </c>
+      <c r="IQ102" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,9 @@
       <c r="IQ1" t="n">
         <v>10456</v>
       </c>
+      <c r="IR1" t="n">
+        <v>10466</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1866,6 +1869,9 @@
       <c r="IQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2623,6 +2629,9 @@
       <c r="IQ3" t="n">
         <v>16</v>
       </c>
+      <c r="IR3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3380,6 +3389,9 @@
       <c r="IQ4" t="n">
         <v>0</v>
       </c>
+      <c r="IR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4137,6 +4149,9 @@
       <c r="IQ5" t="n">
         <v>1</v>
       </c>
+      <c r="IR5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4894,6 +4909,9 @@
       <c r="IQ6" t="n">
         <v>53</v>
       </c>
+      <c r="IR6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5651,6 +5669,9 @@
       <c r="IQ7" t="n">
         <v>87</v>
       </c>
+      <c r="IR7" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6408,6 +6429,9 @@
       <c r="IQ8" t="n">
         <v>-34</v>
       </c>
+      <c r="IR8" t="n">
+        <v>-62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7165,6 +7189,9 @@
       <c r="IQ9" t="n">
         <v>0</v>
       </c>
+      <c r="IR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7922,6 +7949,9 @@
       <c r="IQ10" t="n">
         <v>13</v>
       </c>
+      <c r="IR10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8679,6 +8709,9 @@
       <c r="IQ11" t="n">
         <v>175</v>
       </c>
+      <c r="IR11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9436,6 +9469,9 @@
       <c r="IQ12" t="n">
         <v>152</v>
       </c>
+      <c r="IR12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10193,6 +10229,9 @@
       <c r="IQ13" t="n">
         <v>327</v>
       </c>
+      <c r="IR13" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10950,6 +10989,9 @@
       <c r="IQ14" t="n">
         <v>1.15</v>
       </c>
+      <c r="IR14" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11707,6 +11749,9 @@
       <c r="IQ15" t="n">
         <v>69</v>
       </c>
+      <c r="IR15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12464,6 +12509,9 @@
       <c r="IQ16" t="n">
         <v>67</v>
       </c>
+      <c r="IR16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13221,6 +13269,9 @@
       <c r="IQ17" t="n">
         <v>33</v>
       </c>
+      <c r="IR17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13978,6 +14029,9 @@
       <c r="IQ18" t="n">
         <v>16</v>
       </c>
+      <c r="IR18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14735,6 +14789,9 @@
       <c r="IQ19" t="n">
         <v>22</v>
       </c>
+      <c r="IR19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15492,6 +15549,9 @@
       <c r="IQ20" t="n">
         <v>7</v>
       </c>
+      <c r="IR20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16249,6 +16309,9 @@
       <c r="IQ21" t="n">
         <v>5</v>
       </c>
+      <c r="IR21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17006,6 +17069,9 @@
       <c r="IQ22" t="n">
         <v>7</v>
       </c>
+      <c r="IR22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17763,6 +17829,9 @@
       <c r="IQ23" t="n">
         <v>4</v>
       </c>
+      <c r="IR23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18520,6 +18589,9 @@
       <c r="IQ24" t="n">
         <v>18</v>
       </c>
+      <c r="IR24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19277,6 +19349,9 @@
       <c r="IQ25" t="n">
         <v>38.9</v>
       </c>
+      <c r="IR25" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20034,6 +20109,9 @@
       <c r="IQ26" t="n">
         <v>46.71</v>
       </c>
+      <c r="IR26" t="n">
+        <v>57.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20791,6 +20869,9 @@
       <c r="IQ27" t="n">
         <v>18.17</v>
       </c>
+      <c r="IR27" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21548,6 +21629,9 @@
       <c r="IQ28" t="n">
         <v>37</v>
       </c>
+      <c r="IR28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22305,6 +22389,9 @@
       <c r="IQ29" t="n">
         <v>53</v>
       </c>
+      <c r="IR29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23062,6 +23149,9 @@
       <c r="IQ30" t="n">
         <v>39</v>
       </c>
+      <c r="IR30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23819,6 +23909,9 @@
       <c r="IQ31" t="n">
         <v>39</v>
       </c>
+      <c r="IR31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24576,6 +24669,9 @@
       <c r="IQ32" t="n">
         <v>2.17</v>
       </c>
+      <c r="IR32" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25333,6 +25429,9 @@
       <c r="IQ33" t="n">
         <v>5.57</v>
       </c>
+      <c r="IR33" t="n">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26090,6 +26189,9 @@
       <c r="IQ34" t="n">
         <v>35.9</v>
       </c>
+      <c r="IR34" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26847,6 +26949,9 @@
       <c r="IQ35" t="n">
         <v>17.9</v>
       </c>
+      <c r="IR35" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27604,6 +27709,9 @@
       <c r="IQ36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IR36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28361,6 +28469,9 @@
       <c r="IQ37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IR37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29118,6 +29229,9 @@
       <c r="IQ38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IR38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29875,6 +29989,9 @@
       <c r="IQ39" t="n">
         <v>103.6</v>
       </c>
+      <c r="IR39" t="n">
+        <v>93.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30632,6 +30749,9 @@
       <c r="IQ40" t="n">
         <v>8</v>
       </c>
+      <c r="IR40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31389,6 +31509,9 @@
       <c r="IQ41" t="n">
         <v>5</v>
       </c>
+      <c r="IR41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32146,6 +32269,9 @@
       <c r="IQ42" t="n">
         <v>5</v>
       </c>
+      <c r="IR42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32903,6 +33029,9 @@
       <c r="IQ43" t="n">
         <v>4</v>
       </c>
+      <c r="IR43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33660,6 +33789,9 @@
       <c r="IQ44" t="n">
         <v>134</v>
       </c>
+      <c r="IR44" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34417,6 +34549,9 @@
       <c r="IQ45" t="n">
         <v>188</v>
       </c>
+      <c r="IR45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35174,6 +35309,9 @@
       <c r="IQ46" t="n">
         <v>227</v>
       </c>
+      <c r="IR46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35931,6 +36069,9 @@
       <c r="IQ47" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="IR47" t="n">
+        <v>76.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36688,6 +36829,9 @@
       <c r="IQ48" t="n">
         <v>53</v>
       </c>
+      <c r="IR48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37445,6 +37589,9 @@
       <c r="IQ49" t="n">
         <v>10</v>
       </c>
+      <c r="IR49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38202,6 +38349,9 @@
       <c r="IQ50" t="n">
         <v>6</v>
       </c>
+      <c r="IR50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38959,6 +39109,9 @@
       <c r="IQ51" t="n">
         <v>37</v>
       </c>
+      <c r="IR51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39716,6 +39869,9 @@
       <c r="IQ52" t="n">
         <v>39</v>
       </c>
+      <c r="IR52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40473,6 +40629,9 @@
       <c r="IQ53" t="n">
         <v>49</v>
       </c>
+      <c r="IR53" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41230,6 +41389,9 @@
       <c r="IQ54" t="n">
         <v>3</v>
       </c>
+      <c r="IR54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41987,6 +42149,9 @@
       <c r="IQ55" t="n">
         <v>5</v>
       </c>
+      <c r="IR55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42744,6 +42909,9 @@
       <c r="IQ56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IR56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43501,6 +43669,9 @@
       <c r="IQ57" t="n">
         <v>246</v>
       </c>
+      <c r="IR57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44258,6 +44429,9 @@
       <c r="IQ58" t="n">
         <v>143</v>
       </c>
+      <c r="IR58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45015,6 +45189,9 @@
       <c r="IQ59" t="n">
         <v>389</v>
       </c>
+      <c r="IR59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45772,6 +45949,9 @@
       <c r="IQ60" t="n">
         <v>1.72</v>
       </c>
+      <c r="IR60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46529,6 +46709,9 @@
       <c r="IQ61" t="n">
         <v>82</v>
       </c>
+      <c r="IR61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47286,6 +47469,9 @@
       <c r="IQ62" t="n">
         <v>69</v>
       </c>
+      <c r="IR62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48043,6 +48229,9 @@
       <c r="IQ63" t="n">
         <v>42</v>
       </c>
+      <c r="IR63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48800,6 +48989,9 @@
       <c r="IQ64" t="n">
         <v>22</v>
       </c>
+      <c r="IR64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49557,6 +49749,9 @@
       <c r="IQ65" t="n">
         <v>16</v>
       </c>
+      <c r="IR65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50314,6 +50509,9 @@
       <c r="IQ66" t="n">
         <v>13</v>
       </c>
+      <c r="IR66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51071,6 +51269,9 @@
       <c r="IQ67" t="n">
         <v>11</v>
       </c>
+      <c r="IR67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51828,6 +52029,9 @@
       <c r="IQ68" t="n">
         <v>9</v>
       </c>
+      <c r="IR68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52585,6 +52789,9 @@
       <c r="IQ69" t="n">
         <v>0</v>
       </c>
+      <c r="IR69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53342,6 +53549,9 @@
       <c r="IQ70" t="n">
         <v>22</v>
       </c>
+      <c r="IR70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54099,6 +54309,9 @@
       <c r="IQ71" t="n">
         <v>59.1</v>
       </c>
+      <c r="IR71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54856,6 +55069,9 @@
       <c r="IQ72" t="n">
         <v>29.92</v>
       </c>
+      <c r="IR72" t="n">
+        <v>24.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55613,6 +55829,9 @@
       <c r="IQ73" t="n">
         <v>17.68</v>
       </c>
+      <c r="IR73" t="n">
+        <v>13.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56370,6 +56589,9 @@
       <c r="IQ74" t="n">
         <v>41</v>
       </c>
+      <c r="IR74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57127,6 +57349,9 @@
       <c r="IQ75" t="n">
         <v>63</v>
       </c>
+      <c r="IR75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57884,6 +58109,9 @@
       <c r="IQ76" t="n">
         <v>32</v>
       </c>
+      <c r="IR76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58641,6 +58869,9 @@
       <c r="IQ77" t="n">
         <v>54</v>
       </c>
+      <c r="IR77" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59398,6 +59629,9 @@
       <c r="IQ78" t="n">
         <v>2.45</v>
       </c>
+      <c r="IR78" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60155,6 +60389,9 @@
       <c r="IQ79" t="n">
         <v>4.15</v>
       </c>
+      <c r="IR79" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60912,6 +61149,9 @@
       <c r="IQ80" t="n">
         <v>40.7</v>
       </c>
+      <c r="IR80" t="n">
+        <v>44.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61669,6 +61909,9 @@
       <c r="IQ81" t="n">
         <v>24.1</v>
       </c>
+      <c r="IR81" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62426,6 +62669,9 @@
       <c r="IQ82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IR82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63183,6 +63429,9 @@
       <c r="IQ83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IR83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63940,6 +64189,9 @@
       <c r="IQ84" t="n">
         <v>25.58</v>
       </c>
+      <c r="IR84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64697,6 +64949,9 @@
       <c r="IQ85" t="n">
         <v>95.59999999999999</v>
       </c>
+      <c r="IR85" t="n">
+        <v>88.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65454,6 +65709,9 @@
       <c r="IQ86" t="n">
         <v>7</v>
       </c>
+      <c r="IR86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66211,6 +66469,9 @@
       <c r="IQ87" t="n">
         <v>7</v>
       </c>
+      <c r="IR87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66968,6 +67229,9 @@
       <c r="IQ88" t="n">
         <v>4</v>
       </c>
+      <c r="IR88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67725,6 +67989,9 @@
       <c r="IQ89" t="n">
         <v>5</v>
       </c>
+      <c r="IR89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68482,6 +68749,9 @@
       <c r="IQ90" t="n">
         <v>157</v>
       </c>
+      <c r="IR90" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69239,6 +69509,9 @@
       <c r="IQ91" t="n">
         <v>212</v>
       </c>
+      <c r="IR91" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69996,6 +70269,9 @@
       <c r="IQ92" t="n">
         <v>277</v>
       </c>
+      <c r="IR92" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70753,6 +71029,9 @@
       <c r="IQ93" t="n">
         <v>71.2</v>
       </c>
+      <c r="IR93" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71510,6 +71789,9 @@
       <c r="IQ94" t="n">
         <v>63</v>
       </c>
+      <c r="IR94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72267,6 +72549,9 @@
       <c r="IQ95" t="n">
         <v>6</v>
       </c>
+      <c r="IR95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73024,6 +73309,9 @@
       <c r="IQ96" t="n">
         <v>7</v>
       </c>
+      <c r="IR96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73781,6 +74069,9 @@
       <c r="IQ97" t="n">
         <v>41</v>
       </c>
+      <c r="IR97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74538,6 +74829,9 @@
       <c r="IQ98" t="n">
         <v>32</v>
       </c>
+      <c r="IR98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75295,6 +75589,9 @@
       <c r="IQ99" t="n">
         <v>52</v>
       </c>
+      <c r="IR99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76052,6 +76349,9 @@
       <c r="IQ100" t="n">
         <v>2</v>
       </c>
+      <c r="IR100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76809,6 +77109,9 @@
       <c r="IQ101" t="n">
         <v>11</v>
       </c>
+      <c r="IR101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77566,6 +77869,9 @@
       <c r="IQ102" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IR102" t="n">
+        <v>81.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,6 +1112,9 @@
       <c r="IR1" t="n">
         <v>10466</v>
       </c>
+      <c r="IS1" t="n">
+        <v>10474</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1872,6 +1875,9 @@
       <c r="IR2" t="n">
         <v>2021</v>
       </c>
+      <c r="IS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2632,6 +2638,9 @@
       <c r="IR3" t="n">
         <v>17</v>
       </c>
+      <c r="IS3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3392,6 +3401,9 @@
       <c r="IR4" t="n">
         <v>0</v>
       </c>
+      <c r="IS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4152,6 +4164,9 @@
       <c r="IR5" t="n">
         <v>1</v>
       </c>
+      <c r="IS5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4912,6 +4927,9 @@
       <c r="IR6" t="n">
         <v>46</v>
       </c>
+      <c r="IS6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5672,6 +5690,9 @@
       <c r="IR7" t="n">
         <v>108</v>
       </c>
+      <c r="IS7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6432,6 +6453,9 @@
       <c r="IR8" t="n">
         <v>-62</v>
       </c>
+      <c r="IS8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7192,6 +7216,9 @@
       <c r="IR9" t="n">
         <v>0</v>
       </c>
+      <c r="IS9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7952,6 +7979,9 @@
       <c r="IR10" t="n">
         <v>6</v>
       </c>
+      <c r="IS10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8712,6 +8742,9 @@
       <c r="IR11" t="n">
         <v>198</v>
       </c>
+      <c r="IS11" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9472,6 +9505,9 @@
       <c r="IR12" t="n">
         <v>146</v>
       </c>
+      <c r="IS12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10232,6 +10268,9 @@
       <c r="IR13" t="n">
         <v>344</v>
       </c>
+      <c r="IS13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10992,6 +11031,9 @@
       <c r="IR14" t="n">
         <v>1.36</v>
       </c>
+      <c r="IS14" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11752,6 +11794,9 @@
       <c r="IR15" t="n">
         <v>89</v>
       </c>
+      <c r="IS15" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12512,6 +12557,9 @@
       <c r="IR16" t="n">
         <v>54</v>
       </c>
+      <c r="IS16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13272,6 +13320,9 @@
       <c r="IR17" t="n">
         <v>31</v>
       </c>
+      <c r="IS17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14032,6 +14083,9 @@
       <c r="IR18" t="n">
         <v>19</v>
       </c>
+      <c r="IS18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14792,6 +14846,9 @@
       <c r="IR19" t="n">
         <v>19</v>
       </c>
+      <c r="IS19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15552,6 +15609,9 @@
       <c r="IR20" t="n">
         <v>6</v>
       </c>
+      <c r="IS20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16312,6 +16372,9 @@
       <c r="IR21" t="n">
         <v>3</v>
       </c>
+      <c r="IS21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17072,6 +17135,9 @@
       <c r="IR22" t="n">
         <v>7</v>
       </c>
+      <c r="IS22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17832,6 +17898,9 @@
       <c r="IR23" t="n">
         <v>3</v>
       </c>
+      <c r="IS23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18592,6 +18661,9 @@
       <c r="IR24" t="n">
         <v>16</v>
       </c>
+      <c r="IS24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19352,6 +19424,9 @@
       <c r="IR25" t="n">
         <v>37.5</v>
       </c>
+      <c r="IS25" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20112,6 +20187,9 @@
       <c r="IR26" t="n">
         <v>57.33</v>
       </c>
+      <c r="IS26" t="n">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20872,6 +20950,9 @@
       <c r="IR27" t="n">
         <v>21.5</v>
       </c>
+      <c r="IS27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21632,6 +21713,9 @@
       <c r="IR28" t="n">
         <v>32</v>
       </c>
+      <c r="IS28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22392,6 +22476,9 @@
       <c r="IR29" t="n">
         <v>54</v>
       </c>
+      <c r="IS29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23152,6 +23239,9 @@
       <c r="IR30" t="n">
         <v>42</v>
       </c>
+      <c r="IS30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23912,6 +24002,9 @@
       <c r="IR31" t="n">
         <v>41</v>
       </c>
+      <c r="IS31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24672,6 +24765,9 @@
       <c r="IR32" t="n">
         <v>2.56</v>
       </c>
+      <c r="IS32" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25432,6 +25528,9 @@
       <c r="IR33" t="n">
         <v>6.83</v>
       </c>
+      <c r="IS33" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26192,6 +26291,9 @@
       <c r="IR34" t="n">
         <v>31.7</v>
       </c>
+      <c r="IS34" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26952,6 +27054,9 @@
       <c r="IR35" t="n">
         <v>14.6</v>
       </c>
+      <c r="IS35" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27712,6 +27817,9 @@
       <c r="IR36" t="n">
         <v>188.8</v>
       </c>
+      <c r="IS36" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28472,6 +28580,9 @@
       <c r="IR37" t="n">
         <v>85</v>
       </c>
+      <c r="IS37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29232,6 +29343,9 @@
       <c r="IR38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IS38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29992,6 +30106,9 @@
       <c r="IR39" t="n">
         <v>93.09999999999999</v>
       </c>
+      <c r="IS39" t="n">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30752,6 +30869,9 @@
       <c r="IR40" t="n">
         <v>11</v>
       </c>
+      <c r="IS40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31512,6 +31632,9 @@
       <c r="IR41" t="n">
         <v>3</v>
       </c>
+      <c r="IS41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32272,6 +32395,9 @@
       <c r="IR42" t="n">
         <v>5</v>
       </c>
+      <c r="IS42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33032,6 +33158,9 @@
       <c r="IR43" t="n">
         <v>4</v>
       </c>
+      <c r="IS43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33792,6 +33921,9 @@
       <c r="IR44" t="n">
         <v>127</v>
       </c>
+      <c r="IS44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34552,6 +34684,9 @@
       <c r="IR45" t="n">
         <v>218</v>
       </c>
+      <c r="IS45" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35312,6 +35447,9 @@
       <c r="IR46" t="n">
         <v>264</v>
       </c>
+      <c r="IS46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36072,6 +36210,9 @@
       <c r="IR47" t="n">
         <v>76.7</v>
       </c>
+      <c r="IS47" t="n">
+        <v>66.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36832,6 +36973,9 @@
       <c r="IR48" t="n">
         <v>54</v>
       </c>
+      <c r="IS48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37592,6 +37736,9 @@
       <c r="IR49" t="n">
         <v>13</v>
       </c>
+      <c r="IS49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38352,6 +38499,9 @@
       <c r="IR50" t="n">
         <v>7</v>
       </c>
+      <c r="IS50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39112,6 +39262,9 @@
       <c r="IR51" t="n">
         <v>32</v>
       </c>
+      <c r="IS51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39872,6 +40025,9 @@
       <c r="IR52" t="n">
         <v>42</v>
       </c>
+      <c r="IS52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40632,6 +40788,9 @@
       <c r="IR53" t="n">
         <v>67</v>
       </c>
+      <c r="IS53" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41392,6 +41551,9 @@
       <c r="IR54" t="n">
         <v>4</v>
       </c>
+      <c r="IS54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42152,6 +42314,9 @@
       <c r="IR55" t="n">
         <v>3</v>
       </c>
+      <c r="IS55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42912,6 +43077,9 @@
       <c r="IR56" t="n">
         <v>50</v>
       </c>
+      <c r="IS56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43672,6 +43840,9 @@
       <c r="IR57" t="n">
         <v>223</v>
       </c>
+      <c r="IS57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44432,6 +44603,9 @@
       <c r="IR58" t="n">
         <v>165</v>
       </c>
+      <c r="IS58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45192,6 +45366,9 @@
       <c r="IR59" t="n">
         <v>388</v>
       </c>
+      <c r="IS59" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45952,6 +46129,9 @@
       <c r="IR60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IS60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46712,6 +46892,9 @@
       <c r="IR61" t="n">
         <v>96</v>
       </c>
+      <c r="IS61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47472,6 +47655,9 @@
       <c r="IR62" t="n">
         <v>42</v>
       </c>
+      <c r="IS62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48232,6 +48418,9 @@
       <c r="IR63" t="n">
         <v>32</v>
       </c>
+      <c r="IS63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48992,6 +49181,9 @@
       <c r="IR64" t="n">
         <v>19</v>
       </c>
+      <c r="IS64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49752,6 +49944,9 @@
       <c r="IR65" t="n">
         <v>19</v>
       </c>
+      <c r="IS65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50512,6 +50707,9 @@
       <c r="IR66" t="n">
         <v>16</v>
       </c>
+      <c r="IS66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51272,6 +51470,9 @@
       <c r="IR67" t="n">
         <v>13</v>
       </c>
+      <c r="IS67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52032,6 +52233,9 @@
       <c r="IR68" t="n">
         <v>10</v>
       </c>
+      <c r="IS68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52792,6 +52996,9 @@
       <c r="IR69" t="n">
         <v>2</v>
       </c>
+      <c r="IS69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53552,6 +53759,9 @@
       <c r="IR70" t="n">
         <v>28</v>
       </c>
+      <c r="IS70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54312,6 +54522,9 @@
       <c r="IR71" t="n">
         <v>57.1</v>
       </c>
+      <c r="IS71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55072,6 +55285,9 @@
       <c r="IR72" t="n">
         <v>24.25</v>
       </c>
+      <c r="IS72" t="n">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55832,6 +56048,9 @@
       <c r="IR73" t="n">
         <v>13.86</v>
       </c>
+      <c r="IS73" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56592,6 +56811,9 @@
       <c r="IR74" t="n">
         <v>34</v>
       </c>
+      <c r="IS74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57352,6 +57574,9 @@
       <c r="IR75" t="n">
         <v>55</v>
       </c>
+      <c r="IS75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58112,6 +58337,9 @@
       <c r="IR76" t="n">
         <v>35</v>
       </c>
+      <c r="IS76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58872,6 +59100,9 @@
       <c r="IR77" t="n">
         <v>59</v>
       </c>
+      <c r="IS77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59632,6 +59863,9 @@
       <c r="IR78" t="n">
         <v>2.11</v>
       </c>
+      <c r="IS78" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60392,6 +60626,9 @@
       <c r="IR79" t="n">
         <v>3.69</v>
       </c>
+      <c r="IS79" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61152,6 +61389,9 @@
       <c r="IR80" t="n">
         <v>44.1</v>
       </c>
+      <c r="IS80" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61912,6 +62152,9 @@
       <c r="IR81" t="n">
         <v>27.1</v>
       </c>
+      <c r="IS81" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62672,6 +62915,9 @@
       <c r="IR82" t="n">
         <v>187.4</v>
       </c>
+      <c r="IS82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63432,6 +63678,9 @@
       <c r="IR83" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IS83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64192,6 +64441,9 @@
       <c r="IR84" t="n">
         <v>25</v>
       </c>
+      <c r="IS84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64952,6 +65204,9 @@
       <c r="IR85" t="n">
         <v>88.40000000000001</v>
       </c>
+      <c r="IS85" t="n">
+        <v>95.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65712,6 +65967,9 @@
       <c r="IR86" t="n">
         <v>8</v>
       </c>
+      <c r="IS86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66472,6 +66730,9 @@
       <c r="IR87" t="n">
         <v>7</v>
       </c>
+      <c r="IS87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67232,6 +67493,9 @@
       <c r="IR88" t="n">
         <v>4</v>
       </c>
+      <c r="IS88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67992,6 +68256,9 @@
       <c r="IR89" t="n">
         <v>3</v>
       </c>
+      <c r="IS89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -68752,6 +69019,9 @@
       <c r="IR90" t="n">
         <v>152</v>
       </c>
+      <c r="IS90" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69512,6 +69782,9 @@
       <c r="IR91" t="n">
         <v>235</v>
       </c>
+      <c r="IS91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70272,6 +70545,9 @@
       <c r="IR92" t="n">
         <v>284</v>
       </c>
+      <c r="IS92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71032,6 +71308,9 @@
       <c r="IR93" t="n">
         <v>73.2</v>
       </c>
+      <c r="IS93" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -71792,6 +72071,9 @@
       <c r="IR94" t="n">
         <v>55</v>
       </c>
+      <c r="IS94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72552,6 +72834,9 @@
       <c r="IR95" t="n">
         <v>15</v>
       </c>
+      <c r="IS95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73312,6 +73597,9 @@
       <c r="IR96" t="n">
         <v>14</v>
       </c>
+      <c r="IS96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74072,6 +74360,9 @@
       <c r="IR97" t="n">
         <v>34</v>
       </c>
+      <c r="IS97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -74832,6 +75123,9 @@
       <c r="IR98" t="n">
         <v>35</v>
       </c>
+      <c r="IS98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75592,6 +75886,9 @@
       <c r="IR99" t="n">
         <v>47</v>
       </c>
+      <c r="IS99" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76352,6 +76649,9 @@
       <c r="IR100" t="n">
         <v>3</v>
       </c>
+      <c r="IS100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77112,6 +77412,9 @@
       <c r="IR101" t="n">
         <v>13</v>
       </c>
+      <c r="IS101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -77872,6 +78175,9 @@
       <c r="IR102" t="n">
         <v>81.2</v>
       </c>
+      <c r="IS102" t="n">
+        <v>45.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,9 @@
       <c r="IS1" t="n">
         <v>10474</v>
       </c>
+      <c r="IT1" t="n">
+        <v>10496</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1878,6 +1881,9 @@
       <c r="IS2" t="n">
         <v>2021</v>
       </c>
+      <c r="IT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2641,6 +2647,9 @@
       <c r="IS3" t="n">
         <v>18</v>
       </c>
+      <c r="IT3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3404,6 +3413,9 @@
       <c r="IS4" t="n">
         <v>1</v>
       </c>
+      <c r="IT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4167,6 +4179,9 @@
       <c r="IS5" t="n">
         <v>0.5</v>
       </c>
+      <c r="IT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4930,6 +4945,9 @@
       <c r="IS6" t="n">
         <v>79</v>
       </c>
+      <c r="IT6" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5693,6 +5711,9 @@
       <c r="IS7" t="n">
         <v>79</v>
       </c>
+      <c r="IT7" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6456,6 +6477,9 @@
       <c r="IS8" t="n">
         <v>0</v>
       </c>
+      <c r="IT8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7219,6 +7243,9 @@
       <c r="IS9" t="n">
         <v>0.5</v>
       </c>
+      <c r="IT9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7982,6 +8009,9 @@
       <c r="IS10" t="n">
         <v>11</v>
       </c>
+      <c r="IT10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8745,6 +8775,9 @@
       <c r="IS11" t="n">
         <v>213</v>
       </c>
+      <c r="IT11" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9508,6 +9541,9 @@
       <c r="IS12" t="n">
         <v>129</v>
       </c>
+      <c r="IT12" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10271,6 +10307,9 @@
       <c r="IS13" t="n">
         <v>342</v>
       </c>
+      <c r="IT13" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11034,6 +11073,9 @@
       <c r="IS14" t="n">
         <v>1.65</v>
       </c>
+      <c r="IT14" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11797,6 +11839,9 @@
       <c r="IS15" t="n">
         <v>57</v>
       </c>
+      <c r="IT15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12560,6 +12605,9 @@
       <c r="IS16" t="n">
         <v>81</v>
       </c>
+      <c r="IT16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13323,6 +13371,9 @@
       <c r="IS17" t="n">
         <v>34</v>
       </c>
+      <c r="IT17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14086,6 +14137,9 @@
       <c r="IS18" t="n">
         <v>22</v>
       </c>
+      <c r="IT18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14849,6 +14903,9 @@
       <c r="IS19" t="n">
         <v>15</v>
       </c>
+      <c r="IT19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15612,6 +15669,9 @@
       <c r="IS20" t="n">
         <v>12</v>
       </c>
+      <c r="IT20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16375,6 +16435,9 @@
       <c r="IS21" t="n">
         <v>8</v>
       </c>
+      <c r="IT21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17138,6 +17201,9 @@
       <c r="IS22" t="n">
         <v>6</v>
       </c>
+      <c r="IT22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17901,6 +17967,9 @@
       <c r="IS23" t="n">
         <v>1</v>
       </c>
+      <c r="IT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18664,6 +18733,9 @@
       <c r="IS24" t="n">
         <v>19</v>
       </c>
+      <c r="IT24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19427,6 +19499,9 @@
       <c r="IS25" t="n">
         <v>63.2</v>
       </c>
+      <c r="IT25" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20190,6 +20265,9 @@
       <c r="IS26" t="n">
         <v>28.5</v>
       </c>
+      <c r="IT26" t="n">
+        <v>28.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20953,6 +21031,9 @@
       <c r="IS27" t="n">
         <v>18</v>
       </c>
+      <c r="IT27" t="n">
+        <v>20.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21716,6 +21797,9 @@
       <c r="IS28" t="n">
         <v>34</v>
       </c>
+      <c r="IT28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22479,6 +22563,9 @@
       <c r="IS29" t="n">
         <v>60</v>
       </c>
+      <c r="IT29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23242,6 +23329,9 @@
       <c r="IS30" t="n">
         <v>46</v>
       </c>
+      <c r="IT30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24005,6 +24095,9 @@
       <c r="IS31" t="n">
         <v>50</v>
       </c>
+      <c r="IT31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24768,6 +24861,9 @@
       <c r="IS32" t="n">
         <v>2.63</v>
       </c>
+      <c r="IT32" t="n">
+        <v>3.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25531,6 +25627,9 @@
       <c r="IS33" t="n">
         <v>4.17</v>
       </c>
+      <c r="IT33" t="n">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26294,6 +26393,9 @@
       <c r="IS34" t="n">
         <v>36</v>
       </c>
+      <c r="IT34" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27057,6 +27159,9 @@
       <c r="IS35" t="n">
         <v>24</v>
       </c>
+      <c r="IT35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27820,6 +27925,9 @@
       <c r="IS36" t="n">
         <v>189.4</v>
       </c>
+      <c r="IT36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28583,6 +28691,9 @@
       <c r="IS37" t="n">
         <v>85.8</v>
       </c>
+      <c r="IT37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29346,6 +29457,9 @@
       <c r="IS38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IT38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30109,6 +30223,9 @@
       <c r="IS39" t="n">
         <v>95.7</v>
       </c>
+      <c r="IT39" t="n">
+        <v>106.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30872,6 +30989,9 @@
       <c r="IS40" t="n">
         <v>10</v>
       </c>
+      <c r="IT40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31635,6 +31755,9 @@
       <c r="IS41" t="n">
         <v>3</v>
       </c>
+      <c r="IT41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32398,6 +32521,9 @@
       <c r="IS42" t="n">
         <v>5</v>
       </c>
+      <c r="IT42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33161,6 +33287,9 @@
       <c r="IS43" t="n">
         <v>4</v>
       </c>
+      <c r="IT43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33924,6 +34053,9 @@
       <c r="IS44" t="n">
         <v>139</v>
       </c>
+      <c r="IT44" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34687,6 +34819,9 @@
       <c r="IS45" t="n">
         <v>180</v>
       </c>
+      <c r="IT45" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35450,6 +35585,9 @@
       <c r="IS46" t="n">
         <v>227</v>
       </c>
+      <c r="IT46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36213,6 +36351,9 @@
       <c r="IS47" t="n">
         <v>66.40000000000001</v>
       </c>
+      <c r="IT47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36976,6 +37117,9 @@
       <c r="IS48" t="n">
         <v>60</v>
       </c>
+      <c r="IT48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37739,6 +37883,9 @@
       <c r="IS49" t="n">
         <v>3</v>
       </c>
+      <c r="IT49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38502,6 +38649,9 @@
       <c r="IS50" t="n">
         <v>6</v>
       </c>
+      <c r="IT50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39265,6 +39415,9 @@
       <c r="IS51" t="n">
         <v>34</v>
       </c>
+      <c r="IT51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40028,6 +40181,9 @@
       <c r="IS52" t="n">
         <v>46</v>
       </c>
+      <c r="IT52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40791,6 +40947,9 @@
       <c r="IS53" t="n">
         <v>69</v>
       </c>
+      <c r="IT53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41554,6 +41713,9 @@
       <c r="IS54" t="n">
         <v>8</v>
       </c>
+      <c r="IT54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42317,6 +42479,9 @@
       <c r="IS55" t="n">
         <v>8</v>
       </c>
+      <c r="IT55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43080,6 +43245,9 @@
       <c r="IS56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IT56" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43843,6 +44011,9 @@
       <c r="IS57" t="n">
         <v>221</v>
       </c>
+      <c r="IT57" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44606,6 +44777,9 @@
       <c r="IS58" t="n">
         <v>160</v>
       </c>
+      <c r="IT58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45369,6 +45543,9 @@
       <c r="IS59" t="n">
         <v>381</v>
       </c>
+      <c r="IT59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46132,6 +46309,9 @@
       <c r="IS60" t="n">
         <v>1.38</v>
       </c>
+      <c r="IT60" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46895,6 +47075,9 @@
       <c r="IS61" t="n">
         <v>80</v>
       </c>
+      <c r="IT61" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47658,6 +47841,9 @@
       <c r="IS62" t="n">
         <v>60</v>
       </c>
+      <c r="IT62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48421,6 +48607,9 @@
       <c r="IS63" t="n">
         <v>38</v>
       </c>
+      <c r="IT63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49184,6 +49373,9 @@
       <c r="IS64" t="n">
         <v>15</v>
       </c>
+      <c r="IT64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49947,6 +50139,9 @@
       <c r="IS65" t="n">
         <v>22</v>
       </c>
+      <c r="IT65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50710,6 +50905,9 @@
       <c r="IS66" t="n">
         <v>11</v>
       </c>
+      <c r="IT66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51473,6 +51671,9 @@
       <c r="IS67" t="n">
         <v>5</v>
       </c>
+      <c r="IT67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52236,6 +52437,9 @@
       <c r="IS68" t="n">
         <v>10</v>
       </c>
+      <c r="IT68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52999,6 +53203,9 @@
       <c r="IS69" t="n">
         <v>3</v>
       </c>
+      <c r="IT69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -53762,6 +53969,9 @@
       <c r="IS70" t="n">
         <v>24</v>
       </c>
+      <c r="IT70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54525,6 +54735,9 @@
       <c r="IS71" t="n">
         <v>45.8</v>
       </c>
+      <c r="IT71" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55288,6 +55501,9 @@
       <c r="IS72" t="n">
         <v>34.64</v>
       </c>
+      <c r="IT72" t="n">
+        <v>22.06</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56051,6 +56267,9 @@
       <c r="IS73" t="n">
         <v>15.88</v>
       </c>
+      <c r="IT73" t="n">
+        <v>16.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -56814,6 +57033,9 @@
       <c r="IS74" t="n">
         <v>41</v>
       </c>
+      <c r="IT74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57577,6 +57799,9 @@
       <c r="IS75" t="n">
         <v>61</v>
       </c>
+      <c r="IT75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58340,6 +58565,9 @@
       <c r="IS76" t="n">
         <v>39</v>
       </c>
+      <c r="IT76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59103,6 +59331,9 @@
       <c r="IS77" t="n">
         <v>58</v>
       </c>
+      <c r="IT77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -59866,6 +60097,9 @@
       <c r="IS78" t="n">
         <v>2.42</v>
       </c>
+      <c r="IT78" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60629,6 +60863,9 @@
       <c r="IS79" t="n">
         <v>5.27</v>
       </c>
+      <c r="IT79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61392,6 +61629,9 @@
       <c r="IS80" t="n">
         <v>36.2</v>
       </c>
+      <c r="IT80" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62155,6 +62395,9 @@
       <c r="IS81" t="n">
         <v>19</v>
       </c>
+      <c r="IT81" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -62918,6 +63161,9 @@
       <c r="IS82" t="n">
         <v>188</v>
       </c>
+      <c r="IT82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63681,6 +63927,9 @@
       <c r="IS83" t="n">
         <v>87</v>
       </c>
+      <c r="IT83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64444,6 +64693,9 @@
       <c r="IS84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IT84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65207,6 +65459,9 @@
       <c r="IS85" t="n">
         <v>95.90000000000001</v>
       </c>
+      <c r="IT85" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -65970,6 +66225,9 @@
       <c r="IS86" t="n">
         <v>6</v>
       </c>
+      <c r="IT86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -66733,6 +66991,9 @@
       <c r="IS87" t="n">
         <v>4</v>
       </c>
+      <c r="IT87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67496,6 +67757,9 @@
       <c r="IS88" t="n">
         <v>8</v>
       </c>
+      <c r="IT88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68259,6 +68523,9 @@
       <c r="IS89" t="n">
         <v>4</v>
       </c>
+      <c r="IT89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69022,6 +69289,9 @@
       <c r="IS90" t="n">
         <v>158</v>
       </c>
+      <c r="IT90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -69785,6 +70055,9 @@
       <c r="IS91" t="n">
         <v>210</v>
       </c>
+      <c r="IT91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70548,6 +70821,9 @@
       <c r="IS92" t="n">
         <v>255</v>
       </c>
+      <c r="IT92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71311,6 +71587,9 @@
       <c r="IS93" t="n">
         <v>66.90000000000001</v>
       </c>
+      <c r="IT93" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72074,6 +72353,9 @@
       <c r="IS94" t="n">
         <v>61</v>
       </c>
+      <c r="IT94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -72837,6 +73119,9 @@
       <c r="IS95" t="n">
         <v>11</v>
       </c>
+      <c r="IT95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73600,6 +73885,9 @@
       <c r="IS96" t="n">
         <v>14</v>
       </c>
+      <c r="IT96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74363,6 +74651,9 @@
       <c r="IS97" t="n">
         <v>41</v>
       </c>
+      <c r="IT97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75126,6 +75417,9 @@
       <c r="IS98" t="n">
         <v>39</v>
       </c>
+      <c r="IT98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -75889,6 +76183,9 @@
       <c r="IS99" t="n">
         <v>66</v>
       </c>
+      <c r="IT99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -76652,6 +76949,9 @@
       <c r="IS100" t="n">
         <v>1</v>
       </c>
+      <c r="IT100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77415,6 +77715,9 @@
       <c r="IS101" t="n">
         <v>5</v>
       </c>
+      <c r="IT101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78178,6 +78481,9 @@
       <c r="IS102" t="n">
         <v>45.5</v>
       </c>
+      <c r="IT102" t="n">
+        <v>56.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,6 +1192,9 @@
       <c r="IV1" t="n">
         <v>10501</v>
       </c>
+      <c r="IW1" t="n">
+        <v>10511</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1896,6 +1967,9 @@
       <c r="IV2" t="n">
         <v>2021</v>
       </c>
+      <c r="IW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2668,6 +2742,9 @@
       <c r="IV3" t="n">
         <v>21</v>
       </c>
+      <c r="IW3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3440,6 +3517,9 @@
       <c r="IV4" t="n">
         <v>0</v>
       </c>
+      <c r="IW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4212,6 +4292,9 @@
       <c r="IV5" t="n">
         <v>0</v>
       </c>
+      <c r="IW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4984,6 +5067,9 @@
       <c r="IV6" t="n">
         <v>97</v>
       </c>
+      <c r="IW6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5756,6 +5842,9 @@
       <c r="IV7" t="n">
         <v>78</v>
       </c>
+      <c r="IW7" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6528,6 +6617,9 @@
       <c r="IV8" t="n">
         <v>19</v>
       </c>
+      <c r="IW8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7300,6 +7392,9 @@
       <c r="IV9" t="n">
         <v>1</v>
       </c>
+      <c r="IW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8072,6 +8167,9 @@
       <c r="IV10" t="n">
         <v>4</v>
       </c>
+      <c r="IW10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8844,6 +8942,9 @@
       <c r="IV11" t="n">
         <v>238</v>
       </c>
+      <c r="IW11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9616,6 +9717,9 @@
       <c r="IV12" t="n">
         <v>195</v>
       </c>
+      <c r="IW12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10388,6 +10492,9 @@
       <c r="IV13" t="n">
         <v>433</v>
       </c>
+      <c r="IW13" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11160,6 +11267,9 @@
       <c r="IV14" t="n">
         <v>1.22</v>
       </c>
+      <c r="IW14" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11932,6 +12042,9 @@
       <c r="IV15" t="n">
         <v>137</v>
       </c>
+      <c r="IW15" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12704,6 +12817,9 @@
       <c r="IV16" t="n">
         <v>38</v>
       </c>
+      <c r="IW16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13476,6 +13592,9 @@
       <c r="IV17" t="n">
         <v>35</v>
       </c>
+      <c r="IW17" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14248,6 +14367,9 @@
       <c r="IV18" t="n">
         <v>15</v>
       </c>
+      <c r="IW18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15020,6 +15142,9 @@
       <c r="IV19" t="n">
         <v>18</v>
       </c>
+      <c r="IW19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15792,6 +15917,9 @@
       <c r="IV20" t="n">
         <v>15</v>
       </c>
+      <c r="IW20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16564,6 +16692,9 @@
       <c r="IV21" t="n">
         <v>15</v>
       </c>
+      <c r="IW21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17336,6 +17467,9 @@
       <c r="IV22" t="n">
         <v>2</v>
       </c>
+      <c r="IW22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18108,6 +18242,9 @@
       <c r="IV23" t="n">
         <v>5</v>
       </c>
+      <c r="IW23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18880,6 +19017,9 @@
       <c r="IV24" t="n">
         <v>22</v>
       </c>
+      <c r="IW24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19652,6 +19792,9 @@
       <c r="IV25" t="n">
         <v>68.2</v>
       </c>
+      <c r="IW25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20424,6 +20567,9 @@
       <c r="IV26" t="n">
         <v>28.87</v>
       </c>
+      <c r="IW26" t="n">
+        <v>42.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21196,6 +21342,9 @@
       <c r="IV27" t="n">
         <v>19.68</v>
       </c>
+      <c r="IW27" t="n">
+        <v>20.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21968,6 +22117,9 @@
       <c r="IV28" t="n">
         <v>39</v>
       </c>
+      <c r="IW28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22740,6 +22892,9 @@
       <c r="IV29" t="n">
         <v>49</v>
       </c>
+      <c r="IW29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23512,6 +23667,9 @@
       <c r="IV30" t="n">
         <v>31</v>
       </c>
+      <c r="IW30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24284,6 +24442,9 @@
       <c r="IV31" t="n">
         <v>48</v>
       </c>
+      <c r="IW31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25056,6 +25217,9 @@
       <c r="IV32" t="n">
         <v>2.18</v>
       </c>
+      <c r="IW32" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25828,6 +25992,9 @@
       <c r="IV33" t="n">
         <v>3.2</v>
       </c>
+      <c r="IW33" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26600,6 +26767,9 @@
       <c r="IV34" t="n">
         <v>35.4</v>
       </c>
+      <c r="IW34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27372,6 +27542,9 @@
       <c r="IV35" t="n">
         <v>31.2</v>
       </c>
+      <c r="IW35" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28144,6 +28317,9 @@
       <c r="IV36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IW36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28916,6 +29092,9 @@
       <c r="IV37" t="n">
         <v>86.2</v>
       </c>
+      <c r="IW37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29688,6 +29867,9 @@
       <c r="IV38" t="n">
         <v>26</v>
       </c>
+      <c r="IW38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30460,6 +30642,9 @@
       <c r="IV39" t="n">
         <v>104.7</v>
       </c>
+      <c r="IW39" t="n">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31232,6 +31417,9 @@
       <c r="IV40" t="n">
         <v>8</v>
       </c>
+      <c r="IW40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32004,6 +32192,9 @@
       <c r="IV41" t="n">
         <v>5</v>
       </c>
+      <c r="IW41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32776,6 +32967,9 @@
       <c r="IV42" t="n">
         <v>6</v>
       </c>
+      <c r="IW42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33548,6 +33742,9 @@
       <c r="IV43" t="n">
         <v>4</v>
       </c>
+      <c r="IW43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34320,6 +34517,9 @@
       <c r="IV44" t="n">
         <v>114</v>
       </c>
+      <c r="IW44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35092,6 +35292,9 @@
       <c r="IV45" t="n">
         <v>319</v>
       </c>
+      <c r="IW45" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35864,6 +36067,9 @@
       <c r="IV46" t="n">
         <v>359</v>
       </c>
+      <c r="IW46" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36636,6 +36842,9 @@
       <c r="IV47" t="n">
         <v>82.90000000000001</v>
       </c>
+      <c r="IW47" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37408,6 +37617,9 @@
       <c r="IV48" t="n">
         <v>49</v>
       </c>
+      <c r="IW48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38180,6 +38392,9 @@
       <c r="IV49" t="n">
         <v>12</v>
       </c>
+      <c r="IW49" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38952,6 +39167,9 @@
       <c r="IV50" t="n">
         <v>11</v>
       </c>
+      <c r="IW50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39724,6 +39942,9 @@
       <c r="IV51" t="n">
         <v>39</v>
       </c>
+      <c r="IW51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40496,6 +40717,9 @@
       <c r="IV52" t="n">
         <v>31</v>
       </c>
+      <c r="IW52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41268,6 +41492,9 @@
       <c r="IV53" t="n">
         <v>42</v>
       </c>
+      <c r="IW53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42040,6 +42267,9 @@
       <c r="IV54" t="n">
         <v>3</v>
       </c>
+      <c r="IW54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42812,6 +43042,9 @@
       <c r="IV55" t="n">
         <v>15</v>
       </c>
+      <c r="IW55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43584,6 +43817,9 @@
       <c r="IV56" t="n">
         <v>100</v>
       </c>
+      <c r="IW56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44356,6 +44592,9 @@
       <c r="IV57" t="n">
         <v>220</v>
       </c>
+      <c r="IW57" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45128,6 +45367,9 @@
       <c r="IV58" t="n">
         <v>155</v>
       </c>
+      <c r="IW58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45900,6 +46142,9 @@
       <c r="IV59" t="n">
         <v>375</v>
       </c>
+      <c r="IW59" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46672,6 +46917,9 @@
       <c r="IV60" t="n">
         <v>1.42</v>
       </c>
+      <c r="IW60" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47444,6 +47692,9 @@
       <c r="IV61" t="n">
         <v>113</v>
       </c>
+      <c r="IW61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48216,6 +48467,9 @@
       <c r="IV62" t="n">
         <v>52</v>
       </c>
+      <c r="IW62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48988,6 +49242,9 @@
       <c r="IV63" t="n">
         <v>41</v>
       </c>
+      <c r="IW63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49760,6 +50017,9 @@
       <c r="IV64" t="n">
         <v>18</v>
       </c>
+      <c r="IW64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50532,6 +50792,9 @@
       <c r="IV65" t="n">
         <v>15</v>
       </c>
+      <c r="IW65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51304,6 +51567,9 @@
       <c r="IV66" t="n">
         <v>12</v>
       </c>
+      <c r="IW66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52076,6 +52342,9 @@
       <c r="IV67" t="n">
         <v>9</v>
       </c>
+      <c r="IW67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52848,6 +53117,9 @@
       <c r="IV68" t="n">
         <v>4</v>
       </c>
+      <c r="IW68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53620,6 +53892,9 @@
       <c r="IV69" t="n">
         <v>2</v>
       </c>
+      <c r="IW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54392,6 +54667,9 @@
       <c r="IV70" t="n">
         <v>18</v>
       </c>
+      <c r="IW70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55164,6 +55442,9 @@
       <c r="IV71" t="n">
         <v>66.7</v>
       </c>
+      <c r="IW71" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55936,6 +56217,9 @@
       <c r="IV72" t="n">
         <v>31.25</v>
       </c>
+      <c r="IW72" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56708,6 +56992,9 @@
       <c r="IV73" t="n">
         <v>20.83</v>
       </c>
+      <c r="IW73" t="n">
+        <v>28.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57480,6 +57767,9 @@
       <c r="IV74" t="n">
         <v>33</v>
       </c>
+      <c r="IW74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58252,6 +58542,9 @@
       <c r="IV75" t="n">
         <v>65</v>
       </c>
+      <c r="IW75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59024,6 +59317,9 @@
       <c r="IV76" t="n">
         <v>32</v>
       </c>
+      <c r="IW76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59796,6 +60092,9 @@
       <c r="IV77" t="n">
         <v>45</v>
       </c>
+      <c r="IW77" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60568,6 +60867,9 @@
       <c r="IV78" t="n">
         <v>2.5</v>
       </c>
+      <c r="IW78" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -61340,6 +61642,9 @@
       <c r="IV79" t="n">
         <v>3.75</v>
       </c>
+      <c r="IW79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62112,6 +62417,9 @@
       <c r="IV80" t="n">
         <v>35.6</v>
       </c>
+      <c r="IW80" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62884,6 +63192,9 @@
       <c r="IV81" t="n">
         <v>26.7</v>
       </c>
+      <c r="IW81" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63656,6 +63967,9 @@
       <c r="IV82" t="n">
         <v>188</v>
       </c>
+      <c r="IW82" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -64428,6 +64742,9 @@
       <c r="IV83" t="n">
         <v>86.5</v>
       </c>
+      <c r="IW83" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -65200,6 +65517,9 @@
       <c r="IV84" t="n">
         <v>26</v>
       </c>
+      <c r="IW84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65972,6 +66292,9 @@
       <c r="IV85" t="n">
         <v>105.8</v>
       </c>
+      <c r="IW85" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66744,6 +67067,9 @@
       <c r="IV86" t="n">
         <v>9</v>
       </c>
+      <c r="IW86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67516,6 +67842,9 @@
       <c r="IV87" t="n">
         <v>1</v>
       </c>
+      <c r="IW87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -68288,6 +68617,9 @@
       <c r="IV88" t="n">
         <v>4</v>
       </c>
+      <c r="IW88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69060,6 +69392,9 @@
       <c r="IV89" t="n">
         <v>8</v>
       </c>
+      <c r="IW89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69832,6 +70167,9 @@
       <c r="IV90" t="n">
         <v>116</v>
       </c>
+      <c r="IW90" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70604,6 +70942,9 @@
       <c r="IV91" t="n">
         <v>253</v>
       </c>
+      <c r="IW91" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -71376,6 +71717,9 @@
       <c r="IV92" t="n">
         <v>298</v>
       </c>
+      <c r="IW92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -72148,6 +72492,9 @@
       <c r="IV93" t="n">
         <v>79.5</v>
       </c>
+      <c r="IW93" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72920,6 +73267,9 @@
       <c r="IV94" t="n">
         <v>65</v>
       </c>
+      <c r="IW94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73692,6 +74042,9 @@
       <c r="IV95" t="n">
         <v>12</v>
       </c>
+      <c r="IW95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74464,6 +74817,9 @@
       <c r="IV96" t="n">
         <v>8</v>
       </c>
+      <c r="IW96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -75236,6 +75592,9 @@
       <c r="IV97" t="n">
         <v>33</v>
       </c>
+      <c r="IW97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76008,6 +76367,9 @@
       <c r="IV98" t="n">
         <v>32</v>
       </c>
+      <c r="IW98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76780,6 +77142,9 @@
       <c r="IV99" t="n">
         <v>47</v>
       </c>
+      <c r="IW99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77552,6 +77917,9 @@
       <c r="IV100" t="n">
         <v>6</v>
       </c>
+      <c r="IW100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -78324,6 +78692,9 @@
       <c r="IV101" t="n">
         <v>9</v>
       </c>
+      <c r="IW101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -79096,6 +79467,9 @@
       <c r="IV102" t="n">
         <v>75</v>
       </c>
+      <c r="IW102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:IZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1201,9 @@
       <c r="IY1" t="n">
         <v>10550</v>
       </c>
+      <c r="IZ1" t="n">
+        <v>10557</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1982,6 +1985,9 @@
       <c r="IY2" t="n">
         <v>2022</v>
       </c>
+      <c r="IZ2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2763,6 +2769,9 @@
       <c r="IY3" t="n">
         <v>1</v>
       </c>
+      <c r="IZ3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3544,6 +3553,9 @@
       <c r="IY4" t="n">
         <v>0</v>
       </c>
+      <c r="IZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4325,6 +4337,9 @@
       <c r="IY5" t="n">
         <v>0</v>
       </c>
+      <c r="IZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5106,6 +5121,9 @@
       <c r="IY6" t="n">
         <v>78</v>
       </c>
+      <c r="IZ6" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5887,6 +5905,9 @@
       <c r="IY7" t="n">
         <v>58</v>
       </c>
+      <c r="IZ7" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6668,6 +6689,9 @@
       <c r="IY8" t="n">
         <v>20</v>
       </c>
+      <c r="IZ8" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7449,6 +7473,9 @@
       <c r="IY9" t="n">
         <v>1</v>
       </c>
+      <c r="IZ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8230,6 +8257,9 @@
       <c r="IY10" t="n">
         <v>12</v>
       </c>
+      <c r="IZ10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9011,6 +9041,9 @@
       <c r="IY11" t="n">
         <v>213</v>
       </c>
+      <c r="IZ11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9792,6 +9825,9 @@
       <c r="IY12" t="n">
         <v>154</v>
       </c>
+      <c r="IZ12" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10573,6 +10609,9 @@
       <c r="IY13" t="n">
         <v>367</v>
       </c>
+      <c r="IZ13" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11354,6 +11393,9 @@
       <c r="IY14" t="n">
         <v>1.38</v>
       </c>
+      <c r="IZ14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12135,6 +12177,9 @@
       <c r="IY15" t="n">
         <v>96</v>
       </c>
+      <c r="IZ15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12916,6 +12961,9 @@
       <c r="IY16" t="n">
         <v>62</v>
       </c>
+      <c r="IZ16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13697,6 +13745,9 @@
       <c r="IY17" t="n">
         <v>35</v>
       </c>
+      <c r="IZ17" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14478,6 +14529,9 @@
       <c r="IY18" t="n">
         <v>25</v>
       </c>
+      <c r="IZ18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15259,6 +15313,9 @@
       <c r="IY19" t="n">
         <v>25</v>
       </c>
+      <c r="IZ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16040,6 +16097,9 @@
       <c r="IY20" t="n">
         <v>11</v>
       </c>
+      <c r="IZ20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16821,6 +16881,9 @@
       <c r="IY21" t="n">
         <v>8</v>
       </c>
+      <c r="IZ21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17602,6 +17665,9 @@
       <c r="IY22" t="n">
         <v>9</v>
       </c>
+      <c r="IZ22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18383,6 +18449,9 @@
       <c r="IY23" t="n">
         <v>3</v>
       </c>
+      <c r="IZ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19164,6 +19233,9 @@
       <c r="IY24" t="n">
         <v>23</v>
       </c>
+      <c r="IZ24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19945,6 +20017,9 @@
       <c r="IY25" t="n">
         <v>47.8</v>
       </c>
+      <c r="IZ25" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20726,6 +20801,9 @@
       <c r="IY26" t="n">
         <v>33.36</v>
       </c>
+      <c r="IZ26" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21507,6 +21585,9 @@
       <c r="IY27" t="n">
         <v>15.96</v>
       </c>
+      <c r="IZ27" t="n">
+        <v>13.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22288,6 +22369,9 @@
       <c r="IY28" t="n">
         <v>27</v>
       </c>
+      <c r="IZ28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23069,6 +23153,9 @@
       <c r="IY29" t="n">
         <v>65</v>
       </c>
+      <c r="IZ29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23850,6 +23937,9 @@
       <c r="IY30" t="n">
         <v>44</v>
       </c>
+      <c r="IZ30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24631,6 +24721,9 @@
       <c r="IY31" t="n">
         <v>49</v>
       </c>
+      <c r="IZ31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25412,6 +25505,9 @@
       <c r="IY32" t="n">
         <v>2.13</v>
       </c>
+      <c r="IZ32" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26193,6 +26289,9 @@
       <c r="IY33" t="n">
         <v>4.45</v>
       </c>
+      <c r="IZ33" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26974,6 +27073,9 @@
       <c r="IY34" t="n">
         <v>40.8</v>
       </c>
+      <c r="IZ34" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27755,6 +27857,9 @@
       <c r="IY35" t="n">
         <v>22.4</v>
       </c>
+      <c r="IZ35" t="n">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28536,6 +28641,9 @@
       <c r="IY36" t="n">
         <v>188.2</v>
       </c>
+      <c r="IZ36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29317,6 +29425,9 @@
       <c r="IY37" t="n">
         <v>85.7</v>
       </c>
+      <c r="IZ37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30098,6 +30209,9 @@
       <c r="IY38" t="n">
         <v>24.41</v>
       </c>
+      <c r="IZ38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30879,6 +30993,9 @@
       <c r="IY39" t="n">
         <v>73.3</v>
       </c>
+      <c r="IZ39" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31660,6 +31777,9 @@
       <c r="IY40" t="n">
         <v>12</v>
       </c>
+      <c r="IZ40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32441,6 +32561,9 @@
       <c r="IY41" t="n">
         <v>3</v>
       </c>
+      <c r="IZ41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33222,6 +33345,9 @@
       <c r="IY42" t="n">
         <v>4</v>
       </c>
+      <c r="IZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34003,6 +34129,9 @@
       <c r="IY43" t="n">
         <v>4</v>
       </c>
+      <c r="IZ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34784,6 +34913,9 @@
       <c r="IY44" t="n">
         <v>132</v>
       </c>
+      <c r="IZ44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35565,6 +35697,9 @@
       <c r="IY45" t="n">
         <v>231</v>
       </c>
+      <c r="IZ45" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36346,6 +36481,9 @@
       <c r="IY46" t="n">
         <v>275</v>
       </c>
+      <c r="IZ46" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37127,6 +37265,9 @@
       <c r="IY47" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IZ47" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37908,6 +38049,9 @@
       <c r="IY48" t="n">
         <v>65</v>
       </c>
+      <c r="IZ48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38689,6 +38833,9 @@
       <c r="IY49" t="n">
         <v>17</v>
       </c>
+      <c r="IZ49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39470,6 +39617,9 @@
       <c r="IY50" t="n">
         <v>14</v>
       </c>
+      <c r="IZ50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40251,6 +40401,9 @@
       <c r="IY51" t="n">
         <v>27</v>
       </c>
+      <c r="IZ51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41032,6 +41185,9 @@
       <c r="IY52" t="n">
         <v>44</v>
       </c>
+      <c r="IZ52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41813,6 +41969,9 @@
       <c r="IY53" t="n">
         <v>42</v>
       </c>
+      <c r="IZ53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42594,6 +42753,9 @@
       <c r="IY54" t="n">
         <v>6</v>
       </c>
+      <c r="IZ54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43375,6 +43537,9 @@
       <c r="IY55" t="n">
         <v>8</v>
       </c>
+      <c r="IZ55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44156,6 +44321,9 @@
       <c r="IY56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IZ56" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44937,6 +45105,9 @@
       <c r="IY57" t="n">
         <v>217</v>
       </c>
+      <c r="IZ57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -45718,6 +45889,9 @@
       <c r="IY58" t="n">
         <v>124</v>
       </c>
+      <c r="IZ58" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46499,6 +46673,9 @@
       <c r="IY59" t="n">
         <v>341</v>
       </c>
+      <c r="IZ59" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47280,6 +47457,9 @@
       <c r="IY60" t="n">
         <v>1.75</v>
       </c>
+      <c r="IZ60" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48061,6 +48241,9 @@
       <c r="IY61" t="n">
         <v>101</v>
       </c>
+      <c r="IZ61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -48842,6 +49025,9 @@
       <c r="IY62" t="n">
         <v>50</v>
       </c>
+      <c r="IZ62" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -49623,6 +49809,9 @@
       <c r="IY63" t="n">
         <v>32</v>
       </c>
+      <c r="IZ63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50404,6 +50593,9 @@
       <c r="IY64" t="n">
         <v>25</v>
       </c>
+      <c r="IZ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51185,6 +51377,9 @@
       <c r="IY65" t="n">
         <v>25</v>
       </c>
+      <c r="IZ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -51966,6 +52161,9 @@
       <c r="IY66" t="n">
         <v>8</v>
       </c>
+      <c r="IZ66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -52747,6 +52945,9 @@
       <c r="IY67" t="n">
         <v>4</v>
       </c>
+      <c r="IZ67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53528,6 +53729,9 @@
       <c r="IY68" t="n">
         <v>8</v>
       </c>
+      <c r="IZ68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54309,6 +54513,9 @@
       <c r="IY69" t="n">
         <v>2</v>
       </c>
+      <c r="IZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55090,6 +55297,9 @@
       <c r="IY70" t="n">
         <v>18</v>
       </c>
+      <c r="IZ70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -55871,6 +56081,9 @@
       <c r="IY71" t="n">
         <v>44.4</v>
       </c>
+      <c r="IZ71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -56652,6 +56865,9 @@
       <c r="IY72" t="n">
         <v>42.62</v>
       </c>
+      <c r="IZ72" t="n">
+        <v>59.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57433,6 +57649,9 @@
       <c r="IY73" t="n">
         <v>18.94</v>
       </c>
+      <c r="IZ73" t="n">
+        <v>19.81</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58214,6 +58433,9 @@
       <c r="IY74" t="n">
         <v>34</v>
       </c>
+      <c r="IZ74" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -58995,6 +59217,9 @@
       <c r="IY75" t="n">
         <v>62</v>
       </c>
+      <c r="IZ75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -59776,6 +60001,9 @@
       <c r="IY76" t="n">
         <v>37</v>
       </c>
+      <c r="IZ76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -60557,6 +60785,9 @@
       <c r="IY77" t="n">
         <v>53</v>
       </c>
+      <c r="IZ77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61338,6 +61569,9 @@
       <c r="IY78" t="n">
         <v>2.94</v>
       </c>
+      <c r="IZ78" t="n">
+        <v>2.76</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62119,6 +62353,9 @@
       <c r="IY79" t="n">
         <v>6.62</v>
       </c>
+      <c r="IZ79" t="n">
+        <v>8.289999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -62900,6 +63137,9 @@
       <c r="IY80" t="n">
         <v>30.2</v>
       </c>
+      <c r="IZ80" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -63681,6 +63921,9 @@
       <c r="IY81" t="n">
         <v>15.1</v>
       </c>
+      <c r="IZ81" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64462,6 +64705,9 @@
       <c r="IY82" t="n">
         <v>189.3</v>
       </c>
+      <c r="IZ82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65243,6 +65489,9 @@
       <c r="IY83" t="n">
         <v>85.5</v>
       </c>
+      <c r="IZ83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66024,6 +66273,9 @@
       <c r="IY84" t="n">
         <v>24.49</v>
       </c>
+      <c r="IZ84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -66805,6 +67057,9 @@
       <c r="IY85" t="n">
         <v>72.7</v>
       </c>
+      <c r="IZ85" t="n">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -67586,6 +67841,9 @@
       <c r="IY86" t="n">
         <v>11</v>
       </c>
+      <c r="IZ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68367,6 +68625,9 @@
       <c r="IY87" t="n">
         <v>6</v>
       </c>
+      <c r="IZ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69148,6 +69409,9 @@
       <c r="IY88" t="n">
         <v>4</v>
       </c>
+      <c r="IZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -69929,6 +70193,9 @@
       <c r="IY89" t="n">
         <v>2</v>
       </c>
+      <c r="IZ89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -70710,6 +70977,9 @@
       <c r="IY90" t="n">
         <v>130</v>
       </c>
+      <c r="IZ90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -71491,6 +71761,9 @@
       <c r="IY91" t="n">
         <v>198</v>
       </c>
+      <c r="IZ91" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72272,6 +72545,9 @@
       <c r="IY92" t="n">
         <v>236</v>
       </c>
+      <c r="IZ92" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73053,6 +73329,9 @@
       <c r="IY93" t="n">
         <v>69.2</v>
       </c>
+      <c r="IZ93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -73834,6 +74113,9 @@
       <c r="IY94" t="n">
         <v>62</v>
       </c>
+      <c r="IZ94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74615,6 +74897,9 @@
       <c r="IY95" t="n">
         <v>13</v>
       </c>
+      <c r="IZ95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75396,6 +75681,9 @@
       <c r="IY96" t="n">
         <v>8</v>
       </c>
+      <c r="IZ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76177,6 +76465,9 @@
       <c r="IY97" t="n">
         <v>34</v>
       </c>
+      <c r="IZ97" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -76958,6 +77249,9 @@
       <c r="IY98" t="n">
         <v>37</v>
       </c>
+      <c r="IZ98" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -77739,6 +78033,9 @@
       <c r="IY99" t="n">
         <v>46</v>
       </c>
+      <c r="IZ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -78520,6 +78817,9 @@
       <c r="IY100" t="n">
         <v>6</v>
       </c>
+      <c r="IZ100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79301,6 +79601,9 @@
       <c r="IY101" t="n">
         <v>4</v>
       </c>
+      <c r="IZ101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80082,6 +80385,9 @@
       <c r="IY102" t="n">
         <v>50</v>
       </c>
+      <c r="IZ102" t="n">
+        <v>57.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JA102"/>
+  <dimension ref="A1:JB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1207,9 @@
       <c r="JA1" t="n">
         <v>10568</v>
       </c>
+      <c r="JB1" t="n">
+        <v>10578</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1994,6 +1997,9 @@
       <c r="JA2" t="n">
         <v>2022</v>
       </c>
+      <c r="JB2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2781,6 +2787,9 @@
       <c r="JA3" t="n">
         <v>3</v>
       </c>
+      <c r="JB3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3568,6 +3577,9 @@
       <c r="JA4" t="n">
         <v>1</v>
       </c>
+      <c r="JB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4355,6 +4367,9 @@
       <c r="JA5" t="n">
         <v>0</v>
       </c>
+      <c r="JB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5142,6 +5157,9 @@
       <c r="JA6" t="n">
         <v>73</v>
       </c>
+      <c r="JB6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5929,6 +5947,9 @@
       <c r="JA7" t="n">
         <v>74</v>
       </c>
+      <c r="JB7" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6716,6 +6737,9 @@
       <c r="JA8" t="n">
         <v>-1</v>
       </c>
+      <c r="JB8" t="n">
+        <v>-69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7503,6 +7527,9 @@
       <c r="JA9" t="n">
         <v>0</v>
       </c>
+      <c r="JB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8290,6 +8317,9 @@
       <c r="JA10" t="n">
         <v>3</v>
       </c>
+      <c r="JB10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9077,6 +9107,9 @@
       <c r="JA11" t="n">
         <v>222</v>
       </c>
+      <c r="JB11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9864,6 +9897,9 @@
       <c r="JA12" t="n">
         <v>144</v>
       </c>
+      <c r="JB12" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10651,6 +10687,9 @@
       <c r="JA13" t="n">
         <v>366</v>
       </c>
+      <c r="JB13" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11438,6 +11477,9 @@
       <c r="JA14" t="n">
         <v>1.54</v>
       </c>
+      <c r="JB14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12225,6 +12267,9 @@
       <c r="JA15" t="n">
         <v>103</v>
       </c>
+      <c r="JB15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13012,6 +13057,9 @@
       <c r="JA16" t="n">
         <v>57</v>
       </c>
+      <c r="JB16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13799,6 +13847,9 @@
       <c r="JA17" t="n">
         <v>31</v>
       </c>
+      <c r="JB17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14586,6 +14637,9 @@
       <c r="JA18" t="n">
         <v>20</v>
       </c>
+      <c r="JB18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15373,6 +15427,9 @@
       <c r="JA19" t="n">
         <v>23</v>
       </c>
+      <c r="JB19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16160,6 +16217,9 @@
       <c r="JA20" t="n">
         <v>11</v>
       </c>
+      <c r="JB20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16947,6 +17007,9 @@
       <c r="JA21" t="n">
         <v>8</v>
       </c>
+      <c r="JB21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17734,6 +17797,9 @@
       <c r="JA22" t="n">
         <v>5</v>
       </c>
+      <c r="JB22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18521,6 +18587,9 @@
       <c r="JA23" t="n">
         <v>2</v>
       </c>
+      <c r="JB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19308,6 +19377,9 @@
       <c r="JA24" t="n">
         <v>18</v>
       </c>
+      <c r="JB24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20095,6 +20167,9 @@
       <c r="JA25" t="n">
         <v>61.1</v>
       </c>
+      <c r="JB25" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20882,6 +20957,9 @@
       <c r="JA26" t="n">
         <v>33.27</v>
       </c>
+      <c r="JB26" t="n">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21669,6 +21747,9 @@
       <c r="JA27" t="n">
         <v>20.33</v>
       </c>
+      <c r="JB27" t="n">
+        <v>14.52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22456,6 +22537,9 @@
       <c r="JA28" t="n">
         <v>31</v>
       </c>
+      <c r="JB28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23243,6 +23327,9 @@
       <c r="JA29" t="n">
         <v>68</v>
       </c>
+      <c r="JB29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24030,6 +24117,9 @@
       <c r="JA30" t="n">
         <v>52</v>
       </c>
+      <c r="JB30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24817,6 +24907,9 @@
       <c r="JA31" t="n">
         <v>46</v>
       </c>
+      <c r="JB31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25604,6 +25697,9 @@
       <c r="JA32" t="n">
         <v>2.56</v>
       </c>
+      <c r="JB32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26391,6 +26487,9 @@
       <c r="JA33" t="n">
         <v>4.18</v>
       </c>
+      <c r="JB33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27178,6 +27277,9 @@
       <c r="JA34" t="n">
         <v>34.8</v>
       </c>
+      <c r="JB34" t="n">
+        <v>48.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27965,6 +28067,9 @@
       <c r="JA35" t="n">
         <v>23.9</v>
       </c>
+      <c r="JB35" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28752,6 +28857,9 @@
       <c r="JA36" t="n">
         <v>188</v>
       </c>
+      <c r="JB36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29539,6 +29647,9 @@
       <c r="JA37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="JB37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30326,6 +30437,9 @@
       <c r="JA38" t="n">
         <v>24.41</v>
       </c>
+      <c r="JB38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31113,6 +31227,9 @@
       <c r="JA39" t="n">
         <v>74.40000000000001</v>
       </c>
+      <c r="JB39" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31900,6 +32017,9 @@
       <c r="JA40" t="n">
         <v>11</v>
       </c>
+      <c r="JB40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32687,6 +32807,9 @@
       <c r="JA41" t="n">
         <v>5</v>
       </c>
+      <c r="JB41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33474,6 +33597,9 @@
       <c r="JA42" t="n">
         <v>3</v>
       </c>
+      <c r="JB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34261,6 +34387,9 @@
       <c r="JA43" t="n">
         <v>4</v>
       </c>
+      <c r="JB43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35048,6 +35177,9 @@
       <c r="JA44" t="n">
         <v>137</v>
       </c>
+      <c r="JB44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35835,6 +35967,9 @@
       <c r="JA45" t="n">
         <v>225</v>
       </c>
+      <c r="JB45" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36622,6 +36757,9 @@
       <c r="JA46" t="n">
         <v>263</v>
       </c>
+      <c r="JB46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37409,6 +37547,9 @@
       <c r="JA47" t="n">
         <v>71.90000000000001</v>
       </c>
+      <c r="JB47" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38196,6 +38337,9 @@
       <c r="JA48" t="n">
         <v>68</v>
       </c>
+      <c r="JB48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -38983,6 +39127,9 @@
       <c r="JA49" t="n">
         <v>9</v>
       </c>
+      <c r="JB49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39770,6 +39917,9 @@
       <c r="JA50" t="n">
         <v>8</v>
       </c>
+      <c r="JB50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40557,6 +40707,9 @@
       <c r="JA51" t="n">
         <v>31</v>
       </c>
+      <c r="JB51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41344,6 +41497,9 @@
       <c r="JA52" t="n">
         <v>52</v>
       </c>
+      <c r="JB52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42131,6 +42287,9 @@
       <c r="JA53" t="n">
         <v>49</v>
       </c>
+      <c r="JB53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -42918,6 +43077,9 @@
       <c r="JA54" t="n">
         <v>10</v>
       </c>
+      <c r="JB54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43705,6 +43867,9 @@
       <c r="JA55" t="n">
         <v>8</v>
       </c>
+      <c r="JB55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44492,6 +44657,9 @@
       <c r="JA56" t="n">
         <v>72.7</v>
       </c>
+      <c r="JB56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45279,6 +45447,9 @@
       <c r="JA57" t="n">
         <v>253</v>
       </c>
+      <c r="JB57" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46066,6 +46237,9 @@
       <c r="JA58" t="n">
         <v>146</v>
       </c>
+      <c r="JB58" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -46853,6 +47027,9 @@
       <c r="JA59" t="n">
         <v>399</v>
       </c>
+      <c r="JB59" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47640,6 +47817,9 @@
       <c r="JA60" t="n">
         <v>1.73</v>
       </c>
+      <c r="JB60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48427,6 +48607,9 @@
       <c r="JA61" t="n">
         <v>115</v>
       </c>
+      <c r="JB61" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49214,6 +49397,9 @@
       <c r="JA62" t="n">
         <v>68</v>
       </c>
+      <c r="JB62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50001,6 +50187,9 @@
       <c r="JA63" t="n">
         <v>34</v>
       </c>
+      <c r="JB63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50788,6 +50977,9 @@
       <c r="JA64" t="n">
         <v>23</v>
       </c>
+      <c r="JB64" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51575,6 +51767,9 @@
       <c r="JA65" t="n">
         <v>20</v>
       </c>
+      <c r="JB65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52362,6 +52557,9 @@
       <c r="JA66" t="n">
         <v>11</v>
       </c>
+      <c r="JB66" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53149,6 +53347,9 @@
       <c r="JA67" t="n">
         <v>7</v>
       </c>
+      <c r="JB67" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -53936,6 +54137,9 @@
       <c r="JA68" t="n">
         <v>6</v>
       </c>
+      <c r="JB68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54723,6 +54927,9 @@
       <c r="JA69" t="n">
         <v>2</v>
       </c>
+      <c r="JB69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55510,6 +55717,9 @@
       <c r="JA70" t="n">
         <v>19</v>
       </c>
+      <c r="JB70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56297,6 +56507,9 @@
       <c r="JA71" t="n">
         <v>57.9</v>
       </c>
+      <c r="JB71" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57084,6 +57297,9 @@
       <c r="JA72" t="n">
         <v>36.27</v>
       </c>
+      <c r="JB72" t="n">
+        <v>18.73</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -57871,6 +58087,9 @@
       <c r="JA73" t="n">
         <v>21</v>
       </c>
+      <c r="JB73" t="n">
+        <v>12.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58658,6 +58877,9 @@
       <c r="JA74" t="n">
         <v>37</v>
       </c>
+      <c r="JB74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59445,6 +59667,9 @@
       <c r="JA75" t="n">
         <v>69</v>
       </c>
+      <c r="JB75" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60232,6 +60457,9 @@
       <c r="JA76" t="n">
         <v>35</v>
       </c>
+      <c r="JB76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61019,6 +61247,9 @@
       <c r="JA77" t="n">
         <v>64</v>
       </c>
+      <c r="JB77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -61806,6 +62037,9 @@
       <c r="JA78" t="n">
         <v>3.37</v>
       </c>
+      <c r="JB78" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62593,6 +62827,9 @@
       <c r="JA79" t="n">
         <v>5.82</v>
       </c>
+      <c r="JB79" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63380,6 +63617,9 @@
       <c r="JA80" t="n">
         <v>26.6</v>
       </c>
+      <c r="JB80" t="n">
+        <v>67.40000000000001</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64167,6 +64407,9 @@
       <c r="JA81" t="n">
         <v>17.2</v>
       </c>
+      <c r="JB81" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -64954,6 +65197,9 @@
       <c r="JA82" t="n">
         <v>189.7</v>
       </c>
+      <c r="JB82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65741,6 +65987,9 @@
       <c r="JA83" t="n">
         <v>88.40000000000001</v>
       </c>
+      <c r="JB83" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66528,6 +66777,9 @@
       <c r="JA84" t="n">
         <v>24.8</v>
       </c>
+      <c r="JB84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67315,6 +67567,9 @@
       <c r="JA85" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="JB85" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68102,6 +68357,9 @@
       <c r="JA86" t="n">
         <v>8</v>
       </c>
+      <c r="JB86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -68889,6 +69147,9 @@
       <c r="JA87" t="n">
         <v>8</v>
       </c>
+      <c r="JB87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69676,6 +69937,9 @@
       <c r="JA88" t="n">
         <v>7</v>
       </c>
+      <c r="JB88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70463,6 +70727,9 @@
       <c r="JA89" t="n">
         <v>0</v>
       </c>
+      <c r="JB89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71250,6 +71517,9 @@
       <c r="JA90" t="n">
         <v>147</v>
       </c>
+      <c r="JB90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72037,6 +72307,9 @@
       <c r="JA91" t="n">
         <v>250</v>
       </c>
+      <c r="JB91" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -72824,6 +73097,9 @@
       <c r="JA92" t="n">
         <v>302</v>
       </c>
+      <c r="JB92" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73611,6 +73887,9 @@
       <c r="JA93" t="n">
         <v>75.7</v>
       </c>
+      <c r="JB93" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74398,6 +74677,9 @@
       <c r="JA94" t="n">
         <v>69</v>
       </c>
+      <c r="JB94" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75185,6 +75467,9 @@
       <c r="JA95" t="n">
         <v>13</v>
       </c>
+      <c r="JB95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -75972,6 +76257,9 @@
       <c r="JA96" t="n">
         <v>10</v>
       </c>
+      <c r="JB96" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -76759,6 +77047,9 @@
       <c r="JA97" t="n">
         <v>37</v>
       </c>
+      <c r="JB97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77546,6 +77837,9 @@
       <c r="JA98" t="n">
         <v>35</v>
       </c>
+      <c r="JB98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78333,6 +78627,9 @@
       <c r="JA99" t="n">
         <v>55</v>
       </c>
+      <c r="JB99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79120,6 +79417,9 @@
       <c r="JA100" t="n">
         <v>8</v>
       </c>
+      <c r="JB100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -79907,6 +80207,9 @@
       <c r="JA101" t="n">
         <v>7</v>
       </c>
+      <c r="JB101" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -80694,6 +80997,9 @@
       <c r="JA102" t="n">
         <v>63.6</v>
       </c>
+      <c r="JB102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JB102"/>
+  <dimension ref="A1:JC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,6 +1210,9 @@
       <c r="JB1" t="n">
         <v>10578</v>
       </c>
+      <c r="JC1" t="n">
+        <v>10588</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2000,6 +2003,9 @@
       <c r="JB2" t="n">
         <v>2022</v>
       </c>
+      <c r="JC2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2790,6 +2796,9 @@
       <c r="JB3" t="n">
         <v>4</v>
       </c>
+      <c r="JC3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3580,6 +3589,9 @@
       <c r="JB4" t="n">
         <v>0</v>
       </c>
+      <c r="JC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4370,6 +4382,9 @@
       <c r="JB5" t="n">
         <v>1</v>
       </c>
+      <c r="JC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5160,6 +5175,9 @@
       <c r="JB6" t="n">
         <v>73</v>
       </c>
+      <c r="JC6" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5950,6 +5968,9 @@
       <c r="JB7" t="n">
         <v>142</v>
       </c>
+      <c r="JC7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6740,6 +6761,9 @@
       <c r="JB8" t="n">
         <v>-69</v>
       </c>
+      <c r="JC8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7530,6 +7554,9 @@
       <c r="JB9" t="n">
         <v>0</v>
       </c>
+      <c r="JC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8320,6 +8347,9 @@
       <c r="JB10" t="n">
         <v>15</v>
       </c>
+      <c r="JC10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9110,6 +9140,9 @@
       <c r="JB11" t="n">
         <v>192</v>
       </c>
+      <c r="JC11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9900,6 +9933,9 @@
       <c r="JB12" t="n">
         <v>142</v>
       </c>
+      <c r="JC12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10690,6 +10726,9 @@
       <c r="JB13" t="n">
         <v>334</v>
       </c>
+      <c r="JC13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11480,6 +11519,9 @@
       <c r="JB14" t="n">
         <v>1.35</v>
       </c>
+      <c r="JC14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12270,6 +12312,9 @@
       <c r="JB15" t="n">
         <v>89</v>
       </c>
+      <c r="JC15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13060,6 +13105,9 @@
       <c r="JB16" t="n">
         <v>41</v>
       </c>
+      <c r="JC16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13850,6 +13898,9 @@
       <c r="JB17" t="n">
         <v>25</v>
       </c>
+      <c r="JC17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14640,6 +14691,9 @@
       <c r="JB18" t="n">
         <v>25</v>
       </c>
+      <c r="JC18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15430,6 +15484,9 @@
       <c r="JB19" t="n">
         <v>27</v>
       </c>
+      <c r="JC19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16220,6 +16277,9 @@
       <c r="JB20" t="n">
         <v>10</v>
       </c>
+      <c r="JC20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17010,6 +17070,9 @@
       <c r="JB21" t="n">
         <v>5</v>
       </c>
+      <c r="JC21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17800,6 +17863,9 @@
       <c r="JB22" t="n">
         <v>12</v>
       </c>
+      <c r="JC22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18590,6 +18656,9 @@
       <c r="JB23" t="n">
         <v>1</v>
       </c>
+      <c r="JC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19380,6 +19449,9 @@
       <c r="JB24" t="n">
         <v>23</v>
       </c>
+      <c r="JC24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20170,6 +20242,9 @@
       <c r="JB25" t="n">
         <v>43.5</v>
       </c>
+      <c r="JC25" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20960,6 +21035,9 @@
       <c r="JB26" t="n">
         <v>33.4</v>
       </c>
+      <c r="JC26" t="n">
+        <v>26.86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21750,6 +21828,9 @@
       <c r="JB27" t="n">
         <v>14.52</v>
       </c>
+      <c r="JC27" t="n">
+        <v>17.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22540,6 +22621,9 @@
       <c r="JB28" t="n">
         <v>34</v>
       </c>
+      <c r="JC28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23330,6 +23414,9 @@
       <c r="JB29" t="n">
         <v>65</v>
       </c>
+      <c r="JC29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24120,6 +24207,9 @@
       <c r="JB30" t="n">
         <v>22</v>
       </c>
+      <c r="JC30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24910,6 +25000,9 @@
       <c r="JB31" t="n">
         <v>45</v>
       </c>
+      <c r="JC31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25700,6 +25793,9 @@
       <c r="JB32" t="n">
         <v>1.96</v>
       </c>
+      <c r="JC32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26490,6 +26586,9 @@
       <c r="JB33" t="n">
         <v>4.5</v>
       </c>
+      <c r="JC33" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27280,6 +27379,9 @@
       <c r="JB34" t="n">
         <v>48.9</v>
       </c>
+      <c r="JC34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28070,6 +28172,9 @@
       <c r="JB35" t="n">
         <v>22.2</v>
       </c>
+      <c r="JC35" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28860,6 +28965,9 @@
       <c r="JB36" t="n">
         <v>187.7</v>
       </c>
+      <c r="JC36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29650,6 +29758,9 @@
       <c r="JB37" t="n">
         <v>85</v>
       </c>
+      <c r="JC37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30440,6 +30551,9 @@
       <c r="JB38" t="n">
         <v>24.33</v>
       </c>
+      <c r="JC38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31230,6 +31344,9 @@
       <c r="JB39" t="n">
         <v>72.7</v>
       </c>
+      <c r="JC39" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32020,6 +32137,9 @@
       <c r="JB40" t="n">
         <v>11</v>
       </c>
+      <c r="JC40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32810,6 +32930,9 @@
       <c r="JB41" t="n">
         <v>5</v>
       </c>
+      <c r="JC41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33600,6 +33723,9 @@
       <c r="JB42" t="n">
         <v>4</v>
       </c>
+      <c r="JC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34390,6 +34516,9 @@
       <c r="JB43" t="n">
         <v>3</v>
       </c>
+      <c r="JC43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35180,6 +35309,9 @@
       <c r="JB44" t="n">
         <v>117</v>
       </c>
+      <c r="JC44" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35970,6 +36102,9 @@
       <c r="JB45" t="n">
         <v>219</v>
       </c>
+      <c r="JC45" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36760,6 +36895,9 @@
       <c r="JB46" t="n">
         <v>248</v>
       </c>
+      <c r="JC46" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37550,6 +37688,9 @@
       <c r="JB47" t="n">
         <v>74.3</v>
       </c>
+      <c r="JC47" t="n">
+        <v>72.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38340,6 +38481,9 @@
       <c r="JB48" t="n">
         <v>65</v>
       </c>
+      <c r="JC48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39130,6 +39274,9 @@
       <c r="JB49" t="n">
         <v>9</v>
       </c>
+      <c r="JC49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39920,6 +40067,9 @@
       <c r="JB50" t="n">
         <v>10</v>
       </c>
+      <c r="JC50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40710,6 +40860,9 @@
       <c r="JB51" t="n">
         <v>34</v>
       </c>
+      <c r="JC51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41500,6 +41653,9 @@
       <c r="JB52" t="n">
         <v>22</v>
       </c>
+      <c r="JC52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42290,6 +42446,9 @@
       <c r="JB53" t="n">
         <v>48</v>
       </c>
+      <c r="JC53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43080,6 +43239,9 @@
       <c r="JB54" t="n">
         <v>3</v>
       </c>
+      <c r="JC54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43870,6 +44032,9 @@
       <c r="JB55" t="n">
         <v>5</v>
       </c>
+      <c r="JC55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44660,6 +44825,9 @@
       <c r="JB56" t="n">
         <v>50</v>
       </c>
+      <c r="JC56" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45450,6 +45618,9 @@
       <c r="JB57" t="n">
         <v>251</v>
       </c>
+      <c r="JC57" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46240,6 +46411,9 @@
       <c r="JB58" t="n">
         <v>161</v>
       </c>
+      <c r="JC58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47030,6 +47204,9 @@
       <c r="JB59" t="n">
         <v>412</v>
       </c>
+      <c r="JC59" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47820,6 +47997,9 @@
       <c r="JB60" t="n">
         <v>1.56</v>
       </c>
+      <c r="JC60" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48610,6 +48790,9 @@
       <c r="JB61" t="n">
         <v>117</v>
       </c>
+      <c r="JC61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49400,6 +49583,9 @@
       <c r="JB62" t="n">
         <v>53</v>
       </c>
+      <c r="JC62" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50190,6 +50376,9 @@
       <c r="JB63" t="n">
         <v>33</v>
       </c>
+      <c r="JC63" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50980,6 +51169,9 @@
       <c r="JB64" t="n">
         <v>27</v>
       </c>
+      <c r="JC64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51770,6 +51962,9 @@
       <c r="JB65" t="n">
         <v>24</v>
       </c>
+      <c r="JC65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52560,6 +52755,9 @@
       <c r="JB66" t="n">
         <v>22</v>
       </c>
+      <c r="JC66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53350,6 +53548,9 @@
       <c r="JB67" t="n">
         <v>18</v>
       </c>
+      <c r="JC67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54140,6 +54341,9 @@
       <c r="JB68" t="n">
         <v>9</v>
       </c>
+      <c r="JC68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54930,6 +55134,9 @@
       <c r="JB69" t="n">
         <v>1</v>
       </c>
+      <c r="JC69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55720,6 +55927,9 @@
       <c r="JB70" t="n">
         <v>32</v>
       </c>
+      <c r="JC70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56510,6 +56720,9 @@
       <c r="JB71" t="n">
         <v>68.8</v>
       </c>
+      <c r="JC71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57300,6 +57513,9 @@
       <c r="JB72" t="n">
         <v>18.73</v>
       </c>
+      <c r="JC72" t="n">
+        <v>31.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58090,6 +58306,9 @@
       <c r="JB73" t="n">
         <v>12.88</v>
       </c>
+      <c r="JC73" t="n">
+        <v>14.04</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58880,6 +59099,9 @@
       <c r="JB74" t="n">
         <v>30</v>
       </c>
+      <c r="JC74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59670,6 +59892,9 @@
       <c r="JB75" t="n">
         <v>72</v>
       </c>
+      <c r="JC75" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60460,6 +60685,9 @@
       <c r="JB76" t="n">
         <v>35</v>
       </c>
+      <c r="JC76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61250,6 +61478,9 @@
       <c r="JB77" t="n">
         <v>46</v>
       </c>
+      <c r="JC77" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62040,6 +62271,9 @@
       <c r="JB78" t="n">
         <v>1.44</v>
       </c>
+      <c r="JC78" t="n">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62830,6 +63064,9 @@
       <c r="JB79" t="n">
         <v>2.09</v>
       </c>
+      <c r="JC79" t="n">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63620,6 +63857,9 @@
       <c r="JB80" t="n">
         <v>67.40000000000001</v>
       </c>
+      <c r="JC80" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64410,6 +64650,9 @@
       <c r="JB81" t="n">
         <v>47.8</v>
       </c>
+      <c r="JC81" t="n">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65200,6 +65443,9 @@
       <c r="JB82" t="n">
         <v>188.8</v>
       </c>
+      <c r="JC82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65990,6 +66236,9 @@
       <c r="JB83" t="n">
         <v>86.7</v>
       </c>
+      <c r="JC83" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66780,6 +67029,9 @@
       <c r="JB84" t="n">
         <v>26</v>
       </c>
+      <c r="JC84" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67570,6 +67822,9 @@
       <c r="JB85" t="n">
         <v>92.3</v>
       </c>
+      <c r="JC85" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68360,6 +68615,9 @@
       <c r="JB86" t="n">
         <v>5</v>
       </c>
+      <c r="JC86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69150,6 +69408,9 @@
       <c r="JB87" t="n">
         <v>9</v>
       </c>
+      <c r="JC87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69940,6 +70201,9 @@
       <c r="JB88" t="n">
         <v>5</v>
       </c>
+      <c r="JC88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70730,6 +70994,9 @@
       <c r="JB89" t="n">
         <v>3</v>
       </c>
+      <c r="JC89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71520,6 +71787,9 @@
       <c r="JB90" t="n">
         <v>137</v>
       </c>
+      <c r="JC90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72310,6 +72580,9 @@
       <c r="JB91" t="n">
         <v>269</v>
       </c>
+      <c r="JC91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73100,6 +73373,9 @@
       <c r="JB92" t="n">
         <v>314</v>
       </c>
+      <c r="JC92" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73890,6 +74166,9 @@
       <c r="JB93" t="n">
         <v>76.2</v>
       </c>
+      <c r="JC93" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74680,6 +74959,9 @@
       <c r="JB94" t="n">
         <v>72</v>
       </c>
+      <c r="JC94" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75470,6 +75752,9 @@
       <c r="JB95" t="n">
         <v>9</v>
       </c>
+      <c r="JC95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -76260,6 +76545,9 @@
       <c r="JB96" t="n">
         <v>22</v>
       </c>
+      <c r="JC96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77050,6 +77338,9 @@
       <c r="JB97" t="n">
         <v>30</v>
       </c>
+      <c r="JC97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77840,6 +78131,9 @@
       <c r="JB98" t="n">
         <v>35</v>
       </c>
+      <c r="JC98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78630,6 +78924,9 @@
       <c r="JB99" t="n">
         <v>43</v>
       </c>
+      <c r="JC99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79420,6 +79717,9 @@
       <c r="JB100" t="n">
         <v>12</v>
       </c>
+      <c r="JC100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -80210,6 +80510,9 @@
       <c r="JB101" t="n">
         <v>18</v>
       </c>
+      <c r="JC101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81000,6 +81303,9 @@
       <c r="JB102" t="n">
         <v>81.8</v>
       </c>
+      <c r="JC102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JF102"/>
+  <dimension ref="A1:JH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,6 +1222,12 @@
       <c r="JF1" t="n">
         <v>10612</v>
       </c>
+      <c r="JG1" t="n">
+        <v>10617</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>10628</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2024,6 +2030,12 @@
       <c r="JF2" t="n">
         <v>2022</v>
       </c>
+      <c r="JG2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2826,6 +2838,12 @@
       <c r="JF3" t="n">
         <v>8</v>
       </c>
+      <c r="JG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3628,6 +3646,12 @@
       <c r="JF4" t="n">
         <v>1</v>
       </c>
+      <c r="JG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4430,6 +4454,12 @@
       <c r="JF5" t="n">
         <v>0</v>
       </c>
+      <c r="JG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5232,6 +5262,12 @@
       <c r="JF6" t="n">
         <v>81</v>
       </c>
+      <c r="JG6" t="n">
+        <v>94</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6034,6 +6070,12 @@
       <c r="JF7" t="n">
         <v>108</v>
       </c>
+      <c r="JG7" t="n">
+        <v>117</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6836,6 +6878,12 @@
       <c r="JF8" t="n">
         <v>-27</v>
       </c>
+      <c r="JG8" t="n">
+        <v>-23</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7638,6 +7686,12 @@
       <c r="JF9" t="n">
         <v>0</v>
       </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8440,6 +8494,12 @@
       <c r="JF10" t="n">
         <v>5</v>
       </c>
+      <c r="JG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9242,6 +9302,12 @@
       <c r="JF11" t="n">
         <v>200</v>
       </c>
+      <c r="JG11" t="n">
+        <v>203</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10044,6 +10110,12 @@
       <c r="JF12" t="n">
         <v>153</v>
       </c>
+      <c r="JG12" t="n">
+        <v>134</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10846,6 +10918,12 @@
       <c r="JF13" t="n">
         <v>353</v>
       </c>
+      <c r="JG13" t="n">
+        <v>337</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11648,6 +11726,12 @@
       <c r="JF14" t="n">
         <v>1.31</v>
       </c>
+      <c r="JG14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12450,6 +12534,12 @@
       <c r="JF15" t="n">
         <v>103</v>
       </c>
+      <c r="JG15" t="n">
+        <v>82</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13252,6 +13342,12 @@
       <c r="JF16" t="n">
         <v>45</v>
       </c>
+      <c r="JG16" t="n">
+        <v>54</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14054,6 +14150,12 @@
       <c r="JF17" t="n">
         <v>23</v>
       </c>
+      <c r="JG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14856,6 +14958,12 @@
       <c r="JF18" t="n">
         <v>19</v>
       </c>
+      <c r="JG18" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15658,6 +15766,12 @@
       <c r="JF19" t="n">
         <v>17</v>
       </c>
+      <c r="JG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16460,6 +16574,12 @@
       <c r="JF20" t="n">
         <v>11</v>
       </c>
+      <c r="JG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17262,6 +17382,12 @@
       <c r="JF21" t="n">
         <v>9</v>
       </c>
+      <c r="JG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18064,6 +18190,12 @@
       <c r="JF22" t="n">
         <v>14</v>
       </c>
+      <c r="JG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18866,6 +18998,12 @@
       <c r="JF23" t="n">
         <v>1</v>
       </c>
+      <c r="JG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19668,6 +19806,12 @@
       <c r="JF24" t="n">
         <v>26</v>
       </c>
+      <c r="JG24" t="n">
+        <v>24</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20470,6 +20614,12 @@
       <c r="JF25" t="n">
         <v>42.3</v>
       </c>
+      <c r="JG25" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21272,6 +21422,12 @@
       <c r="JF26" t="n">
         <v>32.09</v>
       </c>
+      <c r="JG26" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>17.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22074,6 +22230,12 @@
       <c r="JF27" t="n">
         <v>13.58</v>
       </c>
+      <c r="JG27" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>11.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22876,6 +23038,12 @@
       <c r="JF28" t="n">
         <v>29</v>
       </c>
+      <c r="JG28" t="n">
+        <v>36</v>
+      </c>
+      <c r="JH28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23678,6 +23846,12 @@
       <c r="JF29" t="n">
         <v>45</v>
       </c>
+      <c r="JG29" t="n">
+        <v>54</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24480,6 +24654,12 @@
       <c r="JF30" t="n">
         <v>40</v>
       </c>
+      <c r="JG30" t="n">
+        <v>49</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25282,6 +25462,12 @@
       <c r="JF31" t="n">
         <v>47</v>
       </c>
+      <c r="JG31" t="n">
+        <v>45</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26084,6 +26270,12 @@
       <c r="JF32" t="n">
         <v>1.81</v>
       </c>
+      <c r="JG32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26886,6 +27078,12 @@
       <c r="JF33" t="n">
         <v>4.27</v>
       </c>
+      <c r="JG33" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>2.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27688,6 +27886,12 @@
       <c r="JF34" t="n">
         <v>53.2</v>
       </c>
+      <c r="JG34" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28490,6 +28694,12 @@
       <c r="JF35" t="n">
         <v>23.4</v>
       </c>
+      <c r="JG35" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JH35" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29292,6 +29502,12 @@
       <c r="JF36" t="n">
         <v>186.8</v>
       </c>
+      <c r="JG36" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JH36" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30094,6 +30310,12 @@
       <c r="JF37" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="JG37" t="n">
+        <v>85</v>
+      </c>
+      <c r="JH37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30896,6 +31118,12 @@
       <c r="JF38" t="n">
         <v>24.16</v>
       </c>
+      <c r="JG38" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="JH38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31698,6 +31926,12 @@
       <c r="JF39" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="JG39" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="JH39" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32500,6 +32734,12 @@
       <c r="JF40" t="n">
         <v>11</v>
       </c>
+      <c r="JG40" t="n">
+        <v>12</v>
+      </c>
+      <c r="JH40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33302,6 +33542,12 @@
       <c r="JF41" t="n">
         <v>3</v>
       </c>
+      <c r="JG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34104,6 +34350,12 @@
       <c r="JF42" t="n">
         <v>5</v>
       </c>
+      <c r="JG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34906,6 +35158,12 @@
       <c r="JF43" t="n">
         <v>3</v>
       </c>
+      <c r="JG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35708,6 +35966,12 @@
       <c r="JF44" t="n">
         <v>119</v>
       </c>
+      <c r="JG44" t="n">
+        <v>137</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36510,6 +36774,12 @@
       <c r="JF45" t="n">
         <v>232</v>
       </c>
+      <c r="JG45" t="n">
+        <v>184</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37312,6 +37582,12 @@
       <c r="JF46" t="n">
         <v>271</v>
       </c>
+      <c r="JG46" t="n">
+        <v>235</v>
+      </c>
+      <c r="JH46" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38114,6 +38390,12 @@
       <c r="JF47" t="n">
         <v>76.8</v>
       </c>
+      <c r="JG47" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="JH47" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38916,6 +39198,12 @@
       <c r="JF48" t="n">
         <v>45</v>
       </c>
+      <c r="JG48" t="n">
+        <v>54</v>
+      </c>
+      <c r="JH48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39718,6 +40006,12 @@
       <c r="JF49" t="n">
         <v>12</v>
       </c>
+      <c r="JG49" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40520,6 +40814,12 @@
       <c r="JF50" t="n">
         <v>15</v>
       </c>
+      <c r="JG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41322,6 +41622,12 @@
       <c r="JF51" t="n">
         <v>29</v>
       </c>
+      <c r="JG51" t="n">
+        <v>36</v>
+      </c>
+      <c r="JH51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42124,6 +42430,12 @@
       <c r="JF52" t="n">
         <v>40</v>
       </c>
+      <c r="JG52" t="n">
+        <v>49</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42926,6 +43238,12 @@
       <c r="JF53" t="n">
         <v>35</v>
       </c>
+      <c r="JG53" t="n">
+        <v>41</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43728,6 +44046,12 @@
       <c r="JF54" t="n">
         <v>9</v>
       </c>
+      <c r="JG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44530,6 +44854,12 @@
       <c r="JF55" t="n">
         <v>9</v>
       </c>
+      <c r="JG55" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45332,6 +45662,12 @@
       <c r="JF56" t="n">
         <v>81.8</v>
       </c>
+      <c r="JG56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JH56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46134,6 +46470,12 @@
       <c r="JF57" t="n">
         <v>223</v>
       </c>
+      <c r="JG57" t="n">
+        <v>218</v>
+      </c>
+      <c r="JH57" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46936,6 +47278,12 @@
       <c r="JF58" t="n">
         <v>129</v>
       </c>
+      <c r="JG58" t="n">
+        <v>160</v>
+      </c>
+      <c r="JH58" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47738,6 +48086,12 @@
       <c r="JF59" t="n">
         <v>352</v>
       </c>
+      <c r="JG59" t="n">
+        <v>378</v>
+      </c>
+      <c r="JH59" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48540,6 +48894,12 @@
       <c r="JF60" t="n">
         <v>1.73</v>
       </c>
+      <c r="JG60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JH60" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49342,6 +49702,12 @@
       <c r="JF61" t="n">
         <v>105</v>
       </c>
+      <c r="JG61" t="n">
+        <v>76</v>
+      </c>
+      <c r="JH61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50144,6 +50510,12 @@
       <c r="JF62" t="n">
         <v>59</v>
       </c>
+      <c r="JG62" t="n">
+        <v>75</v>
+      </c>
+      <c r="JH62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50946,6 +51318,12 @@
       <c r="JF63" t="n">
         <v>41</v>
       </c>
+      <c r="JG63" t="n">
+        <v>60</v>
+      </c>
+      <c r="JH63" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51748,6 +52126,12 @@
       <c r="JF64" t="n">
         <v>17</v>
       </c>
+      <c r="JG64" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH64" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52550,6 +52934,12 @@
       <c r="JF65" t="n">
         <v>19</v>
       </c>
+      <c r="JG65" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH65" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53352,6 +53742,12 @@
       <c r="JF66" t="n">
         <v>16</v>
       </c>
+      <c r="JG66" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54154,6 +54550,12 @@
       <c r="JF67" t="n">
         <v>10</v>
       </c>
+      <c r="JG67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54956,6 +55358,12 @@
       <c r="JF68" t="n">
         <v>11</v>
       </c>
+      <c r="JG68" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55758,6 +56166,12 @@
       <c r="JF69" t="n">
         <v>1</v>
       </c>
+      <c r="JG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56560,6 +56974,12 @@
       <c r="JF70" t="n">
         <v>28</v>
       </c>
+      <c r="JG70" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57362,6 +57782,12 @@
       <c r="JF71" t="n">
         <v>57.1</v>
       </c>
+      <c r="JG71" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="JH71" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58164,6 +58590,12 @@
       <c r="JF72" t="n">
         <v>22</v>
       </c>
+      <c r="JG72" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="JH72" t="n">
+        <v>20.53</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58966,6 +59398,12 @@
       <c r="JF73" t="n">
         <v>12.57</v>
       </c>
+      <c r="JG73" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="JH73" t="n">
+        <v>12.93</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59768,6 +60206,12 @@
       <c r="JF74" t="n">
         <v>33</v>
       </c>
+      <c r="JG74" t="n">
+        <v>42</v>
+      </c>
+      <c r="JH74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60570,6 +61014,12 @@
       <c r="JF75" t="n">
         <v>51</v>
       </c>
+      <c r="JG75" t="n">
+        <v>67</v>
+      </c>
+      <c r="JH75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61372,6 +61822,12 @@
       <c r="JF76" t="n">
         <v>36</v>
       </c>
+      <c r="JG76" t="n">
+        <v>29</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62174,6 +62630,12 @@
       <c r="JF77" t="n">
         <v>57</v>
       </c>
+      <c r="JG77" t="n">
+        <v>66</v>
+      </c>
+      <c r="JH77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62976,6 +63438,12 @@
       <c r="JF78" t="n">
         <v>2.04</v>
       </c>
+      <c r="JG78" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JH78" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63778,6 +64246,12 @@
       <c r="JF79" t="n">
         <v>3.56</v>
       </c>
+      <c r="JG79" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="JH79" t="n">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64580,6 +65054,12 @@
       <c r="JF80" t="n">
         <v>47.4</v>
       </c>
+      <c r="JG80" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JH80" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65382,6 +65862,12 @@
       <c r="JF81" t="n">
         <v>28.1</v>
       </c>
+      <c r="JG81" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JH81" t="n">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66184,6 +66670,12 @@
       <c r="JF82" t="n">
         <v>189</v>
       </c>
+      <c r="JG82" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="JH82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66986,6 +67478,12 @@
       <c r="JF83" t="n">
         <v>86.2</v>
       </c>
+      <c r="JG83" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JH83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67788,6 +68286,12 @@
       <c r="JF84" t="n">
         <v>24.16</v>
       </c>
+      <c r="JG84" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="JH84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68590,6 +69094,12 @@
       <c r="JF85" t="n">
         <v>70.5</v>
       </c>
+      <c r="JG85" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="JH85" t="n">
+        <v>108.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69392,6 +69902,12 @@
       <c r="JF86" t="n">
         <v>10</v>
       </c>
+      <c r="JG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70194,6 +70710,12 @@
       <c r="JF87" t="n">
         <v>6</v>
       </c>
+      <c r="JG87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70996,6 +71518,12 @@
       <c r="JF88" t="n">
         <v>2</v>
       </c>
+      <c r="JG88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71798,6 +72326,12 @@
       <c r="JF89" t="n">
         <v>4</v>
       </c>
+      <c r="JG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72600,6 +73134,12 @@
       <c r="JF90" t="n">
         <v>124</v>
       </c>
+      <c r="JG90" t="n">
+        <v>141</v>
+      </c>
+      <c r="JH90" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73402,6 +73942,12 @@
       <c r="JF91" t="n">
         <v>218</v>
       </c>
+      <c r="JG91" t="n">
+        <v>220</v>
+      </c>
+      <c r="JH91" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74204,6 +74750,12 @@
       <c r="JF92" t="n">
         <v>272</v>
       </c>
+      <c r="JG92" t="n">
+        <v>270</v>
+      </c>
+      <c r="JH92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75006,6 +75558,12 @@
       <c r="JF93" t="n">
         <v>77.3</v>
       </c>
+      <c r="JG93" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JH93" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75808,6 +76366,12 @@
       <c r="JF94" t="n">
         <v>51</v>
       </c>
+      <c r="JG94" t="n">
+        <v>67</v>
+      </c>
+      <c r="JH94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76610,6 +77174,12 @@
       <c r="JF95" t="n">
         <v>9</v>
       </c>
+      <c r="JG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77412,6 +77982,12 @@
       <c r="JF96" t="n">
         <v>20</v>
       </c>
+      <c r="JG96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78214,6 +78790,12 @@
       <c r="JF97" t="n">
         <v>33</v>
       </c>
+      <c r="JG97" t="n">
+        <v>42</v>
+      </c>
+      <c r="JH97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79016,6 +79598,12 @@
       <c r="JF98" t="n">
         <v>36</v>
       </c>
+      <c r="JG98" t="n">
+        <v>29</v>
+      </c>
+      <c r="JH98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79818,6 +80406,12 @@
       <c r="JF99" t="n">
         <v>39</v>
       </c>
+      <c r="JG99" t="n">
+        <v>48</v>
+      </c>
+      <c r="JH99" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80620,6 +81214,12 @@
       <c r="JF100" t="n">
         <v>14</v>
       </c>
+      <c r="JG100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81422,6 +82022,12 @@
       <c r="JF101" t="n">
         <v>10</v>
       </c>
+      <c r="JG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -82224,6 +82830,12 @@
       <c r="JF102" t="n">
         <v>62.5</v>
       </c>
+      <c r="JG102" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JH102" t="n">
+        <v>64.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JH102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,6 +1228,24 @@
       <c r="JH1" t="n">
         <v>10628</v>
       </c>
+      <c r="JI1" t="n">
+        <v>10640</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>10643</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>10654</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>10667</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>10675</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10683</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2036,6 +2054,24 @@
       <c r="JH2" t="n">
         <v>2022</v>
       </c>
+      <c r="JI2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2844,6 +2880,24 @@
       <c r="JH3" t="n">
         <v>10</v>
       </c>
+      <c r="JI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3652,6 +3706,24 @@
       <c r="JH4" t="n">
         <v>0</v>
       </c>
+      <c r="JI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4460,6 +4532,24 @@
       <c r="JH5" t="n">
         <v>0</v>
       </c>
+      <c r="JI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5268,6 +5358,24 @@
       <c r="JH6" t="n">
         <v>117</v>
       </c>
+      <c r="JI6" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>68</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>83</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6076,6 +6184,24 @@
       <c r="JH7" t="n">
         <v>112</v>
       </c>
+      <c r="JI7" t="n">
+        <v>121</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>72</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>95</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>125</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>72</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6884,6 +7010,24 @@
       <c r="JH8" t="n">
         <v>5</v>
       </c>
+      <c r="JI8" t="n">
+        <v>-67</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>-42</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>-22</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7692,6 +7836,24 @@
       <c r="JH9" t="n">
         <v>1</v>
       </c>
+      <c r="JI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8500,6 +8662,24 @@
       <c r="JH10" t="n">
         <v>2</v>
       </c>
+      <c r="JI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9308,6 +9488,24 @@
       <c r="JH11" t="n">
         <v>186</v>
       </c>
+      <c r="JI11" t="n">
+        <v>194</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>212</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>191</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>204</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>248</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10116,6 +10314,24 @@
       <c r="JH12" t="n">
         <v>126</v>
       </c>
+      <c r="JI12" t="n">
+        <v>123</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>150</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>133</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>151</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>105</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10924,6 +11140,24 @@
       <c r="JH13" t="n">
         <v>312</v>
       </c>
+      <c r="JI13" t="n">
+        <v>317</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>362</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>324</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>355</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>353</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11732,6 +11966,24 @@
       <c r="JH14" t="n">
         <v>1.48</v>
       </c>
+      <c r="JI14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12540,6 +12792,24 @@
       <c r="JH15" t="n">
         <v>61</v>
       </c>
+      <c r="JI15" t="n">
+        <v>68</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>73</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>100</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13348,6 +13618,24 @@
       <c r="JH16" t="n">
         <v>62</v>
       </c>
+      <c r="JI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>63</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>53</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>93</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14156,6 +14444,24 @@
       <c r="JH17" t="n">
         <v>27</v>
       </c>
+      <c r="JI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>35</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>27</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14964,6 +15270,24 @@
       <c r="JH18" t="n">
         <v>36</v>
       </c>
+      <c r="JI18" t="n">
+        <v>22</v>
+      </c>
+      <c r="JJ18" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM18" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15772,6 +16096,24 @@
       <c r="JH19" t="n">
         <v>27</v>
       </c>
+      <c r="JI19" t="n">
+        <v>32</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM19" t="n">
+        <v>24</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16580,6 +16922,24 @@
       <c r="JH20" t="n">
         <v>18</v>
       </c>
+      <c r="JI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM20" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17388,6 +17748,24 @@
       <c r="JH21" t="n">
         <v>9</v>
       </c>
+      <c r="JI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18196,6 +18574,24 @@
       <c r="JH22" t="n">
         <v>4</v>
       </c>
+      <c r="JI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM22" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19004,6 +19400,24 @@
       <c r="JH23" t="n">
         <v>5</v>
       </c>
+      <c r="JI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19812,6 +20226,24 @@
       <c r="JH24" t="n">
         <v>27</v>
       </c>
+      <c r="JI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20620,6 +21052,24 @@
       <c r="JH25" t="n">
         <v>66.7</v>
       </c>
+      <c r="JI25" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21428,6 +21878,24 @@
       <c r="JH26" t="n">
         <v>17.33</v>
       </c>
+      <c r="JI26" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>29.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22236,6 +22704,24 @@
       <c r="JH27" t="n">
         <v>11.56</v>
       </c>
+      <c r="JI27" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="JJ27" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>18.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23044,6 +23530,24 @@
       <c r="JH28" t="n">
         <v>43</v>
       </c>
+      <c r="JI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ28" t="n">
+        <v>38</v>
+      </c>
+      <c r="JK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL28" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM28" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23852,6 +24356,24 @@
       <c r="JH29" t="n">
         <v>63</v>
       </c>
+      <c r="JI29" t="n">
+        <v>76</v>
+      </c>
+      <c r="JJ29" t="n">
+        <v>93</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM29" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24660,6 +25182,24 @@
       <c r="JH30" t="n">
         <v>43</v>
       </c>
+      <c r="JI30" t="n">
+        <v>44</v>
+      </c>
+      <c r="JJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK30" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25468,6 +26008,24 @@
       <c r="JH31" t="n">
         <v>50</v>
       </c>
+      <c r="JI31" t="n">
+        <v>44</v>
+      </c>
+      <c r="JJ31" t="n">
+        <v>40</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>61</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>48</v>
+      </c>
+      <c r="JM31" t="n">
+        <v>59</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26276,6 +26834,24 @@
       <c r="JH32" t="n">
         <v>1.85</v>
       </c>
+      <c r="JI32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JJ32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JM32" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27084,6 +27660,24 @@
       <c r="JH33" t="n">
         <v>2.78</v>
       </c>
+      <c r="JI33" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="JJ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM33" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27892,6 +28486,24 @@
       <c r="JH34" t="n">
         <v>44</v>
       </c>
+      <c r="JI34" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="JJ34" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JM34" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28700,6 +29312,24 @@
       <c r="JH35" t="n">
         <v>36</v>
       </c>
+      <c r="JI35" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="JJ35" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK35" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="JL35" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29508,6 +30138,24 @@
       <c r="JH36" t="n">
         <v>187.2</v>
       </c>
+      <c r="JI36" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="JJ36" t="n">
+        <v>187</v>
+      </c>
+      <c r="JK36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JL36" t="n">
+        <v>187</v>
+      </c>
+      <c r="JM36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30316,6 +30964,24 @@
       <c r="JH37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="JI37" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="JJ37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JK37" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JL37" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="JM37" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31124,6 +31790,24 @@
       <c r="JH38" t="n">
         <v>25.24</v>
       </c>
+      <c r="JI38" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JJ38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JK38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JL38" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JM38" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31932,6 +32616,24 @@
       <c r="JH39" t="n">
         <v>88</v>
       </c>
+      <c r="JI39" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JJ39" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="JK39" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="JL39" t="n">
+        <v>76</v>
+      </c>
+      <c r="JM39" t="n">
+        <v>83</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>81.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32740,6 +33442,24 @@
       <c r="JH40" t="n">
         <v>11</v>
       </c>
+      <c r="JI40" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK40" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL40" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM40" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN40" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33548,6 +34268,24 @@
       <c r="JH41" t="n">
         <v>2</v>
       </c>
+      <c r="JI41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL41" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34356,6 +35094,24 @@
       <c r="JH42" t="n">
         <v>6</v>
       </c>
+      <c r="JI42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK42" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35164,6 +35920,24 @@
       <c r="JH43" t="n">
         <v>4</v>
       </c>
+      <c r="JI43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ43" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35972,6 +36746,24 @@
       <c r="JH44" t="n">
         <v>142</v>
       </c>
+      <c r="JI44" t="n">
+        <v>115</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>140</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>132</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>133</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>171</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36780,6 +37572,24 @@
       <c r="JH45" t="n">
         <v>169</v>
       </c>
+      <c r="JI45" t="n">
+        <v>182</v>
+      </c>
+      <c r="JJ45" t="n">
+        <v>205</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>182</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>223</v>
+      </c>
+      <c r="JM45" t="n">
+        <v>142</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37588,6 +38398,24 @@
       <c r="JH46" t="n">
         <v>229</v>
       </c>
+      <c r="JI46" t="n">
+        <v>225</v>
+      </c>
+      <c r="JJ46" t="n">
+        <v>247</v>
+      </c>
+      <c r="JK46" t="n">
+        <v>226</v>
+      </c>
+      <c r="JL46" t="n">
+        <v>258</v>
+      </c>
+      <c r="JM46" t="n">
+        <v>188</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38396,6 +39224,24 @@
       <c r="JH47" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="JI47" t="n">
+        <v>71</v>
+      </c>
+      <c r="JJ47" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JK47" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JL47" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JM47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39204,6 +40050,24 @@
       <c r="JH48" t="n">
         <v>63</v>
       </c>
+      <c r="JI48" t="n">
+        <v>76</v>
+      </c>
+      <c r="JJ48" t="n">
+        <v>93</v>
+      </c>
+      <c r="JK48" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL48" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM48" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40012,6 +40876,24 @@
       <c r="JH49" t="n">
         <v>11</v>
       </c>
+      <c r="JI49" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK49" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL49" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM49" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40820,6 +41702,24 @@
       <c r="JH50" t="n">
         <v>10</v>
       </c>
+      <c r="JI50" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK50" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL50" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM50" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41628,6 +42528,24 @@
       <c r="JH51" t="n">
         <v>43</v>
       </c>
+      <c r="JI51" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ51" t="n">
+        <v>38</v>
+      </c>
+      <c r="JK51" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL51" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM51" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42436,6 +43354,24 @@
       <c r="JH52" t="n">
         <v>43</v>
       </c>
+      <c r="JI52" t="n">
+        <v>44</v>
+      </c>
+      <c r="JJ52" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK52" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>37</v>
+      </c>
+      <c r="JM52" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43244,6 +44180,24 @@
       <c r="JH53" t="n">
         <v>56</v>
       </c>
+      <c r="JI53" t="n">
+        <v>56</v>
+      </c>
+      <c r="JJ53" t="n">
+        <v>76</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM53" t="n">
+        <v>83</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44052,6 +45006,24 @@
       <c r="JH54" t="n">
         <v>10</v>
       </c>
+      <c r="JI54" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ54" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44860,6 +45832,24 @@
       <c r="JH55" t="n">
         <v>9</v>
       </c>
+      <c r="JI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45668,6 +46658,24 @@
       <c r="JH56" t="n">
         <v>50</v>
       </c>
+      <c r="JI56" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JJ56" t="n">
+        <v>70</v>
+      </c>
+      <c r="JK56" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="JL56" t="n">
+        <v>75</v>
+      </c>
+      <c r="JM56" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46476,6 +47484,24 @@
       <c r="JH57" t="n">
         <v>225</v>
       </c>
+      <c r="JI57" t="n">
+        <v>226</v>
+      </c>
+      <c r="JJ57" t="n">
+        <v>235</v>
+      </c>
+      <c r="JK57" t="n">
+        <v>237</v>
+      </c>
+      <c r="JL57" t="n">
+        <v>228</v>
+      </c>
+      <c r="JM57" t="n">
+        <v>263</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47284,6 +48310,24 @@
       <c r="JH58" t="n">
         <v>124</v>
       </c>
+      <c r="JI58" t="n">
+        <v>95</v>
+      </c>
+      <c r="JJ58" t="n">
+        <v>168</v>
+      </c>
+      <c r="JK58" t="n">
+        <v>221</v>
+      </c>
+      <c r="JL58" t="n">
+        <v>168</v>
+      </c>
+      <c r="JM58" t="n">
+        <v>142</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48092,6 +49136,24 @@
       <c r="JH59" t="n">
         <v>349</v>
       </c>
+      <c r="JI59" t="n">
+        <v>321</v>
+      </c>
+      <c r="JJ59" t="n">
+        <v>403</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>458</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>396</v>
+      </c>
+      <c r="JM59" t="n">
+        <v>405</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48900,6 +49962,24 @@
       <c r="JH60" t="n">
         <v>1.81</v>
       </c>
+      <c r="JI60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="JJ60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JK60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JM60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49708,6 +50788,24 @@
       <c r="JH61" t="n">
         <v>84</v>
       </c>
+      <c r="JI61" t="n">
+        <v>78</v>
+      </c>
+      <c r="JJ61" t="n">
+        <v>75</v>
+      </c>
+      <c r="JK61" t="n">
+        <v>101</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>98</v>
+      </c>
+      <c r="JM61" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50516,6 +51614,24 @@
       <c r="JH62" t="n">
         <v>63</v>
       </c>
+      <c r="JI62" t="n">
+        <v>75</v>
+      </c>
+      <c r="JJ62" t="n">
+        <v>64</v>
+      </c>
+      <c r="JK62" t="n">
+        <v>73</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>58</v>
+      </c>
+      <c r="JM62" t="n">
+        <v>93</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51324,6 +52440,24 @@
       <c r="JH63" t="n">
         <v>71</v>
       </c>
+      <c r="JI63" t="n">
+        <v>40</v>
+      </c>
+      <c r="JJ63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JK63" t="n">
+        <v>46</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>35</v>
+      </c>
+      <c r="JM63" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52132,6 +53266,24 @@
       <c r="JH64" t="n">
         <v>27</v>
       </c>
+      <c r="JI64" t="n">
+        <v>32</v>
+      </c>
+      <c r="JJ64" t="n">
+        <v>26</v>
+      </c>
+      <c r="JK64" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM64" t="n">
+        <v>24</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52940,6 +54092,24 @@
       <c r="JH65" t="n">
         <v>36</v>
       </c>
+      <c r="JI65" t="n">
+        <v>22</v>
+      </c>
+      <c r="JJ65" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK65" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL65" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM65" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53748,6 +54918,24 @@
       <c r="JH66" t="n">
         <v>17</v>
       </c>
+      <c r="JI66" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ66" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK66" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL66" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM66" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54556,6 +55744,24 @@
       <c r="JH67" t="n">
         <v>11</v>
       </c>
+      <c r="JI67" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL67" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM67" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55364,6 +56570,24 @@
       <c r="JH68" t="n">
         <v>9</v>
       </c>
+      <c r="JI68" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK68" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL68" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM68" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56172,6 +57396,24 @@
       <c r="JH69" t="n">
         <v>1</v>
       </c>
+      <c r="JI69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56980,6 +58222,24 @@
       <c r="JH70" t="n">
         <v>27</v>
       </c>
+      <c r="JI70" t="n">
+        <v>31</v>
+      </c>
+      <c r="JJ70" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK70" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL70" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM70" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57788,6 +59048,24 @@
       <c r="JH71" t="n">
         <v>63</v>
       </c>
+      <c r="JI71" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="JJ71" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JK71" t="n">
+        <v>56</v>
+      </c>
+      <c r="JL71" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="JM71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58596,6 +59874,24 @@
       <c r="JH72" t="n">
         <v>20.53</v>
       </c>
+      <c r="JI72" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="JJ72" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="JK72" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="JL72" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="JM72" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>46.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -59404,6 +60700,24 @@
       <c r="JH73" t="n">
         <v>12.93</v>
       </c>
+      <c r="JI73" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="JJ73" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="JK73" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="JL73" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="JM73" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>26.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60212,6 +61526,24 @@
       <c r="JH74" t="n">
         <v>42</v>
       </c>
+      <c r="JI74" t="n">
+        <v>35</v>
+      </c>
+      <c r="JJ74" t="n">
+        <v>35</v>
+      </c>
+      <c r="JK74" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL74" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM74" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61020,6 +62352,24 @@
       <c r="JH75" t="n">
         <v>67</v>
       </c>
+      <c r="JI75" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ75" t="n">
+        <v>67</v>
+      </c>
+      <c r="JK75" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL75" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM75" t="n">
+        <v>78</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61828,6 +63178,24 @@
       <c r="JH76" t="n">
         <v>32</v>
       </c>
+      <c r="JI76" t="n">
+        <v>35</v>
+      </c>
+      <c r="JJ76" t="n">
+        <v>29</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM76" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62636,6 +64004,24 @@
       <c r="JH77" t="n">
         <v>61</v>
       </c>
+      <c r="JI77" t="n">
+        <v>62</v>
+      </c>
+      <c r="JJ77" t="n">
+        <v>65</v>
+      </c>
+      <c r="JK77" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL77" t="n">
+        <v>57</v>
+      </c>
+      <c r="JM77" t="n">
+        <v>63</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -63444,6 +64830,24 @@
       <c r="JH78" t="n">
         <v>2.26</v>
       </c>
+      <c r="JI78" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="JK78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="JL78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="JM78" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64252,6 +65656,24 @@
       <c r="JH79" t="n">
         <v>3.59</v>
       </c>
+      <c r="JI79" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="JJ79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JK79" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="JL79" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM79" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65060,6 +66482,24 @@
       <c r="JH80" t="n">
         <v>42.6</v>
       </c>
+      <c r="JI80" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="JJ80" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="JK80" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="JL80" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="JM80" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65868,6 +67308,24 @@
       <c r="JH81" t="n">
         <v>27.9</v>
       </c>
+      <c r="JI81" t="n">
+        <v>29</v>
+      </c>
+      <c r="JJ81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JK81" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="JL81" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JM81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66676,6 +68134,24 @@
       <c r="JH82" t="n">
         <v>188.4</v>
       </c>
+      <c r="JI82" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JJ82" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="JK82" t="n">
+        <v>188</v>
+      </c>
+      <c r="JL82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JM82" t="n">
+        <v>189</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -67484,6 +68960,24 @@
       <c r="JH83" t="n">
         <v>88.3</v>
       </c>
+      <c r="JI83" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JJ83" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JK83" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="JL83" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="JM83" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -68292,6 +69786,24 @@
       <c r="JH84" t="n">
         <v>26.8</v>
       </c>
+      <c r="JI84" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="JJ84" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JK84" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JL84" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JM84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>23.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69100,6 +70612,24 @@
       <c r="JH85" t="n">
         <v>108.3</v>
       </c>
+      <c r="JI85" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="JJ85" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="JK85" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="JL85" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="JM85" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69908,6 +71438,24 @@
       <c r="JH86" t="n">
         <v>6</v>
       </c>
+      <c r="JI86" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK86" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM86" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70716,6 +72264,24 @@
       <c r="JH87" t="n">
         <v>6</v>
       </c>
+      <c r="JI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK87" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL87" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -71524,6 +73090,24 @@
       <c r="JH88" t="n">
         <v>5</v>
       </c>
+      <c r="JI88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK88" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -72332,6 +73916,24 @@
       <c r="JH89" t="n">
         <v>6</v>
       </c>
+      <c r="JI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ89" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK89" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL89" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73140,6 +74742,24 @@
       <c r="JH90" t="n">
         <v>152</v>
       </c>
+      <c r="JI90" t="n">
+        <v>149</v>
+      </c>
+      <c r="JJ90" t="n">
+        <v>169</v>
+      </c>
+      <c r="JK90" t="n">
+        <v>154</v>
+      </c>
+      <c r="JL90" t="n">
+        <v>150</v>
+      </c>
+      <c r="JM90" t="n">
+        <v>191</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73948,6 +75568,24 @@
       <c r="JH91" t="n">
         <v>198</v>
       </c>
+      <c r="JI91" t="n">
+        <v>157</v>
+      </c>
+      <c r="JJ91" t="n">
+        <v>235</v>
+      </c>
+      <c r="JK91" t="n">
+        <v>299</v>
+      </c>
+      <c r="JL91" t="n">
+        <v>248</v>
+      </c>
+      <c r="JM91" t="n">
+        <v>185</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74756,6 +76394,24 @@
       <c r="JH92" t="n">
         <v>257</v>
       </c>
+      <c r="JI92" t="n">
+        <v>217</v>
+      </c>
+      <c r="JJ92" t="n">
+        <v>268</v>
+      </c>
+      <c r="JK92" t="n">
+        <v>362</v>
+      </c>
+      <c r="JL92" t="n">
+        <v>303</v>
+      </c>
+      <c r="JM92" t="n">
+        <v>253</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75564,6 +77220,24 @@
       <c r="JH93" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="JI93" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JJ93" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="JK93" t="n">
+        <v>79</v>
+      </c>
+      <c r="JL93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JM93" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -76372,6 +78046,24 @@
       <c r="JH94" t="n">
         <v>67</v>
       </c>
+      <c r="JI94" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ94" t="n">
+        <v>67</v>
+      </c>
+      <c r="JK94" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL94" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM94" t="n">
+        <v>78</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -77180,6 +78872,24 @@
       <c r="JH95" t="n">
         <v>13</v>
       </c>
+      <c r="JI95" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL95" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77988,6 +79698,24 @@
       <c r="JH96" t="n">
         <v>13</v>
       </c>
+      <c r="JI96" t="n">
+        <v>17</v>
+      </c>
+      <c r="JJ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK96" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM96" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78796,6 +80524,24 @@
       <c r="JH97" t="n">
         <v>42</v>
       </c>
+      <c r="JI97" t="n">
+        <v>35</v>
+      </c>
+      <c r="JJ97" t="n">
+        <v>35</v>
+      </c>
+      <c r="JK97" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL97" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM97" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79604,6 +81350,24 @@
       <c r="JH98" t="n">
         <v>32</v>
       </c>
+      <c r="JI98" t="n">
+        <v>35</v>
+      </c>
+      <c r="JJ98" t="n">
+        <v>29</v>
+      </c>
+      <c r="JK98" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL98" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM98" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -80412,6 +82176,24 @@
       <c r="JH99" t="n">
         <v>67</v>
       </c>
+      <c r="JI99" t="n">
+        <v>59</v>
+      </c>
+      <c r="JJ99" t="n">
+        <v>75</v>
+      </c>
+      <c r="JK99" t="n">
+        <v>53</v>
+      </c>
+      <c r="JL99" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM99" t="n">
+        <v>68</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -81220,6 +83002,24 @@
       <c r="JH100" t="n">
         <v>0</v>
       </c>
+      <c r="JI100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM100" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82028,6 +83828,24 @@
       <c r="JH101" t="n">
         <v>11</v>
       </c>
+      <c r="JI101" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL101" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM101" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -82836,6 +84654,24 @@
       <c r="JH102" t="n">
         <v>64.7</v>
       </c>
+      <c r="JI102" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="JJ102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JK102" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JL102" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="JM102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/django_AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1246,30 @@
       <c r="JN1" t="n">
         <v>10683</v>
       </c>
+      <c r="JO1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10691</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10700</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10711</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>10718</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>10727</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10738</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2072,6 +2096,30 @@
       <c r="JN2" t="n">
         <v>2022</v>
       </c>
+      <c r="JO2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2898,6 +2946,30 @@
       <c r="JN3" t="n">
         <v>17</v>
       </c>
+      <c r="JO3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>18</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>20</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>21</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3724,6 +3796,30 @@
       <c r="JN4" t="n">
         <v>0</v>
       </c>
+      <c r="JO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4550,6 +4646,30 @@
       <c r="JN5" t="n">
         <v>0</v>
       </c>
+      <c r="JO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5376,6 +5496,30 @@
       <c r="JN6" t="n">
         <v>86</v>
       </c>
+      <c r="JO6" t="n">
+        <v>102</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>102</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>102</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>121</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>63</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>70</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>67</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6202,6 +6346,30 @@
       <c r="JN7" t="n">
         <v>54</v>
       </c>
+      <c r="JO7" t="n">
+        <v>77</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>77</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>77</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>75</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>75</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>63</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>128</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7028,6 +7196,30 @@
       <c r="JN8" t="n">
         <v>32</v>
       </c>
+      <c r="JO8" t="n">
+        <v>25</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>25</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>-12</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>-61</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>-23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7854,6 +8046,30 @@
       <c r="JN9" t="n">
         <v>1</v>
       </c>
+      <c r="JO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8680,6 +8896,30 @@
       <c r="JN10" t="n">
         <v>1</v>
       </c>
+      <c r="JO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>15</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9506,6 +9746,30 @@
       <c r="JN11" t="n">
         <v>224</v>
       </c>
+      <c r="JO11" t="n">
+        <v>233</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>233</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>233</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>203</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>213</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>221</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>181</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10332,6 +10596,30 @@
       <c r="JN12" t="n">
         <v>155</v>
       </c>
+      <c r="JO12" t="n">
+        <v>167</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>167</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>167</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>157</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>149</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>149</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11158,6 +11446,30 @@
       <c r="JN13" t="n">
         <v>379</v>
       </c>
+      <c r="JO13" t="n">
+        <v>400</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>400</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>400</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>362</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>361</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>330</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11984,6 +12296,30 @@
       <c r="JN14" t="n">
         <v>1.45</v>
       </c>
+      <c r="JO14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12810,6 +13146,30 @@
       <c r="JN15" t="n">
         <v>96</v>
       </c>
+      <c r="JO15" t="n">
+        <v>91</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>91</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>91</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>85</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>96</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>76</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13636,6 +13996,30 @@
       <c r="JN16" t="n">
         <v>66</v>
       </c>
+      <c r="JO16" t="n">
+        <v>48</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>48</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>64</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>68</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>61</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14462,6 +14846,30 @@
       <c r="JN17" t="n">
         <v>46</v>
       </c>
+      <c r="JO17" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>62</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>62</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>43</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>29</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>34</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15288,6 +15696,30 @@
       <c r="JN18" t="n">
         <v>27</v>
       </c>
+      <c r="JO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>17</v>
+      </c>
+      <c r="JT18" t="n">
+        <v>20</v>
+      </c>
+      <c r="JU18" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16114,6 +16546,30 @@
       <c r="JN19" t="n">
         <v>15</v>
       </c>
+      <c r="JO19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>18</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16940,6 +17396,30 @@
       <c r="JN20" t="n">
         <v>13</v>
       </c>
+      <c r="JO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>15</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17766,6 +18246,30 @@
       <c r="JN21" t="n">
         <v>7</v>
       </c>
+      <c r="JO21" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18592,6 +19096,30 @@
       <c r="JN22" t="n">
         <v>7</v>
       </c>
+      <c r="JO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT22" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19418,6 +19946,30 @@
       <c r="JN23" t="n">
         <v>1</v>
       </c>
+      <c r="JO23" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20244,6 +20796,30 @@
       <c r="JN24" t="n">
         <v>21</v>
       </c>
+      <c r="JO24" t="n">
+        <v>27</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>27</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>27</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>26</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>18</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>20</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21070,6 +21646,30 @@
       <c r="JN25" t="n">
         <v>61.9</v>
       </c>
+      <c r="JO25" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>50</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21896,6 +22496,30 @@
       <c r="JN26" t="n">
         <v>29.15</v>
       </c>
+      <c r="JO26" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22722,6 +23346,30 @@
       <c r="JN27" t="n">
         <v>18.05</v>
       </c>
+      <c r="JO27" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23548,6 +24196,30 @@
       <c r="JN28" t="n">
         <v>35</v>
       </c>
+      <c r="JO28" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>24</v>
+      </c>
+      <c r="JT28" t="n">
+        <v>37</v>
+      </c>
+      <c r="JU28" t="n">
+        <v>29</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24374,6 +25046,30 @@
       <c r="JN29" t="n">
         <v>57</v>
       </c>
+      <c r="JO29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>57</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>77</v>
+      </c>
+      <c r="JU29" t="n">
+        <v>45</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25200,6 +25896,30 @@
       <c r="JN30" t="n">
         <v>35</v>
       </c>
+      <c r="JO30" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>32</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>25</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU30" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26026,6 +26746,30 @@
       <c r="JN31" t="n">
         <v>54</v>
       </c>
+      <c r="JO31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>68</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>57</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU31" t="n">
+        <v>52</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26852,6 +27596,30 @@
       <c r="JN32" t="n">
         <v>2.57</v>
       </c>
+      <c r="JO32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JU32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27678,6 +28446,30 @@
       <c r="JN33" t="n">
         <v>4.15</v>
       </c>
+      <c r="JO33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU33" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28504,6 +29296,30 @@
       <c r="JN34" t="n">
         <v>37</v>
       </c>
+      <c r="JO34" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>38</v>
+      </c>
+      <c r="JU34" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29330,6 +30146,30 @@
       <c r="JN35" t="n">
         <v>24.1</v>
       </c>
+      <c r="JO35" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="JT35" t="n">
+        <v>20</v>
+      </c>
+      <c r="JU35" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30156,6 +30996,30 @@
       <c r="JN36" t="n">
         <v>188.1</v>
       </c>
+      <c r="JO36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>188</v>
+      </c>
+      <c r="JT36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JU36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30982,6 +31846,30 @@
       <c r="JN37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="JO37" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>85</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="JT37" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="JU37" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31808,6 +32696,30 @@
       <c r="JN38" t="n">
         <v>24.49</v>
       </c>
+      <c r="JO38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JT38" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JU38" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JV38" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32634,6 +33546,30 @@
       <c r="JN39" t="n">
         <v>81.3</v>
       </c>
+      <c r="JO39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>85</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JT39" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="JU39" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33460,6 +34396,30 @@
       <c r="JN40" t="n">
         <v>13</v>
       </c>
+      <c r="JO40" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT40" t="n">
+        <v>12</v>
+      </c>
+      <c r="JU40" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34286,6 +35246,30 @@
       <c r="JN41" t="n">
         <v>2</v>
       </c>
+      <c r="JO41" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU41" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -35112,6 +36096,30 @@
       <c r="JN42" t="n">
         <v>4</v>
       </c>
+      <c r="JO42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR42" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT42" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35938,6 +36946,30 @@
       <c r="JN43" t="n">
         <v>4</v>
       </c>
+      <c r="JO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU43" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36764,6 +37796,30 @@
       <c r="JN44" t="n">
         <v>148</v>
       </c>
+      <c r="JO44" t="n">
+        <v>164</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>164</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>164</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>135</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>130</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>141</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>127</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37590,6 +38646,30 @@
       <c r="JN45" t="n">
         <v>230</v>
       </c>
+      <c r="JO45" t="n">
+        <v>234</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>234</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>234</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>230</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>224</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>217</v>
+      </c>
+      <c r="JU45" t="n">
+        <v>196</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38416,6 +39496,30 @@
       <c r="JN46" t="n">
         <v>277</v>
       </c>
+      <c r="JO46" t="n">
+        <v>282</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>282</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>282</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>258</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>267</v>
+      </c>
+      <c r="JT46" t="n">
+        <v>252</v>
+      </c>
+      <c r="JU46" t="n">
+        <v>236</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -39242,6 +40346,30 @@
       <c r="JN47" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="JO47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="JT47" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JU47" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -40068,6 +41196,30 @@
       <c r="JN48" t="n">
         <v>57</v>
       </c>
+      <c r="JO48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>57</v>
+      </c>
+      <c r="JT48" t="n">
+        <v>77</v>
+      </c>
+      <c r="JU48" t="n">
+        <v>45</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40894,6 +42046,30 @@
       <c r="JN49" t="n">
         <v>11</v>
       </c>
+      <c r="JO49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT49" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU49" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41720,6 +42896,30 @@
       <c r="JN50" t="n">
         <v>9</v>
       </c>
+      <c r="JO50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT50" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU50" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42546,6 +43746,30 @@
       <c r="JN51" t="n">
         <v>35</v>
       </c>
+      <c r="JO51" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>24</v>
+      </c>
+      <c r="JT51" t="n">
+        <v>37</v>
+      </c>
+      <c r="JU51" t="n">
+        <v>29</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43372,6 +44596,30 @@
       <c r="JN52" t="n">
         <v>35</v>
       </c>
+      <c r="JO52" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>32</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>25</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JU52" t="n">
+        <v>35</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44198,6 +45446,30 @@
       <c r="JN53" t="n">
         <v>46</v>
       </c>
+      <c r="JO53" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>62</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>62</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>56</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>49</v>
+      </c>
+      <c r="JU53" t="n">
+        <v>36</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -45024,6 +46296,30 @@
       <c r="JN54" t="n">
         <v>12</v>
       </c>
+      <c r="JO54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU54" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45850,6 +47146,30 @@
       <c r="JN55" t="n">
         <v>7</v>
       </c>
+      <c r="JO55" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU55" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46676,6 +47996,30 @@
       <c r="JN56" t="n">
         <v>53.8</v>
       </c>
+      <c r="JO56" t="n">
+        <v>60</v>
+      </c>
+      <c r="JP56" t="n">
+        <v>60</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>60</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="JT56" t="n">
+        <v>90</v>
+      </c>
+      <c r="JU56" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -47502,6 +48846,30 @@
       <c r="JN57" t="n">
         <v>196</v>
       </c>
+      <c r="JO57" t="n">
+        <v>224</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>224</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>224</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>202</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>234</v>
+      </c>
+      <c r="JT57" t="n">
+        <v>225</v>
+      </c>
+      <c r="JU57" t="n">
+        <v>216</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -48328,6 +49696,30 @@
       <c r="JN58" t="n">
         <v>179</v>
       </c>
+      <c r="JO58" t="n">
+        <v>122</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>122</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>122</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>179</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>170</v>
+      </c>
+      <c r="JT58" t="n">
+        <v>123</v>
+      </c>
+      <c r="JU58" t="n">
+        <v>147</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -49154,6 +50546,30 @@
       <c r="JN59" t="n">
         <v>375</v>
       </c>
+      <c r="JO59" t="n">
+        <v>346</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>346</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>346</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>381</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>404</v>
+      </c>
+      <c r="JT59" t="n">
+        <v>348</v>
+      </c>
+      <c r="JU59" t="n">
+        <v>363</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49980,6 +51396,30 @@
       <c r="JN60" t="n">
         <v>1.09</v>
       </c>
+      <c r="JO60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JT60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="JU60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50806,6 +52246,30 @@
       <c r="JN61" t="n">
         <v>89</v>
       </c>
+      <c r="JO61" t="n">
+        <v>98</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>98</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>98</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>95</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>88</v>
+      </c>
+      <c r="JT61" t="n">
+        <v>89</v>
+      </c>
+      <c r="JU61" t="n">
+        <v>87</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51632,6 +53096,30 @@
       <c r="JN62" t="n">
         <v>72</v>
       </c>
+      <c r="JO62" t="n">
+        <v>81</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>81</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>81</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>59</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>84</v>
+      </c>
+      <c r="JT62" t="n">
+        <v>82</v>
+      </c>
+      <c r="JU62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -52458,6 +53946,30 @@
       <c r="JN63" t="n">
         <v>41</v>
       </c>
+      <c r="JO63" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP63" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>24</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT63" t="n">
+        <v>47</v>
+      </c>
+      <c r="JU63" t="n">
+        <v>47</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -53284,6 +54796,30 @@
       <c r="JN64" t="n">
         <v>15</v>
       </c>
+      <c r="JO64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>19</v>
+      </c>
+      <c r="JT64" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU64" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -54110,6 +55646,30 @@
       <c r="JN65" t="n">
         <v>27</v>
       </c>
+      <c r="JO65" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP65" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>17</v>
+      </c>
+      <c r="JT65" t="n">
+        <v>20</v>
+      </c>
+      <c r="JU65" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54936,6 +56496,30 @@
       <c r="JN66" t="n">
         <v>8</v>
       </c>
+      <c r="JO66" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU66" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55762,6 +57346,30 @@
       <c r="JN67" t="n">
         <v>5</v>
       </c>
+      <c r="JO67" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU67" t="n">
+        <v>16</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -56588,6 +58196,30 @@
       <c r="JN68" t="n">
         <v>3</v>
       </c>
+      <c r="JO68" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JU68" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -57414,6 +59046,30 @@
       <c r="JN69" t="n">
         <v>3</v>
       </c>
+      <c r="JO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT69" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU69" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -58240,6 +59896,30 @@
       <c r="JN70" t="n">
         <v>14</v>
       </c>
+      <c r="JO70" t="n">
+        <v>17</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT70" t="n">
+        <v>23</v>
+      </c>
+      <c r="JU70" t="n">
+        <v>28</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -59066,6 +60746,30 @@
       <c r="JN71" t="n">
         <v>57.1</v>
       </c>
+      <c r="JO71" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JT71" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="JU71" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59892,6 +61596,30 @@
       <c r="JN72" t="n">
         <v>46.88</v>
       </c>
+      <c r="JO72" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="JT72" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JU72" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>32.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60718,6 +62446,30 @@
       <c r="JN73" t="n">
         <v>26.79</v>
       </c>
+      <c r="JO73" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="JT73" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="JU73" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>14.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -61544,6 +63296,30 @@
       <c r="JN74" t="n">
         <v>43</v>
       </c>
+      <c r="JO74" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>46</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>32</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT74" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU74" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -62370,6 +64146,30 @@
       <c r="JN75" t="n">
         <v>71</v>
       </c>
+      <c r="JO75" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>69</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>63</v>
+      </c>
+      <c r="JT75" t="n">
+        <v>70</v>
+      </c>
+      <c r="JU75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JV75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -63196,6 +64996,30 @@
       <c r="JN76" t="n">
         <v>40</v>
       </c>
+      <c r="JO76" t="n">
+        <v>40</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>40</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>47</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>40</v>
+      </c>
+      <c r="JU76" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -64022,6 +65846,30 @@
       <c r="JN77" t="n">
         <v>44</v>
       </c>
+      <c r="JO77" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>38</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>50</v>
+      </c>
+      <c r="JT77" t="n">
+        <v>53</v>
+      </c>
+      <c r="JU77" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64848,6 +66696,30 @@
       <c r="JN78" t="n">
         <v>3.14</v>
       </c>
+      <c r="JO78" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="JU78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -65674,6 +67546,30 @@
       <c r="JN79" t="n">
         <v>5.5</v>
       </c>
+      <c r="JO79" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT79" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="JU79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>5.92</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -66500,6 +68396,30 @@
       <c r="JN80" t="n">
         <v>25</v>
       </c>
+      <c r="JO80" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>46</v>
+      </c>
+      <c r="JT80" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="JU80" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>33.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -67326,6 +69246,30 @@
       <c r="JN81" t="n">
         <v>18.2</v>
       </c>
+      <c r="JO81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>20</v>
+      </c>
+      <c r="JT81" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JU81" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -68152,6 +70096,30 @@
       <c r="JN82" t="n">
         <v>186.9</v>
       </c>
+      <c r="JO82" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JP82" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JT82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JU82" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68978,6 +70946,30 @@
       <c r="JN83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="JO83" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JT83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JU83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69804,6 +71796,30 @@
       <c r="JN84" t="n">
         <v>23.91</v>
       </c>
+      <c r="JO84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JT84" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JU84" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -70630,6 +72646,30 @@
       <c r="JN85" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="JO85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>80</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="JT85" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="JU85" t="n">
+        <v>126</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>106.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -71456,6 +73496,30 @@
       <c r="JN86" t="n">
         <v>12</v>
       </c>
+      <c r="JO86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT86" t="n">
+        <v>9</v>
+      </c>
+      <c r="JU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -72282,6 +74346,30 @@
       <c r="JN87" t="n">
         <v>7</v>
       </c>
+      <c r="JO87" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -73108,6 +75196,30 @@
       <c r="JN88" t="n">
         <v>1</v>
       </c>
+      <c r="JO88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT88" t="n">
+        <v>3</v>
+      </c>
+      <c r="JU88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73934,6 +76046,30 @@
       <c r="JN89" t="n">
         <v>3</v>
       </c>
+      <c r="JO89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU89" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -74760,6 +76896,30 @@
       <c r="JN90" t="n">
         <v>133</v>
       </c>
+      <c r="JO90" t="n">
+        <v>129</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>129</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>129</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>129</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>143</v>
+      </c>
+      <c r="JT90" t="n">
+        <v>157</v>
+      </c>
+      <c r="JU90" t="n">
+        <v>141</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -75586,6 +77746,30 @@
       <c r="JN91" t="n">
         <v>242</v>
       </c>
+      <c r="JO91" t="n">
+        <v>204</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>204</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>204</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>253</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>245</v>
+      </c>
+      <c r="JT91" t="n">
+        <v>186</v>
+      </c>
+      <c r="JU91" t="n">
+        <v>217</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -76412,6 +78596,30 @@
       <c r="JN92" t="n">
         <v>290</v>
       </c>
+      <c r="JO92" t="n">
+        <v>257</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>257</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>257</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>291</v>
+      </c>
+      <c r="JT92" t="n">
+        <v>220</v>
+      </c>
+      <c r="JU92" t="n">
+        <v>262</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -77238,6 +79446,30 @@
       <c r="JN93" t="n">
         <v>77.3</v>
       </c>
+      <c r="JO93" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JP93" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>72</v>
+      </c>
+      <c r="JT93" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="JU93" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -78064,6 +80296,30 @@
       <c r="JN94" t="n">
         <v>71</v>
       </c>
+      <c r="JO94" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>69</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>63</v>
+      </c>
+      <c r="JT94" t="n">
+        <v>70</v>
+      </c>
+      <c r="JU94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JV94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78890,6 +81146,30 @@
       <c r="JN95" t="n">
         <v>12</v>
       </c>
+      <c r="JO95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT95" t="n">
+        <v>8</v>
+      </c>
+      <c r="JU95" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -79716,6 +81996,30 @@
       <c r="JN96" t="n">
         <v>10</v>
       </c>
+      <c r="JO96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT96" t="n">
+        <v>10</v>
+      </c>
+      <c r="JU96" t="n">
+        <v>17</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -80542,6 +82846,30 @@
       <c r="JN97" t="n">
         <v>43</v>
       </c>
+      <c r="JO97" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>46</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>32</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT97" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU97" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -81368,6 +83696,30 @@
       <c r="JN98" t="n">
         <v>40</v>
       </c>
+      <c r="JO98" t="n">
+        <v>40</v>
+      </c>
+      <c r="JP98" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>40</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>47</v>
+      </c>
+      <c r="JT98" t="n">
+        <v>40</v>
+      </c>
+      <c r="JU98" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -82194,6 +84546,30 @@
       <c r="JN99" t="n">
         <v>40</v>
       </c>
+      <c r="JO99" t="n">
+        <v>58</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>58</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>58</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>38</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>65</v>
+      </c>
+      <c r="JT99" t="n">
+        <v>56</v>
+      </c>
+      <c r="JU99" t="n">
+        <v>63</v>
+      </c>
+      <c r="JV99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -83020,6 +85396,30 @@
       <c r="JN100" t="n">
         <v>4</v>
       </c>
+      <c r="JO100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU100" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -83846,6 +86246,30 @@
       <c r="JN101" t="n">
         <v>5</v>
       </c>
+      <c r="JO101" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU101" t="n">
+        <v>16</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -84672,6 +87096,30 @@
       <c r="JN102" t="n">
         <v>62.5</v>
       </c>
+      <c r="JO102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>60</v>
+      </c>
+      <c r="JT102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JU102" t="n">
+        <v>80</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
